--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T453"/>
+  <dimension ref="A1:T454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44230</v>
+        <v>44495</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -17635,41 +17635,41 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="N216" t="n">
-        <v>13000</v>
+        <v>19800</v>
       </c>
       <c r="O216" t="n">
-        <v>13000</v>
+        <v>19800</v>
       </c>
       <c r="P216" t="n">
-        <v>13000</v>
+        <v>19800</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>812</v>
+        <v>1100</v>
       </c>
       <c r="T216" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="N217" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O217" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P217" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N218" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O218" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P218" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N219" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N220" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O220" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P220" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N221" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O221" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P221" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -18115,29 +18115,29 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N222" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="O222" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="P222" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>700</v>
+        <v>562</v>
       </c>
       <c r="T222" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223">
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N223" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O223" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P223" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T223" t="n">
         <v>400</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N224" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="O224" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P224" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="T224" t="n">
         <v>400</v>
@@ -18355,29 +18355,29 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="N225" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="O225" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="P225" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="T225" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226">
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N226" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O226" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P226" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T226" t="n">
         <v>8</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N227" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O227" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P227" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T227" t="n">
         <v>8</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -18595,29 +18595,29 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N228" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O228" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P228" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T228" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N229" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O229" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P229" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N230" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O230" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P230" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N231" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O231" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P231" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -18915,25 +18915,25 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N232" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O232" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P232" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>875</v>
+        <v>531</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N233" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O233" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P233" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O234" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -19160,36 +19160,36 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="N235" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O235" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P235" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T235" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N236" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O236" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P236" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T236" t="n">
         <v>8</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N237" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O237" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P237" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T237" t="n">
         <v>8</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44265</v>
+        <v>44271</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -19395,29 +19395,29 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="N238" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O238" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P238" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T238" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239">
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N239" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O239" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P239" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N240" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O240" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P240" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -19635,29 +19635,29 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N241" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O241" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P241" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T241" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
@@ -19724,32 +19724,32 @@
         </is>
       </c>
       <c r="M242" t="n">
+        <v>120</v>
+      </c>
+      <c r="N242" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O242" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P242" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S242" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T242" t="n">
         <v>8</v>
-      </c>
-      <c r="N242" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O242" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P242" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R242" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S242" t="n">
-        <v>700</v>
-      </c>
-      <c r="T242" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="243">
@@ -19800,36 +19800,36 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="N243" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O243" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P243" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="T243" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="244">
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="N244" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O244" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P244" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T244" t="n">
         <v>8</v>
@@ -19964,32 +19964,32 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="N245" t="n">
-        <v>260000</v>
+        <v>6000</v>
       </c>
       <c r="O245" t="n">
-        <v>260000</v>
+        <v>6000</v>
       </c>
       <c r="P245" t="n">
-        <v>260000</v>
+        <v>6000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T245" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N246" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O246" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P246" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T246" t="n">
         <v>400</v>
@@ -20115,29 +20115,29 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="N247" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="P247" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1000</v>
+        <v>575</v>
       </c>
       <c r="T247" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="248">
@@ -20200,36 +20200,36 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="N248" t="n">
-        <v>260000</v>
+        <v>16000</v>
       </c>
       <c r="O248" t="n">
-        <v>260000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>260000</v>
+        <v>16000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T248" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249">
@@ -20284,32 +20284,32 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="N249" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P249" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T249" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250">
@@ -20360,36 +20360,36 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="N250" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="O250" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="P250" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="T250" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
@@ -20444,32 +20444,32 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="N251" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="O251" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="P251" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="T251" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="252">
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N252" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O252" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P252" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>938</v>
+        <v>688</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>85</v>
       </c>
       <c r="N254" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O254" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P254" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N255" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O255" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P255" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N256" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P256" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44195</v>
+        <v>44264</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -20915,41 +20915,41 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N257" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O257" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P257" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T257" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O258" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P258" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T258" t="n">
         <v>8</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N259" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O259" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P259" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="T259" t="n">
         <v>8</v>
@@ -21155,29 +21155,29 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N260" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O260" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P260" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>938</v>
+        <v>375</v>
       </c>
       <c r="T260" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N261" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O261" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P261" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21315,25 +21315,25 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N262" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O262" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P262" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21342,11 +21342,11 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N263" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O263" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N264" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O264" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P264" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N265" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O265" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P265" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21635,41 +21635,41 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N266" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>7707</v>
+        <v>10000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>963</v>
+        <v>625</v>
       </c>
       <c r="T266" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267">
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N267" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="O267" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>9708</v>
+        <v>7707</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1214</v>
+        <v>963</v>
       </c>
       <c r="T267" t="n">
         <v>8</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="N268" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O268" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P268" t="n">
-        <v>5707</v>
+        <v>9708</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>713</v>
+        <v>1214</v>
       </c>
       <c r="T268" t="n">
         <v>8</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="N269" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O269" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P269" t="n">
-        <v>4000</v>
+        <v>5707</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>500</v>
+        <v>713</v>
       </c>
       <c r="T269" t="n">
         <v>8</v>
@@ -21955,41 +21955,41 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
+        <v>80</v>
+      </c>
+      <c r="N270" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O270" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P270" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S270" t="n">
+        <v>500</v>
+      </c>
+      <c r="T270" t="n">
         <v>8</v>
-      </c>
-      <c r="N270" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O270" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P270" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q270" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R270" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S270" t="n">
-        <v>476</v>
-      </c>
-      <c r="T270" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="271">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N271" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O271" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P271" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>643</v>
+        <v>476</v>
       </c>
       <c r="T271" t="n">
         <v>420</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N272" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O272" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P272" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>548</v>
+        <v>643</v>
       </c>
       <c r="T272" t="n">
         <v>420</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44232</v>
+        <v>44209</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -22195,29 +22195,29 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N273" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="O273" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="P273" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>812</v>
+        <v>548</v>
       </c>
       <c r="T273" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="274">
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N274" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O274" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P274" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T274" t="n">
         <v>16</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N275" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O275" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P275" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T275" t="n">
         <v>16</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N276" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O276" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P276" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T276" t="n">
         <v>16</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T277" t="n">
         <v>16</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N278" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P278" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T278" t="n">
         <v>16</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44169</v>
+        <v>44232</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -22675,41 +22675,41 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N279" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O279" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P279" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T279" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="N280" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O280" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P280" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T280" t="n">
         <v>8</v>
@@ -22835,41 +22835,41 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N281" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O281" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P281" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T281" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282">
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N282" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T282" t="n">
         <v>16</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N283" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O283" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P283" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T283" t="n">
         <v>16</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44273</v>
+        <v>44169</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -23075,41 +23075,41 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="N284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>875</v>
+        <v>375</v>
       </c>
       <c r="T284" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285">
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N285" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O285" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P285" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T285" t="n">
         <v>8</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N286" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O286" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P286" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>688</v>
+        <v>1125</v>
       </c>
       <c r="T286" t="n">
         <v>8</v>
@@ -23315,41 +23315,41 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N287" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O287" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P287" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1062</v>
+        <v>688</v>
       </c>
       <c r="T287" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288">
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N288" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O288" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P288" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T288" t="n">
         <v>16</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N289" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O289" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P289" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T289" t="n">
         <v>16</v>
@@ -23564,20 +23564,20 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N290" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P290" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T290" t="n">
         <v>16</v>
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="N291" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P291" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T291" t="n">
         <v>16</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O292" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T292" t="n">
         <v>16</v>
@@ -23804,20 +23804,20 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N293" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O293" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P293" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T293" t="n">
         <v>16</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N294" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O294" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P294" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T294" t="n">
         <v>16</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23955,29 +23955,29 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="N295" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O295" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P295" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T295" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296">
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N296" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P296" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T296" t="n">
         <v>12</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N297" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O297" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P297" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T297" t="n">
         <v>12</v>
@@ -24195,41 +24195,41 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N298" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O298" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P298" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1250</v>
+        <v>667</v>
       </c>
       <c r="T298" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299">
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N299" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O299" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P299" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T299" t="n">
         <v>8</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N300" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O300" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P300" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T300" t="n">
         <v>8</v>
@@ -24435,25 +24435,25 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N301" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="O301" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P301" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1188</v>
+        <v>750</v>
       </c>
       <c r="T301" t="n">
         <v>8</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N302" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="O302" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="P302" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T302" t="n">
         <v>8</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N303" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="O303" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="P303" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>688</v>
+        <v>938</v>
       </c>
       <c r="T303" t="n">
         <v>8</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N304" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O304" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="P304" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T304" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305">
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T305" t="n">
         <v>16</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T306" t="n">
         <v>16</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24920,36 +24920,36 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T307" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="308">
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N308" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O308" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P308" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T308" t="n">
         <v>8</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N309" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O309" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P309" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T309" t="n">
         <v>8</v>
@@ -25155,41 +25155,41 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
         <v>70</v>
       </c>
       <c r="N310" t="n">
-        <v>13500</v>
+        <v>4000</v>
       </c>
       <c r="O310" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P310" t="n">
-        <v>13786</v>
+        <v>4000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>919</v>
+        <v>500</v>
       </c>
       <c r="T310" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311">
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="N311" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P311" t="n">
-        <v>11778</v>
+        <v>13786</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>785</v>
+        <v>919</v>
       </c>
       <c r="T311" t="n">
         <v>15</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="N312" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>9729</v>
+        <v>11778</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>649</v>
+        <v>785</v>
       </c>
       <c r="T312" t="n">
         <v>15</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N313" t="n">
         <v>9500</v>
       </c>
       <c r="O313" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P313" t="n">
-        <v>9500</v>
+        <v>9729</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25422,11 +25422,11 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="T313" t="n">
         <v>15</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N314" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="O314" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="P314" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>500</v>
+        <v>633</v>
       </c>
       <c r="T314" t="n">
         <v>15</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N315" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="O315" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="P315" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>367</v>
+        <v>500</v>
       </c>
       <c r="T315" t="n">
         <v>15</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44168</v>
+        <v>44203</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -25635,41 +25635,41 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="N316" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O316" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P316" t="n">
-        <v>7730</v>
+        <v>5500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>966</v>
+        <v>367</v>
       </c>
       <c r="T316" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="N317" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P317" t="n">
-        <v>9688</v>
+        <v>7730</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1211</v>
+        <v>966</v>
       </c>
       <c r="T317" t="n">
         <v>8</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N318" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O318" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P318" t="n">
-        <v>5781</v>
+        <v>9688</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>723</v>
+        <v>1211</v>
       </c>
       <c r="T318" t="n">
         <v>8</v>
@@ -25875,41 +25875,41 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O319" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P319" t="n">
-        <v>12000</v>
+        <v>5781</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="T319" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N320" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P320" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T320" t="n">
         <v>16</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N321" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O321" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P321" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T321" t="n">
         <v>16</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26115,41 +26115,41 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N322" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O322" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P322" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T322" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323">
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N323" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O323" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P323" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T323" t="n">
         <v>8</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N324" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P324" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T324" t="n">
         <v>8</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N325" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O325" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P325" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T325" t="n">
         <v>8</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N326" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O326" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P326" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T326" t="n">
         <v>8</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N327" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O327" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P327" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T327" t="n">
         <v>8</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N328" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O328" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P328" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T328" t="n">
         <v>8</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26675,41 +26675,41 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O329" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P329" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T329" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330">
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N330" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O330" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P330" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T330" t="n">
         <v>16</v>
@@ -26835,41 +26835,41 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T331" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332">
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N332" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O332" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P332" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T332" t="n">
         <v>8</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N333" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O333" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P333" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T333" t="n">
         <v>8</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N334" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O334" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P334" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27102,11 +27102,11 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T334" t="n">
         <v>8</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N335" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O335" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P335" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T335" t="n">
         <v>8</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N336" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O336" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P336" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T336" t="n">
         <v>8</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N337" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O337" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P337" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T337" t="n">
         <v>8</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N338" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O338" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P338" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T338" t="n">
         <v>8</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N339" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O339" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P339" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T339" t="n">
         <v>8</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N340" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O340" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P340" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T340" t="n">
         <v>8</v>
@@ -27635,41 +27635,41 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N341" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O341" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P341" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T341" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="N342" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O342" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P342" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T342" t="n">
         <v>16</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T343" t="n">
         <v>16</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27875,38 +27875,38 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N344" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T344" t="n">
         <v>16</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N345" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O345" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P345" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T345" t="n">
         <v>16</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44165</v>
+        <v>44229</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,20 +28044,20 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N346" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T346" t="n">
         <v>16</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T347" t="n">
         <v>16</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N348" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O348" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P348" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T348" t="n">
         <v>16</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N349" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O349" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P349" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T349" t="n">
         <v>16</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="N350" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O350" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P350" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T350" t="n">
         <v>16</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="N351" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P351" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T351" t="n">
         <v>16</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N352" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T352" t="n">
         <v>16</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N353" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T353" t="n">
         <v>16</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28675,41 +28675,41 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N354" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O354" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P354" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T354" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355">
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N355" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O355" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P355" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T355" t="n">
         <v>8</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="N356" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O356" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P356" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T356" t="n">
         <v>8</v>
@@ -28915,25 +28915,25 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N357" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O357" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P357" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T357" t="n">
         <v>8</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N358" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O358" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P358" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T358" t="n">
         <v>8</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N359" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O359" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P359" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T359" t="n">
         <v>8</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,25 +29155,25 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N360" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O360" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P360" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T360" t="n">
         <v>8</v>
@@ -29244,32 +29244,32 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N361" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O361" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P361" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T361" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362">
@@ -29320,36 +29320,36 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N362" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O362" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P362" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T362" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363">
@@ -29404,32 +29404,32 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N363" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O363" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P363" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T363" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364">
@@ -29480,36 +29480,36 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N364" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O364" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P364" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T364" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365">
@@ -29564,32 +29564,32 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="N365" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O365" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P365" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T365" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -29640,36 +29640,36 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="N366" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O366" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P366" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T366" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="367">
@@ -29715,25 +29715,25 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Ross Peach</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="N367" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O367" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P367" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T367" t="n">
         <v>8</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N368" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O368" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P368" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T368" t="n">
         <v>8</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N369" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O369" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P369" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T369" t="n">
         <v>8</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N370" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O370" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P370" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T370" t="n">
         <v>8</v>
@@ -30035,41 +30035,41 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Ross Peach</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N371" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O371" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P371" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T371" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372">
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N372" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O372" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P372" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T372" t="n">
         <v>16</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N373" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P373" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T373" t="n">
         <v>16</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30275,25 +30275,25 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N374" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O374" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P374" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30302,11 +30302,11 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T374" t="n">
         <v>16</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N375" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O375" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P375" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T375" t="n">
         <v>16</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N376" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O376" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P376" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T376" t="n">
         <v>16</v>
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
         <v>65</v>
       </c>
       <c r="N377" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O377" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P377" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30542,11 +30542,11 @@
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P378" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30675,25 +30675,25 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N379" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O379" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P379" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30702,11 +30702,11 @@
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O380" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30915,41 +30915,41 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="N382" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O382" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>476</v>
+        <v>625</v>
       </c>
       <c r="T382" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383">
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N383" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O383" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P383" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="T383" t="n">
         <v>420</v>
@@ -31075,29 +31075,29 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="N384" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="O384" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P384" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>812</v>
+        <v>357</v>
       </c>
       <c r="T384" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="385">
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O385" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T385" t="n">
         <v>16</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31235,29 +31235,29 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N386" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O386" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P386" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T386" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="387">
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N387" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O387" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P387" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T387" t="n">
         <v>14</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N388" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O388" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P388" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T388" t="n">
         <v>14</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31475,29 +31475,29 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="N389" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O389" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="T389" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390">
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P390" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T390" t="n">
         <v>16</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N391" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T391" t="n">
         <v>16</v>
@@ -31715,25 +31715,25 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N392" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O392" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P392" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T392" t="n">
         <v>16</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N393" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P393" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T393" t="n">
         <v>16</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31875,29 +31875,29 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O394" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P394" t="n">
-        <v>7770</v>
+        <v>12000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>971</v>
+        <v>750</v>
       </c>
       <c r="T394" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395">
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="N395" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="O395" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P395" t="n">
-        <v>9727</v>
+        <v>7770</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1216</v>
+        <v>971</v>
       </c>
       <c r="T395" t="n">
         <v>8</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N396" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O396" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>5780</v>
+        <v>9727</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>722</v>
+        <v>1216</v>
       </c>
       <c r="T396" t="n">
         <v>8</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N397" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O397" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P397" t="n">
-        <v>14000</v>
+        <v>5780</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="T397" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398">
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T398" t="n">
         <v>15</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T399" t="n">
         <v>15</v>
@@ -32355,16 +32355,16 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N400" t="n">
         <v>10000</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N401" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P401" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T401" t="n">
         <v>15</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T402" t="n">
         <v>15</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N403" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O403" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P403" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N405" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P405" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T405" t="n">
         <v>15</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32835,41 +32835,41 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N406" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>875</v>
+        <v>667</v>
       </c>
       <c r="T406" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407">
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N407" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O407" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P407" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33075,41 +33075,41 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N409" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O409" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P409" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T409" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="410">
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N410" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T410" t="n">
         <v>8</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N411" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P411" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T411" t="n">
         <v>8</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,32 +33324,32 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N412" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O412" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P412" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T412" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413">
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N413" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O413" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P413" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T413" t="n">
         <v>15</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T414" t="n">
         <v>15</v>
@@ -33555,41 +33555,41 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N415" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>7550</v>
+        <v>10000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T415" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416">
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N416" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O416" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P416" t="n">
-        <v>10000</v>
+        <v>7550</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1250</v>
+        <v>944</v>
       </c>
       <c r="T416" t="n">
         <v>8</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N417" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T417" t="n">
         <v>8</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="N418" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O418" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="P418" t="n">
-        <v>5778</v>
+        <v>9500</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>722</v>
+        <v>1188</v>
       </c>
       <c r="T418" t="n">
         <v>8</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="N419" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O419" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P419" t="n">
-        <v>4745</v>
+        <v>5778</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>593</v>
+        <v>722</v>
       </c>
       <c r="T419" t="n">
         <v>8</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33955,41 +33955,41 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>4745</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>750</v>
+        <v>593</v>
       </c>
       <c r="T420" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421">
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44172</v>
+        <v>44166</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
         <v>50</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34355,41 +34355,41 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N425" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="T425" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="426">
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T426" t="n">
         <v>15</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N427" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O427" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P427" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T427" t="n">
         <v>15</v>
@@ -34595,29 +34595,29 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N428" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O428" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P428" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,10 +34626,10 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>938</v>
+        <v>600</v>
       </c>
       <c r="T428" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429">
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N429" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O429" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P429" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P430" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34835,38 +34835,38 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N432" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -34995,41 +34995,41 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N433" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P433" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T433" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="434">
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N434" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O434" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P434" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T434" t="n">
         <v>14</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N435" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P435" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T435" t="n">
         <v>14</v>
@@ -35235,29 +35235,29 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>13818</v>
+        <v>12000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="T436" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437">
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="N437" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="O437" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P437" t="n">
-        <v>11793</v>
+        <v>13818</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>737</v>
+        <v>864</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="N438" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O438" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P438" t="n">
-        <v>9796</v>
+        <v>11793</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>612</v>
+        <v>737</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="N439" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P439" t="n">
-        <v>14000</v>
+        <v>9796</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>875</v>
+        <v>612</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N440" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O440" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P440" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N441" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P441" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
         <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N443" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O443" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P443" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N444" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O444" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P444" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35955,41 +35955,41 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N445" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P445" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>800</v>
+        <v>688</v>
       </c>
       <c r="T445" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446">
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P446" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T446" t="n">
         <v>15</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36115,41 +36115,41 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="N447" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>7771</v>
+        <v>10000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>971</v>
+        <v>667</v>
       </c>
       <c r="T447" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="N448" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P448" t="n">
-        <v>9742</v>
+        <v>7771</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1218</v>
+        <v>971</v>
       </c>
       <c r="T448" t="n">
         <v>8</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="N449" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O449" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>5762</v>
+        <v>9742</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>720</v>
+        <v>1218</v>
       </c>
       <c r="T449" t="n">
         <v>8</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N450" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="O450" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P450" t="n">
-        <v>3714</v>
+        <v>5762</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>464</v>
+        <v>720</v>
       </c>
       <c r="T450" t="n">
         <v>8</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N451" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O451" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P451" t="n">
-        <v>6000</v>
+        <v>3714</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>750</v>
+        <v>464</v>
       </c>
       <c r="T451" t="n">
         <v>8</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N452" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O452" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P452" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T452" t="n">
         <v>8</v>
@@ -36600,35 +36600,115 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M453" t="n">
+        <v>40</v>
+      </c>
+      <c r="N453" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O453" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P453" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S453" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T453" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>9</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E454" t="n">
+        <v>13</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M453" t="n">
+      <c r="M454" t="n">
         <v>70</v>
       </c>
-      <c r="N453" t="n">
+      <c r="N454" t="n">
         <v>4000</v>
       </c>
-      <c r="O453" t="n">
+      <c r="O454" t="n">
         <v>4000</v>
       </c>
-      <c r="P453" t="n">
+      <c r="P454" t="n">
         <v>4000</v>
       </c>
-      <c r="Q453" t="inlineStr">
+      <c r="Q454" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R453" t="inlineStr">
+      <c r="R454" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S453" t="n">
+      <c r="S454" t="n">
         <v>500</v>
       </c>
-      <c r="T453" t="n">
+      <c r="T454" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T454"/>
+  <dimension ref="A1:T456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31715,41 +31715,41 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N392" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O392" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P392" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T392" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,32 +31804,32 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N393" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P393" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T393" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394">
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O394" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P394" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T394" t="n">
         <v>16</v>
@@ -31955,29 +31955,29 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N395" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T395" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396">
@@ -32035,29 +32035,29 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N396" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O396" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P396" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1250</v>
+        <v>562</v>
       </c>
       <c r="T396" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397">
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N397" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O397" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P397" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T397" t="n">
         <v>8</v>
@@ -32195,29 +32195,29 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N398" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="O398" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="P398" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,10 +32226,10 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>595</v>
+        <v>1250</v>
       </c>
       <c r="T398" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32275,41 +32275,41 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P399" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T399" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,32 +32364,32 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="N400" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P400" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>833</v>
+        <v>595</v>
       </c>
       <c r="T400" t="n">
-        <v>12</v>
+        <v>420</v>
       </c>
     </row>
     <row r="401">
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N401" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P401" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T401" t="n">
         <v>12</v>
@@ -32515,16 +32515,16 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N402" t="n">
         <v>10000</v>
@@ -32537,19 +32537,19 @@
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="T402" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="403">
@@ -32595,16 +32595,16 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N403" t="n">
         <v>8000</v>
@@ -32617,19 +32617,19 @@
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T403" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404">
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N404" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T404" t="n">
         <v>8</v>
@@ -32755,25 +32755,25 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N405" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O405" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T405" t="n">
         <v>8</v>
@@ -32835,25 +32835,25 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N406" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O406" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P406" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T406" t="n">
         <v>8</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N407" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O407" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="P407" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T407" t="n">
         <v>8</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -32995,29 +32995,29 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N408" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O408" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P408" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T408" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33075,29 +33075,29 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="N409" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="O409" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P409" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1071</v>
+        <v>688</v>
       </c>
       <c r="T409" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410">
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N410" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O410" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P410" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T410" t="n">
         <v>14</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33235,41 +33235,41 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="N411" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O411" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P411" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>875</v>
+        <v>1071</v>
       </c>
       <c r="T411" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33315,41 +33315,41 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="N412" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T412" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413">
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O413" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P413" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33475,41 +33475,41 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N414" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O414" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P414" t="n">
-        <v>7730</v>
+        <v>16000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="T414" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33555,41 +33555,41 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N415" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>9688</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1211</v>
+        <v>750</v>
       </c>
       <c r="T415" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416">
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N416" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="O416" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P416" t="n">
-        <v>5781</v>
+        <v>7730</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>723</v>
+        <v>966</v>
       </c>
       <c r="T416" t="n">
         <v>8</v>
@@ -33715,41 +33715,41 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>9688</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>750</v>
+        <v>1211</v>
       </c>
       <c r="T417" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418">
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,32 +33804,32 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>5781</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>625</v>
+        <v>723</v>
       </c>
       <c r="T418" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419">
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33955,29 +33955,29 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34035,29 +34035,29 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N421" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O421" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P421" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N422" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34195,41 +34195,41 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N423" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O423" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P423" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T423" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,32 +34284,32 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N424" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O424" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P424" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T424" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="425">
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N425" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T425" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426">
@@ -34435,41 +34435,41 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N426" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O426" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P426" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T426" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427">
@@ -34515,41 +34515,41 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O427" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P427" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T427" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428">
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N429" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O429" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P429" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N432" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N433" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N434" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O434" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P434" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N435" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P435" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35235,29 +35235,29 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N436" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P436" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1167</v>
+        <v>938</v>
       </c>
       <c r="T436" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N437" t="n">
         <v>12000</v>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T437" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="438">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,20 +35404,20 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N438" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="O438" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="P438" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T438" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,20 +35484,20 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N439" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O439" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P439" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T439" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="440">
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N440" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O440" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P440" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>525</v>
+        <v>700</v>
       </c>
       <c r="T440" t="n">
         <v>400</v>
@@ -35635,41 +35635,41 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N441" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="O441" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="P441" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T441" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="442">
@@ -35715,41 +35715,41 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N442" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O442" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="P442" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1125</v>
+        <v>525</v>
       </c>
       <c r="T442" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="443">
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N443" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O443" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P443" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T443" t="n">
         <v>8</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,41 +35875,41 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N444" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O444" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P444" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T444" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35955,41 +35955,41 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N445" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O445" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P445" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T445" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446">
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,36 +36120,36 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O447" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P447" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T447" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,36 +36200,36 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N448" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T448" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449">
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N449" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O449" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P449" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T449" t="n">
         <v>8</v>
@@ -36355,41 +36355,41 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N450" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P450" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T450" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451">
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,32 +36444,32 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N451" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="O451" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P451" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>938</v>
+        <v>688</v>
       </c>
       <c r="T451" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N452" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O452" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P452" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36542,11 +36542,11 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>688</v>
+        <v>1062</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N453" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O453" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P453" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36622,11 +36622,11 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>562</v>
+        <v>938</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36680,35 +36680,195 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M454" t="n">
+        <v>70</v>
+      </c>
+      <c r="N454" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O454" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P454" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S454" t="n">
+        <v>688</v>
+      </c>
+      <c r="T454" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>9</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E455" t="n">
+        <v>13</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I455" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>Springcrest</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M455" t="n">
+        <v>45</v>
+      </c>
+      <c r="N455" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O455" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P455" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S455" t="n">
+        <v>562</v>
+      </c>
+      <c r="T455" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>9</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E456" t="n">
+        <v>13</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I456" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>Springcrest</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M454" t="n">
+      <c r="M456" t="n">
         <v>40</v>
       </c>
-      <c r="N454" t="n">
+      <c r="N456" t="n">
         <v>7000</v>
       </c>
-      <c r="O454" t="n">
+      <c r="O456" t="n">
         <v>7000</v>
       </c>
-      <c r="P454" t="n">
+      <c r="P456" t="n">
         <v>7000</v>
       </c>
-      <c r="Q454" t="inlineStr">
+      <c r="Q456" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R454" t="inlineStr">
+      <c r="R456" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S454" t="n">
+      <c r="S456" t="n">
         <v>438</v>
       </c>
-      <c r="T454" t="n">
+      <c r="T456" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T456"/>
+  <dimension ref="A1:T457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N272" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P272" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T272" t="n">
         <v>8</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="N273" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O273" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P273" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T273" t="n">
         <v>8</v>
@@ -22275,41 +22275,41 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N274" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O274" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P274" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T274" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N275" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O275" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P275" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T275" t="n">
         <v>16</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N276" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O276" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P276" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T276" t="n">
         <v>16</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -22515,41 +22515,41 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="N277" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O277" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P277" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="T277" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N278" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O278" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P278" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T278" t="n">
         <v>14</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N279" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O279" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P279" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T279" t="n">
         <v>14</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44160</v>
+        <v>44188</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -22755,41 +22755,41 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N280" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O280" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P280" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>938</v>
+        <v>857</v>
       </c>
       <c r="T280" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N281" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O281" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P281" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T281" t="n">
         <v>8</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N282" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T282" t="n">
         <v>8</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N283" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O283" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P283" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T283" t="n">
         <v>8</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N284" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O284" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P284" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T284" t="n">
         <v>8</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N285" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O285" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P285" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T285" t="n">
         <v>8</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N286" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O286" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P286" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T286" t="n">
         <v>8</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N287" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O287" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P287" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T287" t="n">
         <v>8</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N288" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O288" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P288" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T288" t="n">
         <v>8</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N289" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O289" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P289" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T289" t="n">
         <v>8</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N290" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O290" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P290" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T290" t="n">
         <v>8</v>
@@ -23635,41 +23635,41 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N291" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P291" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T291" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292">
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="N292" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O292" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T292" t="n">
         <v>16</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N293" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O293" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P293" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T293" t="n">
         <v>16</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44216</v>
+        <v>44274</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23875,41 +23875,41 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="N294" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="O294" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="P294" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="T294" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295">
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N295" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O295" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P295" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T295" t="n">
         <v>400</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N296" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="O296" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P296" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="T296" t="n">
         <v>400</v>
@@ -24115,29 +24115,29 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="N297" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="O297" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="P297" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="T297" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="298">
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N298" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O298" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P298" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T298" t="n">
         <v>8</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N299" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O299" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P299" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T299" t="n">
         <v>8</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N300" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O300" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P300" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T300" t="n">
         <v>8</v>
@@ -24444,32 +24444,32 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="N301" t="n">
-        <v>290000</v>
+        <v>8000</v>
       </c>
       <c r="O301" t="n">
-        <v>290000</v>
+        <v>8000</v>
       </c>
       <c r="P301" t="n">
-        <v>290000</v>
+        <v>8000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>725</v>
+        <v>1000</v>
       </c>
       <c r="T301" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302">
@@ -24520,36 +24520,36 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="N302" t="n">
-        <v>10000</v>
+        <v>290000</v>
       </c>
       <c r="O302" t="n">
-        <v>10000</v>
+        <v>290000</v>
       </c>
       <c r="P302" t="n">
-        <v>10000</v>
+        <v>290000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1250</v>
+        <v>725</v>
       </c>
       <c r="T302" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="303">
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N303" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O303" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P303" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T303" t="n">
         <v>8</v>
@@ -24684,32 +24684,32 @@
         </is>
       </c>
       <c r="M304" t="n">
+        <v>260</v>
+      </c>
+      <c r="N304" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O304" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P304" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S304" t="n">
+        <v>750</v>
+      </c>
+      <c r="T304" t="n">
         <v>8</v>
-      </c>
-      <c r="N304" t="n">
-        <v>260000</v>
-      </c>
-      <c r="O304" t="n">
-        <v>260000</v>
-      </c>
-      <c r="P304" t="n">
-        <v>260000</v>
-      </c>
-      <c r="Q304" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R304" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S304" t="n">
-        <v>650</v>
-      </c>
-      <c r="T304" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="305">
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N305" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O305" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P305" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T305" t="n">
         <v>400</v>
@@ -24835,41 +24835,41 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N306" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="O306" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="P306" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="T306" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307">
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N307" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O307" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P307" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T307" t="n">
         <v>16</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N308" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O308" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T308" t="n">
         <v>16</v>
@@ -25075,38 +25075,38 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N309" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O309" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P309" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T309" t="n">
         <v>16</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N310" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O310" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P310" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T310" t="n">
         <v>16</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N311" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T311" t="n">
         <v>16</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44189</v>
+        <v>44222</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25315,29 +25315,29 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N312" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P312" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T312" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T313" t="n">
         <v>14</v>
@@ -25475,41 +25475,41 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N314" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="T314" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315">
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N315" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O315" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P315" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T315" t="n">
         <v>16</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T316" t="n">
         <v>16</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44172</v>
+        <v>44189</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T317" t="n">
         <v>16</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N318" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T318" t="n">
         <v>16</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44278</v>
+        <v>44172</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25875,41 +25875,41 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N319" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T319" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320">
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N320" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T320" t="n">
         <v>8</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N321" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O321" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P321" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T321" t="n">
         <v>8</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N322" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O322" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P322" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T322" t="n">
         <v>8</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N323" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O323" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P323" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T323" t="n">
         <v>8</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N324" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O324" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P324" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T324" t="n">
         <v>8</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N325" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O325" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P325" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T325" t="n">
         <v>8</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26435,41 +26435,41 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N326" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O326" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P326" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T326" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N327" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O327" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P327" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T327" t="n">
         <v>16</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N328" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O328" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P328" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>812</v>
+        <v>1125</v>
       </c>
       <c r="T328" t="n">
         <v>16</v>
@@ -26675,41 +26675,41 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N329" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O329" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P329" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T329" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="330">
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N330" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O330" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P330" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T330" t="n">
         <v>8</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N331" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O331" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P331" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T331" t="n">
         <v>8</v>
@@ -26915,29 +26915,29 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N332" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O332" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P332" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T332" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333">
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N333" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P333" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T333" t="n">
         <v>16</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="N334" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P334" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T334" t="n">
         <v>16</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="N335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T335" t="n">
         <v>16</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27235,41 +27235,41 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N336" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O336" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P336" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T336" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337">
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T337" t="n">
         <v>8</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N338" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O338" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T338" t="n">
         <v>8</v>
@@ -27484,32 +27484,32 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="N339" t="n">
-        <v>280000</v>
+        <v>6000</v>
       </c>
       <c r="O339" t="n">
-        <v>280000</v>
+        <v>6000</v>
       </c>
       <c r="P339" t="n">
-        <v>280000</v>
+        <v>6000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T339" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340">
@@ -27560,36 +27560,36 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N340" t="n">
-        <v>4000</v>
+        <v>280000</v>
       </c>
       <c r="O340" t="n">
-        <v>4000</v>
+        <v>280000</v>
       </c>
       <c r="P340" t="n">
-        <v>4000</v>
+        <v>280000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T340" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341">
@@ -27644,32 +27644,32 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N341" t="n">
-        <v>220000</v>
+        <v>4000</v>
       </c>
       <c r="O341" t="n">
-        <v>220000</v>
+        <v>4000</v>
       </c>
       <c r="P341" t="n">
-        <v>220000</v>
+        <v>4000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="T341" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N342" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O342" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P342" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="T342" t="n">
         <v>420</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N343" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O343" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P343" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>405</v>
+        <v>476</v>
       </c>
       <c r="T343" t="n">
         <v>420</v>
@@ -27875,25 +27875,25 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N344" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="O344" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P344" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>667</v>
+        <v>405</v>
       </c>
       <c r="T344" t="n">
         <v>420</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N345" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O345" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P345" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="T345" t="n">
         <v>420</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44229</v>
+        <v>44208</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28035,41 +28035,41 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="N346" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="P346" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>812</v>
+        <v>571</v>
       </c>
       <c r="T346" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="347">
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N347" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O347" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P347" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T347" t="n">
         <v>16</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N348" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O348" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P348" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T348" t="n">
         <v>16</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N349" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O349" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P349" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T349" t="n">
         <v>16</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P350" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T350" t="n">
         <v>16</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28435,41 +28435,41 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N351" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O351" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P351" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T351" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352">
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N352" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O352" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P352" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T352" t="n">
         <v>8</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N353" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O353" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P353" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T353" t="n">
         <v>8</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N354" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O354" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P354" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T354" t="n">
         <v>8</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N355" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O355" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P355" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T355" t="n">
         <v>8</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N356" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O356" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P356" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T356" t="n">
         <v>8</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N357" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O357" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P357" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T357" t="n">
         <v>8</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N358" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O358" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P358" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T358" t="n">
         <v>8</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29075,25 +29075,25 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="N359" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O359" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P359" t="n">
-        <v>7771</v>
+        <v>5000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>971</v>
+        <v>625</v>
       </c>
       <c r="T359" t="n">
         <v>8</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="N360" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="O360" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P360" t="n">
-        <v>9742</v>
+        <v>7771</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1218</v>
+        <v>971</v>
       </c>
       <c r="T360" t="n">
         <v>8</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="N361" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O361" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P361" t="n">
-        <v>5762</v>
+        <v>9742</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>720</v>
+        <v>1218</v>
       </c>
       <c r="T361" t="n">
         <v>8</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N362" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="O362" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P362" t="n">
-        <v>3714</v>
+        <v>5762</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>464</v>
+        <v>720</v>
       </c>
       <c r="T362" t="n">
         <v>8</v>
@@ -29395,25 +29395,25 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N363" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O363" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P363" t="n">
-        <v>6000</v>
+        <v>3714</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>750</v>
+        <v>464</v>
       </c>
       <c r="T363" t="n">
         <v>8</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N364" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O364" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P364" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T364" t="n">
         <v>8</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N365" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O365" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P365" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T365" t="n">
         <v>8</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N366" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O366" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P366" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T366" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367">
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N367" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O367" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P367" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T367" t="n">
         <v>16</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O368" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P368" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T368" t="n">
         <v>16</v>
@@ -29875,25 +29875,25 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
         <v>65</v>
       </c>
       <c r="N369" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O369" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P369" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29902,11 +29902,11 @@
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T369" t="n">
         <v>16</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N370" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O370" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P370" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T370" t="n">
         <v>16</v>
@@ -30035,25 +30035,25 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N371" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P371" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30062,11 +30062,11 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T371" t="n">
         <v>16</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N372" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O372" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P372" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T372" t="n">
         <v>16</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N373" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O373" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P373" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T373" t="n">
         <v>16</v>
@@ -30275,41 +30275,41 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="N374" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O374" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P374" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>476</v>
+        <v>625</v>
       </c>
       <c r="T374" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="375">
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N375" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O375" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P375" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="T375" t="n">
         <v>420</v>
@@ -30435,29 +30435,29 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="N376" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="O376" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P376" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>812</v>
+        <v>357</v>
       </c>
       <c r="T376" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="377">
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30595,25 +30595,25 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N378" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O378" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P378" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30622,11 +30622,11 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N379" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O379" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P379" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30835,41 +30835,41 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N381" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O381" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1167</v>
+        <v>750</v>
       </c>
       <c r="T381" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382">
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T382" t="n">
         <v>12</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,32 +31004,32 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N383" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O383" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P383" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T383" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384">
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N384" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="O384" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P384" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="T384" t="n">
         <v>400</v>
@@ -31155,41 +31155,41 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="O385" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="P385" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="T385" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="386">
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N386" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P386" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T386" t="n">
         <v>8</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N387" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O387" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P387" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T387" t="n">
         <v>8</v>
@@ -31404,32 +31404,32 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="N388" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="O388" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="P388" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T388" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31475,29 +31475,29 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P389" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="T389" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="390">
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T390" t="n">
         <v>16</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N391" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T391" t="n">
         <v>16</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31715,41 +31715,41 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N392" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O392" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P392" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="T392" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393">
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N393" t="n">
         <v>11000</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31875,41 +31875,41 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N394" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O394" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P394" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T394" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395">
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N395" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O395" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P395" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T395" t="n">
         <v>16</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N396" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T396" t="n">
         <v>16</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N397" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O397" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P397" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T397" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="398">
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N398" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O398" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P398" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T398" t="n">
         <v>8</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N399" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O399" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P399" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T399" t="n">
         <v>8</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,20 +32364,20 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N400" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="O400" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="P400" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>595</v>
+        <v>750</v>
       </c>
       <c r="T400" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32435,41 +32435,41 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="N401" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O401" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P401" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1000</v>
+        <v>595</v>
       </c>
       <c r="T401" t="n">
-        <v>12</v>
+        <v>420</v>
       </c>
     </row>
     <row r="402">
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N402" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O402" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P402" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T402" t="n">
         <v>12</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N403" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O403" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T403" t="n">
         <v>12</v>
@@ -32675,41 +32675,41 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1250</v>
+        <v>667</v>
       </c>
       <c r="T404" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405">
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T405" t="n">
         <v>8</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N406" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O406" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P406" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>8</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N407" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="O407" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P407" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1188</v>
+        <v>750</v>
       </c>
       <c r="T407" t="n">
         <v>8</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N408" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="O408" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="P408" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T408" t="n">
         <v>8</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N409" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="O409" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="P409" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>688</v>
+        <v>938</v>
       </c>
       <c r="T409" t="n">
         <v>8</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33155,29 +33155,29 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O410" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="P410" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T410" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411">
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N411" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O411" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P411" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T411" t="n">
         <v>14</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T412" t="n">
         <v>14</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33395,41 +33395,41 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N413" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="T413" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="414">
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N414" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O414" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P414" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33635,41 +33635,41 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N416" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O416" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P416" t="n">
-        <v>7730</v>
+        <v>12000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>966</v>
+        <v>750</v>
       </c>
       <c r="T416" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="417">
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="N417" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P417" t="n">
-        <v>9688</v>
+        <v>7730</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1211</v>
+        <v>966</v>
       </c>
       <c r="T417" t="n">
         <v>8</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N418" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O418" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>5781</v>
+        <v>9688</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>723</v>
+        <v>1211</v>
       </c>
       <c r="T418" t="n">
         <v>8</v>
@@ -33875,41 +33875,41 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>5781</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="T419" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420">
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P421" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34115,29 +34115,29 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N422" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O422" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N424" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34355,41 +34355,41 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N425" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O425" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P425" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T425" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="426">
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N426" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O426" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P426" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T426" t="n">
         <v>8</v>
@@ -34520,24 +34520,24 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T427" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428">
@@ -34595,41 +34595,41 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N428" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O428" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P428" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T428" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429">
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N431" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N432" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O432" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P432" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34942,11 +34942,11 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N434" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N435" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O435" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P435" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N436" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O436" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P436" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N437" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O437" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P437" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N438" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O438" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P438" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1167</v>
+        <v>750</v>
       </c>
       <c r="T438" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="439">
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O439" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T439" t="n">
         <v>12</v>
@@ -35555,29 +35555,29 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N440" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="O440" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="P440" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T440" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441">
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N441" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O441" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P441" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T441" t="n">
         <v>400</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N442" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="O442" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P442" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="T442" t="n">
         <v>400</v>
@@ -35795,41 +35795,41 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="N443" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="O443" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="P443" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="T443" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="444">
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N444" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O444" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P444" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T444" t="n">
         <v>8</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N445" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O445" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P445" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T445" t="n">
         <v>8</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36035,41 +36035,41 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N446" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P446" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T446" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447">
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N447" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O447" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P447" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,36 +36280,36 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O449" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T449" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450">
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N450" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O450" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P450" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T450" t="n">
         <v>8</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N451" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O451" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P451" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>688</v>
+        <v>1125</v>
       </c>
       <c r="T451" t="n">
         <v>8</v>
@@ -36515,41 +36515,41 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N452" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O452" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P452" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1062</v>
+        <v>688</v>
       </c>
       <c r="T452" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453">
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N453" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O453" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P453" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36687,13 +36687,13 @@
         <v>70</v>
       </c>
       <c r="N454" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O454" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P454" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36702,11 +36702,11 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>688</v>
+        <v>938</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N455" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P455" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36840,35 +36840,115 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M456" t="n">
+        <v>45</v>
+      </c>
+      <c r="N456" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O456" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P456" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S456" t="n">
+        <v>562</v>
+      </c>
+      <c r="T456" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>9</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E457" t="n">
+        <v>13</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I457" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>Springcrest</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M456" t="n">
+      <c r="M457" t="n">
         <v>40</v>
       </c>
-      <c r="N456" t="n">
+      <c r="N457" t="n">
         <v>7000</v>
       </c>
-      <c r="O456" t="n">
+      <c r="O457" t="n">
         <v>7000</v>
       </c>
-      <c r="P456" t="n">
+      <c r="P457" t="n">
         <v>7000</v>
       </c>
-      <c r="Q456" t="inlineStr">
+      <c r="Q457" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R456" t="inlineStr">
+      <c r="R457" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S456" t="n">
+      <c r="S457" t="n">
         <v>438</v>
       </c>
-      <c r="T456" t="n">
+      <c r="T457" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T457"/>
+  <dimension ref="A1:T464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N272" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O272" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P272" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T272" t="n">
         <v>8</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O273" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P273" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T273" t="n">
         <v>8</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="N274" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O274" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P274" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T274" t="n">
         <v>8</v>
@@ -22355,41 +22355,41 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N275" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O275" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="T275" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N276" t="n">
         <v>8000</v>
@@ -22457,19 +22457,19 @@
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T276" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N277" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O277" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P277" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="T277" t="n">
         <v>16</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -22595,41 +22595,41 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N278" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O278" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P278" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T278" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -22675,41 +22675,41 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N279" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O279" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P279" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1071</v>
+        <v>375</v>
       </c>
       <c r="T279" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T280" t="n">
         <v>14</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44160</v>
+        <v>44188</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -22835,41 +22835,41 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N281" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O281" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P281" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>938</v>
+        <v>1071</v>
       </c>
       <c r="T281" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44160</v>
+        <v>44188</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22915,41 +22915,41 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N282" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1250</v>
+        <v>857</v>
       </c>
       <c r="T282" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N283" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O283" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P283" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T283" t="n">
         <v>8</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N284" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O284" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P284" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T284" t="n">
         <v>8</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N285" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O285" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P285" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T285" t="n">
         <v>8</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N286" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O286" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P286" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T286" t="n">
         <v>8</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N287" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O287" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P287" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T287" t="n">
         <v>8</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N288" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O288" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P288" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T288" t="n">
         <v>8</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N289" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O289" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P289" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T289" t="n">
         <v>8</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N290" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O290" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P290" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T290" t="n">
         <v>8</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N291" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O291" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P291" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T291" t="n">
         <v>8</v>
@@ -23715,41 +23715,41 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N292" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O292" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P292" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T292" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,32 +23804,32 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N293" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O293" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P293" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T293" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294">
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="N294" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O294" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T294" t="n">
         <v>16</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44216</v>
+        <v>44274</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23955,41 +23955,41 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="N295" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="O295" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="P295" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>700</v>
+        <v>938</v>
       </c>
       <c r="T295" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44216</v>
+        <v>44274</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24035,41 +24035,41 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="N296" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P296" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T296" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297">
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N297" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O297" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P297" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>525</v>
+        <v>700</v>
       </c>
       <c r="T297" t="n">
         <v>400</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="N298" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="O298" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="P298" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T298" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="299">
@@ -24275,29 +24275,29 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="N299" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O299" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="P299" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1125</v>
+        <v>525</v>
       </c>
       <c r="T299" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="300">
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N300" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O300" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P300" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T300" t="n">
         <v>8</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -24435,25 +24435,25 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N301" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O301" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P301" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T301" t="n">
         <v>8</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -24515,29 +24515,29 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N302" t="n">
-        <v>290000</v>
+        <v>5000</v>
       </c>
       <c r="O302" t="n">
-        <v>290000</v>
+        <v>5000</v>
       </c>
       <c r="P302" t="n">
-        <v>290000</v>
+        <v>5000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T302" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303">
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N303" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O303" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P303" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T303" t="n">
         <v>8</v>
@@ -24680,36 +24680,36 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="N304" t="n">
-        <v>6000</v>
+        <v>290000</v>
       </c>
       <c r="O304" t="n">
-        <v>6000</v>
+        <v>290000</v>
       </c>
       <c r="P304" t="n">
-        <v>6000</v>
+        <v>290000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="T304" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305">
@@ -24760,36 +24760,36 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M305" t="n">
+        <v>210</v>
+      </c>
+      <c r="N305" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O305" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P305" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S305" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T305" t="n">
         <v>8</v>
-      </c>
-      <c r="N305" t="n">
-        <v>260000</v>
-      </c>
-      <c r="O305" t="n">
-        <v>260000</v>
-      </c>
-      <c r="P305" t="n">
-        <v>260000</v>
-      </c>
-      <c r="Q305" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R305" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S305" t="n">
-        <v>650</v>
-      </c>
-      <c r="T305" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="306">
@@ -24840,36 +24840,36 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="N306" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="O306" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="P306" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="T306" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307">
@@ -24915,41 +24915,41 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="N307" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="O307" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="P307" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="T307" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="308">
@@ -24995,41 +24995,41 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N308" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="O308" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P308" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>875</v>
+        <v>550</v>
       </c>
       <c r="T308" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="309">
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N309" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O309" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P309" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T309" t="n">
         <v>16</v>
@@ -25155,16 +25155,16 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N310" t="n">
         <v>14000</v>
@@ -25177,12 +25177,12 @@
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S310" t="n">
@@ -25235,38 +25235,38 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="N311" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P311" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T311" t="n">
         <v>16</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N312" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O312" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P312" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T312" t="n">
         <v>16</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44189</v>
+        <v>44222</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -25395,29 +25395,29 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N313" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O313" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P313" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T313" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44189</v>
+        <v>44222</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25475,29 +25475,29 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P314" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>857</v>
+        <v>562</v>
       </c>
       <c r="T314" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,7 +25564,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N315" t="n">
         <v>14000</v>
@@ -25577,19 +25577,19 @@
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T315" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316">
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,7 +25644,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N316" t="n">
         <v>12000</v>
@@ -25657,19 +25657,19 @@
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>750</v>
+        <v>857</v>
       </c>
       <c r="T316" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317">
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T317" t="n">
         <v>16</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44172</v>
+        <v>44189</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25795,16 +25795,16 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N318" t="n">
         <v>12000</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44172</v>
+        <v>44189</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25875,16 +25875,16 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N319" t="n">
         <v>10000</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44278</v>
+        <v>44172</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,32 +25964,32 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N320" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O320" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P320" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T320" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44278</v>
+        <v>44172</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26035,41 +26035,41 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N321" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O321" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P321" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T321" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322">
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N322" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O322" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P322" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T322" t="n">
         <v>8</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N323" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O323" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P323" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T323" t="n">
         <v>8</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26275,16 +26275,16 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="N324" t="n">
         <v>7000</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N325" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O325" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P325" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T325" t="n">
         <v>8</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="N326" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O326" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P326" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T326" t="n">
         <v>8</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26515,41 +26515,41 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N327" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O327" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P327" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T327" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26595,41 +26595,41 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N328" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O328" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P328" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T328" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329">
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N329" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O329" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P329" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T329" t="n">
         <v>16</v>
@@ -26755,41 +26755,41 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N330" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O330" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P330" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T330" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331">
@@ -26835,41 +26835,41 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T331" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332">
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N332" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O332" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P332" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T332" t="n">
         <v>8</v>
@@ -26995,29 +26995,29 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N333" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O333" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P333" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T333" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334">
@@ -27075,29 +27075,29 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N334" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O334" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P334" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T334" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335">
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="N335" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P335" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T335" t="n">
         <v>16</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N336" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O336" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P336" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T336" t="n">
         <v>16</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27315,41 +27315,41 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N337" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T337" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27395,16 +27395,16 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N338" t="n">
         <v>10000</v>
@@ -27417,19 +27417,19 @@
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T338" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339">
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N339" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O339" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P339" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T339" t="n">
         <v>8</v>
@@ -27560,36 +27560,36 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="N340" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O340" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P340" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="T340" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341">
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N341" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O341" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P341" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T341" t="n">
         <v>8</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N342" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O342" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P342" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="T342" t="n">
         <v>420</v>
@@ -27795,41 +27795,41 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N343" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="O343" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="P343" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="T343" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N344" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O344" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P344" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27902,11 +27902,11 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>405</v>
+        <v>524</v>
       </c>
       <c r="T344" t="n">
         <v>420</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N345" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O345" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P345" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="T345" t="n">
         <v>420</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N346" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="O346" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P346" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>571</v>
+        <v>405</v>
       </c>
       <c r="T346" t="n">
         <v>420</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44229</v>
+        <v>44208</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28115,41 +28115,41 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="N347" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="O347" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="P347" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>812</v>
+        <v>667</v>
       </c>
       <c r="T347" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44229</v>
+        <v>44208</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28195,41 +28195,41 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="N348" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="O348" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="P348" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>688</v>
+        <v>571</v>
       </c>
       <c r="T348" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28284,20 +28284,20 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N349" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O349" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P349" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T349" t="n">
         <v>16</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,24 +28360,24 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N350" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O350" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P350" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T350" t="n">
         <v>16</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N351" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P351" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T351" t="n">
         <v>16</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28515,41 +28515,41 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="N352" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O352" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P352" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S352" t="n">
         <v>1000</v>
       </c>
       <c r="T352" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28595,41 +28595,41 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="N353" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O353" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P353" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T353" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="354">
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N354" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O354" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P354" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T354" t="n">
         <v>8</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N355" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O355" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P355" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T355" t="n">
         <v>8</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N356" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O356" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P356" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T356" t="n">
         <v>8</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N357" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O357" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P357" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T357" t="n">
         <v>8</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N358" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P358" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
         <v>8</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N359" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O359" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P359" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T359" t="n">
         <v>8</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,25 +29155,25 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N360" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O360" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P360" t="n">
-        <v>7771</v>
+        <v>6000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>971</v>
+        <v>750</v>
       </c>
       <c r="T360" t="n">
         <v>8</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N361" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P361" t="n">
-        <v>9742</v>
+        <v>5000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1218</v>
+        <v>625</v>
       </c>
       <c r="T361" t="n">
         <v>8</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="N362" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="O362" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P362" t="n">
-        <v>5762</v>
+        <v>7771</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>720</v>
+        <v>971</v>
       </c>
       <c r="T362" t="n">
         <v>8</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="N363" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="O363" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P363" t="n">
-        <v>3714</v>
+        <v>9742</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>464</v>
+        <v>1218</v>
       </c>
       <c r="T363" t="n">
         <v>8</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="N364" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O364" t="n">
         <v>6000</v>
       </c>
       <c r="P364" t="n">
-        <v>6000</v>
+        <v>5762</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="T364" t="n">
         <v>8</v>
@@ -29555,25 +29555,25 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N365" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O365" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P365" t="n">
-        <v>8000</v>
+        <v>3714</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1000</v>
+        <v>464</v>
       </c>
       <c r="T365" t="n">
         <v>8</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N366" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O366" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P366" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T366" t="n">
         <v>8</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29715,29 +29715,29 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M367" t="n">
         <v>40</v>
       </c>
       <c r="N367" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O367" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P367" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T367" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N368" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O368" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P368" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T368" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369">
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N369" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O369" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P369" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T369" t="n">
         <v>16</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,7 +29964,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N370" t="n">
         <v>14000</v>
@@ -29982,7 +29982,7 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S370" t="n">
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N371" t="n">
         <v>10000</v>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S371" t="n">
@@ -30115,16 +30115,16 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N372" t="n">
         <v>14000</v>
@@ -30142,7 +30142,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S372" t="n">
@@ -30195,25 +30195,25 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P373" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30222,11 +30222,11 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T373" t="n">
         <v>16</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N374" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O374" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P374" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T374" t="n">
         <v>16</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,32 +30364,32 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="N375" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O375" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P375" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="T375" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376">
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,32 +30444,32 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="N376" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O376" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P376" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="T376" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,20 +30524,20 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N377" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="O377" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="P377" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>812</v>
+        <v>476</v>
       </c>
       <c r="T377" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="378">
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,20 +30604,20 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P378" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>625</v>
+        <v>357</v>
       </c>
       <c r="T378" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30675,25 +30675,25 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N379" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O379" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P379" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30702,11 +30702,11 @@
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N380" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30782,11 +30782,11 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N381" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O381" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P381" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30915,41 +30915,41 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N382" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O382" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P382" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1167</v>
+        <v>938</v>
       </c>
       <c r="T382" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -30995,12 +30995,12 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
@@ -31017,19 +31017,19 @@
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T383" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="384">
@@ -31075,41 +31075,41 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N384" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="O384" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="P384" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>650</v>
+        <v>1167</v>
       </c>
       <c r="T384" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385">
@@ -31155,41 +31155,41 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="N385" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="P385" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>525</v>
+        <v>1000</v>
       </c>
       <c r="T385" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386">
@@ -31235,41 +31235,41 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="N386" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="O386" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="P386" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T386" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387">
@@ -31315,41 +31315,41 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="N387" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O387" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="P387" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1125</v>
+        <v>525</v>
       </c>
       <c r="T387" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388">
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N388" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O388" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P388" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T388" t="n">
         <v>8</v>
@@ -31480,36 +31480,36 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N389" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="O389" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="P389" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>675</v>
+        <v>1125</v>
       </c>
       <c r="T389" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31555,41 +31555,41 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P390" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T390" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,20 +31644,20 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="N391" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P391" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T391" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="392">
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N392" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O392" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T392" t="n">
         <v>16</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,32 +31804,32 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N393" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O393" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="T393" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,36 +31880,36 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N394" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O394" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P394" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="T394" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,32 +31964,32 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N395" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T395" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="N396" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P396" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T396" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32115,41 +32115,41 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="N397" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O397" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>562</v>
+        <v>1500</v>
       </c>
       <c r="T397" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32195,25 +32195,25 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="N398" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O398" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P398" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32222,11 +32222,11 @@
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T398" t="n">
         <v>8</v>
@@ -32275,29 +32275,29 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T399" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400">
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,20 +32364,20 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N400" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O400" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P400" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32389,7 +32389,7 @@
         <v>750</v>
       </c>
       <c r="T400" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="401">
@@ -32435,29 +32435,29 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="N401" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O401" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="P401" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="T401" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,32 +32524,32 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S402" t="n">
         <v>1000</v>
       </c>
       <c r="T402" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32595,16 +32595,16 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N403" t="n">
         <v>10000</v>
@@ -32617,19 +32617,19 @@
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>833</v>
+        <v>1250</v>
       </c>
       <c r="T403" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32675,41 +32675,41 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N404" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O404" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P404" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T404" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32755,41 +32755,41 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N405" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O405" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P405" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1250</v>
+        <v>595</v>
       </c>
       <c r="T405" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="406">
@@ -32835,41 +32835,41 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N406" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O406" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P406" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S406" t="n">
         <v>1000</v>
       </c>
       <c r="T406" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407">
@@ -32915,41 +32915,41 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="N407" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O407" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>750</v>
+        <v>833</v>
       </c>
       <c r="T407" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408">
@@ -32995,29 +32995,29 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N408" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O408" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P408" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1188</v>
+        <v>667</v>
       </c>
       <c r="T408" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="409">
@@ -33075,25 +33075,25 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N409" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33102,11 +33102,11 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T409" t="n">
         <v>8</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N410" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T410" t="n">
         <v>8</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33235,41 +33235,41 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N411" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O411" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P411" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T411" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33315,29 +33315,29 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="N412" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="O412" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P412" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1071</v>
+        <v>1188</v>
       </c>
       <c r="T412" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O413" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P413" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T413" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44246</v>
+        <v>44215</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33475,41 +33475,41 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N414" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O414" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="P414" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T414" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33555,41 +33555,41 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="N415" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O415" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P415" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S415" t="n">
         <v>1000</v>
       </c>
       <c r="T415" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33635,41 +33635,41 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="N416" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>750</v>
+        <v>1071</v>
       </c>
       <c r="T416" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33715,41 +33715,41 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="N417" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>7730</v>
+        <v>12000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>966</v>
+        <v>857</v>
       </c>
       <c r="T417" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33795,41 +33795,41 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N418" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P418" t="n">
-        <v>9688</v>
+        <v>14000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1211</v>
+        <v>875</v>
       </c>
       <c r="T418" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33875,41 +33875,41 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="N419" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="O419" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P419" t="n">
-        <v>5781</v>
+        <v>16000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>723</v>
+        <v>1000</v>
       </c>
       <c r="T419" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="420">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33955,16 +33955,16 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N420" t="n">
         <v>12000</v>
@@ -33977,12 +33977,12 @@
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S420" t="n">
@@ -34035,41 +34035,41 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>7730</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S421" t="n">
-        <v>625</v>
+        <v>966</v>
       </c>
       <c r="T421" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422">
@@ -34115,41 +34115,41 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>9688</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>500</v>
+        <v>1211</v>
       </c>
       <c r="T422" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423">
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34195,41 +34195,41 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>5781</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="T423" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34275,29 +34275,29 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,20 +34364,20 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N425" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44181</v>
+        <v>44168</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34435,16 +34435,16 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N426" t="n">
         <v>8000</v>
@@ -34457,19 +34457,19 @@
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T426" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34515,41 +34515,41 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N427" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O427" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P427" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S427" t="n">
         <v>750</v>
       </c>
       <c r="T427" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34595,41 +34595,41 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N428" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O428" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P428" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T428" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="429">
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N429" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O429" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P429" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>938</v>
+        <v>562</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34755,41 +34755,41 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T430" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431">
@@ -34835,41 +34835,41 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T431" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432">
@@ -34915,41 +34915,41 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N432" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O432" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P432" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S432" t="n">
         <v>500</v>
       </c>
       <c r="T432" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433">
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N433" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O433" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P433" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N434" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N436" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P436" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N437" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O437" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P437" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35342,11 +35342,11 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
         <v>80</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35422,11 +35422,11 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35475,41 +35475,41 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N439" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P439" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1167</v>
+        <v>500</v>
       </c>
       <c r="T439" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N440" t="n">
         <v>12000</v>
@@ -35577,19 +35577,19 @@
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T440" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,32 +35644,32 @@
         </is>
       </c>
       <c r="M441" t="n">
+        <v>410</v>
+      </c>
+      <c r="N441" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O441" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P441" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S441" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T441" t="n">
         <v>8</v>
-      </c>
-      <c r="N441" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O441" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P441" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q441" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R441" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S441" t="n">
-        <v>700</v>
-      </c>
-      <c r="T441" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,32 +35724,32 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="N442" t="n">
-        <v>260000</v>
+        <v>11000</v>
       </c>
       <c r="O442" t="n">
-        <v>260000</v>
+        <v>11000</v>
       </c>
       <c r="P442" t="n">
-        <v>260000</v>
+        <v>11000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>650</v>
+        <v>1375</v>
       </c>
       <c r="T442" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35795,29 +35795,29 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N443" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="O443" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>525</v>
+        <v>875</v>
       </c>
       <c r="T443" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,41 +35875,41 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N444" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O444" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P444" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T444" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35955,41 +35955,41 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N445" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O445" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P445" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T445" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446">
@@ -36035,41 +36035,41 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N446" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O446" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>625</v>
+        <v>1167</v>
       </c>
       <c r="T446" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N447" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T447" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36195,29 +36195,29 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="N448" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="O448" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="P448" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T448" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,20 +36284,20 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N449" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="O449" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P449" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T449" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36355,41 +36355,41 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N450" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="O450" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="P450" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="T450" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N451" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O451" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P451" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T451" t="n">
         <v>8</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N452" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P452" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>688</v>
+        <v>1125</v>
       </c>
       <c r="T452" t="n">
         <v>8</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36595,41 +36595,41 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N453" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O453" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P453" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T453" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N454" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O454" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P454" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N455" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O455" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P455" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36835,25 +36835,25 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N456" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36862,11 +36862,11 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T456" t="n">
         <v>16</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36915,16 +36915,16 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N457" t="n">
         <v>7000</v>
@@ -36937,18 +36937,578 @@
       </c>
       <c r="Q457" t="inlineStr">
         <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S457" t="n">
+        <v>875</v>
+      </c>
+      <c r="T457" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>9</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D458" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E458" t="n">
+        <v>13</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I458" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M458" t="n">
+        <v>110</v>
+      </c>
+      <c r="N458" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O458" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P458" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S458" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T458" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>9</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E459" t="n">
+        <v>13</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I459" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M459" t="n">
+        <v>180</v>
+      </c>
+      <c r="N459" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O459" t="n">
+        <v>5500</v>
+      </c>
+      <c r="P459" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S459" t="n">
+        <v>688</v>
+      </c>
+      <c r="T459" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>9</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E460" t="n">
+        <v>13</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I460" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M460" t="n">
+        <v>55</v>
+      </c>
+      <c r="N460" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O460" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P460" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R457" t="inlineStr">
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S460" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T460" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>9</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E461" t="n">
+        <v>13</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M461" t="n">
+        <v>70</v>
+      </c>
+      <c r="N461" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O461" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P461" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S461" t="n">
+        <v>938</v>
+      </c>
+      <c r="T461" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>9</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E462" t="n">
+        <v>13</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I462" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>Springcrest</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M462" t="n">
+        <v>70</v>
+      </c>
+      <c r="N462" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O462" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P462" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S457" t="n">
+      <c r="S462" t="n">
+        <v>688</v>
+      </c>
+      <c r="T462" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>9</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D463" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E463" t="n">
+        <v>13</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I463" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>Springcrest</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M463" t="n">
+        <v>45</v>
+      </c>
+      <c r="N463" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O463" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P463" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S463" t="n">
+        <v>562</v>
+      </c>
+      <c r="T463" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>9</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D464" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E464" t="n">
+        <v>13</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>Springcrest</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M464" t="n">
+        <v>40</v>
+      </c>
+      <c r="N464" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O464" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P464" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S464" t="n">
         <v>438</v>
       </c>
-      <c r="T457" t="n">
+      <c r="T464" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T466"/>
+  <dimension ref="A1:T469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,32 +24684,32 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="N304" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O304" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T304" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24755,41 +24755,41 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O305" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P305" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T305" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,32 +24844,32 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="N306" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O306" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P306" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T306" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,29 +24924,29 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N307" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O307" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P307" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T307" t="n">
         <v>16</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -24995,38 +24995,38 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N308" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O308" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P308" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T308" t="n">
         <v>16</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44249</v>
+        <v>44245</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="N309" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P309" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T309" t="n">
         <v>16</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25155,38 +25155,38 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N310" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O310" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T310" t="n">
         <v>16</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,7 +25244,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N311" t="n">
         <v>11000</v>
@@ -25257,12 +25257,12 @@
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S311" t="n">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25324,32 +25324,32 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="N312" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O312" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P312" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T312" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -25404,32 +25404,32 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N313" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="O313" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P313" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1188</v>
+        <v>938</v>
       </c>
       <c r="T313" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25484,32 +25484,32 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="N314" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O314" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P314" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T314" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="N315" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O315" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P315" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25582,11 +25582,11 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T315" t="n">
         <v>8</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25662,11 +25662,11 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T316" t="n">
         <v>8</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N317" t="n">
         <v>5000</v>
@@ -25742,7 +25742,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S317" t="n">
@@ -25795,41 +25795,41 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="N318" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O318" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P318" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S318" t="n">
         <v>938</v>
       </c>
       <c r="T318" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -25875,41 +25875,41 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N319" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>812</v>
+        <v>1250</v>
       </c>
       <c r="T319" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -25955,41 +25955,41 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N320" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P320" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S320" t="n">
         <v>625</v>
       </c>
       <c r="T320" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26035,41 +26035,41 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N321" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="O321" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>700</v>
+        <v>938</v>
       </c>
       <c r="T321" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,32 +26124,32 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N322" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="O322" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="P322" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>650</v>
+        <v>812</v>
       </c>
       <c r="T322" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,32 +26204,32 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="N323" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="O323" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="P323" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="T323" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,20 +26284,20 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N324" t="n">
-        <v>7000</v>
+        <v>280000</v>
       </c>
       <c r="O324" t="n">
-        <v>7000</v>
+        <v>280000</v>
       </c>
       <c r="P324" t="n">
-        <v>7000</v>
+        <v>280000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="T324" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="325">
@@ -26355,29 +26355,29 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="N325" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="O325" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="P325" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1125</v>
+        <v>650</v>
       </c>
       <c r="T325" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="326">
@@ -26435,29 +26435,29 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N326" t="n">
-        <v>5000</v>
+        <v>210000</v>
       </c>
       <c r="O326" t="n">
-        <v>5000</v>
+        <v>210000</v>
       </c>
       <c r="P326" t="n">
-        <v>5000</v>
+        <v>210000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T326" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,20 +26524,20 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N327" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O327" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P327" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26549,7 +26549,7 @@
         <v>875</v>
       </c>
       <c r="T327" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N328" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O328" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P328" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T328" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,20 +26684,20 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N329" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P329" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T329" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,32 +26764,32 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="N330" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O330" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P330" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S330" t="n">
         <v>875</v>
       </c>
       <c r="T330" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26835,25 +26835,25 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N331" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O331" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P331" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T331" t="n">
         <v>16</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26915,41 +26915,41 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N332" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T332" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333">
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N333" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O333" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P333" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T333" t="n">
         <v>8</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N334" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O334" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P334" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T334" t="n">
         <v>16</v>
@@ -27160,36 +27160,36 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="N335" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O335" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P335" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T335" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336">
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N336" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O336" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P336" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T336" t="n">
         <v>8</v>
@@ -27315,41 +27315,41 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N337" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P337" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T337" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338">
@@ -27395,41 +27395,41 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="N338" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O338" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P338" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T338" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="N339" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O339" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P339" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T339" t="n">
         <v>8</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N340" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O340" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P340" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1500</v>
+        <v>1125</v>
       </c>
       <c r="T340" t="n">
         <v>8</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27647,13 +27647,13 @@
         <v>150</v>
       </c>
       <c r="N341" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O341" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P341" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T341" t="n">
         <v>8</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,7 +27724,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="N342" t="n">
         <v>10000</v>
@@ -27737,19 +27737,19 @@
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T342" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343">
@@ -27795,41 +27795,41 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N343" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O343" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P343" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T343" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344">
@@ -27875,41 +27875,41 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N344" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O344" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P344" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="T344" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,32 +27964,32 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N345" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O345" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S345" t="n">
         <v>625</v>
       </c>
       <c r="T345" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28035,16 +28035,16 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N346" t="n">
         <v>8000</v>
@@ -28057,19 +28057,19 @@
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T346" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28115,41 +28115,41 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N347" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O347" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P347" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S347" t="n">
         <v>375</v>
       </c>
       <c r="T347" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="348">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28207,17 +28207,17 @@
         <v>60</v>
       </c>
       <c r="N348" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O348" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P348" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T348" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349">
@@ -28275,29 +28275,29 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N349" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O349" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P349" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T349" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350">
@@ -28355,41 +28355,41 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N350" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O350" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P350" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>875</v>
+        <v>375</v>
       </c>
       <c r="T350" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351">
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N351" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O351" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P351" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T351" t="n">
         <v>16</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T352" t="n">
         <v>16</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N353" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T353" t="n">
         <v>16</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N354" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O354" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P354" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T354" t="n">
         <v>16</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T355" t="n">
         <v>16</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44242</v>
+        <v>44195</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28835,25 +28835,25 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N356" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P356" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T356" t="n">
         <v>16</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28915,25 +28915,25 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N357" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T357" t="n">
         <v>16</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N358" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29022,11 +29022,11 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T358" t="n">
         <v>16</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N360" t="n">
         <v>16000</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N361" t="n">
         <v>12000</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N362" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O362" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P362" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T362" t="n">
         <v>16</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29395,41 +29395,41 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N363" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O363" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P363" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S363" t="n">
         <v>1000</v>
       </c>
       <c r="T363" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29475,29 +29475,29 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N364" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="O364" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="P364" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="T364" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29555,16 +29555,16 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="N365" t="n">
         <v>10000</v>
@@ -29577,19 +29577,19 @@
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T365" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366">
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N366" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O366" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P366" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T366" t="n">
         <v>8</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N367" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="O367" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P367" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T367" t="n">
         <v>400</v>
@@ -29800,36 +29800,36 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="N368" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O368" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P368" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="T368" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369">
@@ -29875,41 +29875,41 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="N369" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O369" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P369" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T369" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,32 +29964,32 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N370" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O370" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P370" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T370" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="371">
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,32 +30044,32 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="N371" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="O371" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="P371" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T371" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="372">
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,29 +30124,29 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N372" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O372" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P372" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T372" t="n">
         <v>16</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,29 +30204,29 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P373" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T373" t="n">
         <v>16</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,29 +30284,29 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N374" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O374" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P374" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T374" t="n">
         <v>16</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,20 +30364,20 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N375" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O375" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P375" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="T375" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,20 +30444,20 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N376" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O376" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P376" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T376" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30515,29 +30515,29 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N377" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P377" t="n">
-        <v>7743</v>
+        <v>9000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>968</v>
+        <v>562</v>
       </c>
       <c r="T377" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378">
@@ -30595,29 +30595,29 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N378" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O378" t="n">
         <v>10000</v>
       </c>
       <c r="P378" t="n">
-        <v>9742</v>
+        <v>10000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1218</v>
+        <v>833</v>
       </c>
       <c r="T378" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379">
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,20 +30684,20 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="N379" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O379" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P379" t="n">
-        <v>5766</v>
+        <v>8000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>721</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380">
@@ -30755,41 +30755,41 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
+        <v>175</v>
+      </c>
+      <c r="N380" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O380" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P380" t="n">
+        <v>7743</v>
+      </c>
+      <c r="Q380" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S380" t="n">
+        <v>968</v>
+      </c>
+      <c r="T380" t="n">
         <v>8</v>
-      </c>
-      <c r="N380" t="n">
-        <v>260000</v>
-      </c>
-      <c r="O380" t="n">
-        <v>260000</v>
-      </c>
-      <c r="P380" t="n">
-        <v>260000</v>
-      </c>
-      <c r="Q380" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R380" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S380" t="n">
-        <v>619</v>
-      </c>
-      <c r="T380" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="381">
@@ -30835,29 +30835,29 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="N381" t="n">
-        <v>210000</v>
+        <v>9500</v>
       </c>
       <c r="O381" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>210000</v>
+        <v>9742</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>500</v>
+        <v>1218</v>
       </c>
       <c r="T381" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30915,41 +30915,41 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>85</v>
+        <v>470</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>5766</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="T382" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,32 +31004,32 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N383" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="O383" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="P383" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="T383" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31075,29 +31075,29 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="N384" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O384" t="n">
-        <v>11000</v>
+        <v>210000</v>
       </c>
       <c r="P384" t="n">
-        <v>10429</v>
+        <v>210000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>652</v>
+        <v>500</v>
       </c>
       <c r="T384" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="385">
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="N385" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P385" t="n">
-        <v>8231</v>
+        <v>12000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31182,11 +31182,11 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="T385" t="n">
         <v>16</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31235,41 +31235,41 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N386" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O386" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P386" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T386" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31315,41 +31315,41 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N387" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P387" t="n">
-        <v>9000</v>
+        <v>10429</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1125</v>
+        <v>652</v>
       </c>
       <c r="T387" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31395,41 +31395,41 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N388" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O388" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P388" t="n">
-        <v>6000</v>
+        <v>8231</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>750</v>
+        <v>514</v>
       </c>
       <c r="T388" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389">
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N389" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O389" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T389" t="n">
         <v>8</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,36 +31560,36 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N390" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O390" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P390" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T390" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,36 +31640,36 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N391" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O391" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P391" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T391" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,36 +31720,36 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N392" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P392" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T392" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,32 +31804,32 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N393" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O393" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P393" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S393" t="n">
         <v>875</v>
       </c>
       <c r="T393" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,32 +31884,32 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N394" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O394" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P394" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T394" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,32 +31964,32 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N395" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T395" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N396" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P396" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T396" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32115,41 +32115,41 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N397" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O397" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P397" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T397" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32195,41 +32195,41 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N398" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O398" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P398" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T398" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,32 +32284,32 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N399" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T399" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32355,41 +32355,41 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N400" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T400" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32435,25 +32435,25 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N401" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O401" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P401" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T401" t="n">
         <v>16</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T402" t="n">
         <v>8</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N403" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O403" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P403" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T403" t="n">
         <v>400</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N404" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="O404" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="P404" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T404" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405">
@@ -32764,32 +32764,32 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N405" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O405" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P405" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T405" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406">
@@ -32840,36 +32840,36 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="N406" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="O406" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="P406" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S406" t="n">
         <v>625</v>
       </c>
       <c r="T406" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="407">
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N407" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O407" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P407" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T407" t="n">
         <v>400</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44495</v>
+        <v>44225</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,20 +33084,20 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="N409" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="O409" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="P409" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="T409" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,36 +33160,36 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N410" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="O410" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="P410" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>812</v>
+        <v>575</v>
       </c>
       <c r="T410" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N411" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O411" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,32 +33324,32 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N412" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="O412" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="P412" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>562</v>
+        <v>1100</v>
       </c>
       <c r="T412" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O413" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N415" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P415" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,32 +33644,32 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N416" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O416" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P416" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T416" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33715,16 +33715,16 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N417" t="n">
         <v>10000</v>
@@ -33737,19 +33737,19 @@
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T417" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33795,41 +33795,41 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N418" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O418" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P418" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T418" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419">
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T419" t="n">
         <v>8</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N420" t="n">
         <v>10000</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N421" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O421" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P421" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T421" t="n">
         <v>8</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N422" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O422" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T422" t="n">
         <v>8</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T423" t="n">
         <v>8</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N424" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O424" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P424" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1375</v>
+        <v>750</v>
       </c>
       <c r="T424" t="n">
         <v>8</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34355,41 +34355,41 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T425" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34435,41 +34435,41 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="N426" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T426" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,32 +34524,32 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O427" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P427" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T427" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428">
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N428" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O428" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P428" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N429" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O429" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P429" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,24 +34760,24 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N430" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N431" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O431" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P431" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P432" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N433" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O433" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P433" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>562</v>
+        <v>812</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N434" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P434" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N435" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35235,38 +35235,38 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N436" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P436" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35315,38 +35315,38 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N437" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O437" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P437" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35422,11 +35422,11 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35502,11 +35502,11 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35555,25 +35555,25 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35582,11 +35582,11 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,32 +35644,32 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N441" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O441" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P441" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T441" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,32 +35724,32 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N442" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O442" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P442" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T442" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,32 +35804,32 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N443" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P443" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S443" t="n">
         <v>500</v>
       </c>
       <c r="T443" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444">
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,32 +35884,32 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N444" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T444" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445">
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35967,29 +35967,29 @@
         <v>70</v>
       </c>
       <c r="N445" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P445" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
         <v>750</v>
       </c>
       <c r="T445" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,32 +36044,32 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P446" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T446" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N447" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P447" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,7 +36204,7 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N448" t="n">
         <v>12000</v>
@@ -36222,7 +36222,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S448" t="n">
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,7 +36284,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N449" t="n">
         <v>10000</v>
@@ -36302,7 +36302,7 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S449" t="n">
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,7 +36364,7 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N450" t="n">
         <v>8000</v>
@@ -36382,7 +36382,7 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S450" t="n">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,41 +36435,41 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N451" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T451" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36515,16 +36515,16 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N452" t="n">
         <v>10000</v>
@@ -36537,19 +36537,19 @@
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T452" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36595,41 +36595,41 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N453" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O453" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="454">
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,32 +36684,32 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N454" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O454" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P454" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T454" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455">
@@ -36755,16 +36755,16 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N455" t="n">
         <v>10000</v>
@@ -36777,19 +36777,19 @@
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T455" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456">
@@ -36835,41 +36835,41 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="N456" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P456" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T456" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,32 +36924,32 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N457" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O457" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P457" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T457" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -36995,41 +36995,41 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N458" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O458" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T458" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37075,41 +37075,41 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N459" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O459" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T459" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="N460" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P460" t="n">
-        <v>7771</v>
+        <v>7000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>971</v>
+        <v>875</v>
       </c>
       <c r="T460" t="n">
         <v>8</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N461" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P461" t="n">
-        <v>9742</v>
+        <v>9000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1218</v>
+        <v>1125</v>
       </c>
       <c r="T461" t="n">
         <v>8</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37327,13 +37327,13 @@
         <v>210</v>
       </c>
       <c r="N462" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O462" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P462" t="n">
-        <v>5762</v>
+        <v>5000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>720</v>
+        <v>625</v>
       </c>
       <c r="T462" t="n">
         <v>8</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="N463" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O463" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P463" t="n">
-        <v>3714</v>
+        <v>7771</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>464</v>
+        <v>971</v>
       </c>
       <c r="T463" t="n">
         <v>8</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N464" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="O464" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P464" t="n">
-        <v>6000</v>
+        <v>9742</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>750</v>
+        <v>1218</v>
       </c>
       <c r="T464" t="n">
         <v>8</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N465" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O465" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P465" t="n">
-        <v>8000</v>
+        <v>5762</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="T465" t="n">
         <v>8</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,31 +37644,271 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N466" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O466" t="n">
         <v>4000</v>
       </c>
       <c r="P466" t="n">
+        <v>3714</v>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S466" t="n">
+        <v>464</v>
+      </c>
+      <c r="T466" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>9</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D467" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E467" t="n">
+        <v>13</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M467" t="n">
+        <v>80</v>
+      </c>
+      <c r="N467" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O467" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P467" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S467" t="n">
+        <v>750</v>
+      </c>
+      <c r="T467" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>9</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E468" t="n">
+        <v>13</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I468" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M468" t="n">
+        <v>40</v>
+      </c>
+      <c r="N468" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O468" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P468" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S468" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T468" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>9</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D469" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E469" t="n">
+        <v>13</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I469" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M469" t="n">
+        <v>70</v>
+      </c>
+      <c r="N469" t="n">
         <v>4000</v>
       </c>
-      <c r="Q466" t="inlineStr">
+      <c r="O469" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P469" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q469" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R466" t="inlineStr">
+      <c r="R469" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S466" t="n">
+      <c r="S469" t="n">
         <v>500</v>
       </c>
-      <c r="T466" t="n">
+      <c r="T469" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T469"/>
+  <dimension ref="A1:T470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,41 +31795,41 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N393" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O393" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P393" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>875</v>
+        <v>900</v>
       </c>
       <c r="T393" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N394" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O394" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P394" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T394" t="n">
         <v>16</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N395" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O395" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P395" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T395" t="n">
         <v>16</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,36 +32040,36 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N396" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T396" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397">
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N397" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O397" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P397" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T397" t="n">
         <v>8</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N398" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O398" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P398" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T398" t="n">
         <v>8</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32275,41 +32275,41 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="N399" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P399" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T399" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400">
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T400" t="n">
         <v>16</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N401" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P401" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T401" t="n">
         <v>16</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32515,16 +32515,16 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N402" t="n">
         <v>8000</v>
@@ -32537,19 +32537,19 @@
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T402" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403">
@@ -32604,32 +32604,32 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N403" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O403" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="P403" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="T403" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404">
@@ -32684,32 +32684,32 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="N404" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="O404" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="P404" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>938</v>
+        <v>675</v>
       </c>
       <c r="T404" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="405">
@@ -32760,36 +32760,36 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N405" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O405" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P405" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T405" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406">
@@ -32844,32 +32844,32 @@
         </is>
       </c>
       <c r="M406" t="n">
+        <v>250</v>
+      </c>
+      <c r="N406" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O406" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P406" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S406" t="n">
+        <v>750</v>
+      </c>
+      <c r="T406" t="n">
         <v>8</v>
-      </c>
-      <c r="N406" t="n">
-        <v>250000</v>
-      </c>
-      <c r="O406" t="n">
-        <v>250000</v>
-      </c>
-      <c r="P406" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Q406" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R406" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S406" t="n">
-        <v>625</v>
-      </c>
-      <c r="T406" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="407">
@@ -32942,7 +32942,7 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S407" t="n">
@@ -33004,20 +33004,20 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="N408" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="O408" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="P408" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T408" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="409">
@@ -33080,36 +33080,36 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N409" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O409" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P409" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T409" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="410">
@@ -33164,32 +33164,32 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="N410" t="n">
-        <v>230000</v>
+        <v>5000</v>
       </c>
       <c r="O410" t="n">
-        <v>230000</v>
+        <v>5000</v>
       </c>
       <c r="P410" t="n">
-        <v>230000</v>
+        <v>5000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T410" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411">
@@ -33244,32 +33244,32 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="N411" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O411" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P411" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T411" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44495</v>
+        <v>44225</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,32 +33324,32 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N412" t="n">
-        <v>19800</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>19800</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>19800</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T412" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33395,41 +33395,41 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N413" t="n">
-        <v>13000</v>
+        <v>19800</v>
       </c>
       <c r="O413" t="n">
-        <v>13000</v>
+        <v>19800</v>
       </c>
       <c r="P413" t="n">
-        <v>13000</v>
+        <v>19800</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>812</v>
+        <v>1100</v>
       </c>
       <c r="T413" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="414">
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N414" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O414" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P414" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N415" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O415" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P415" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N416" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33875,41 +33875,41 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N419" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T419" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="420">
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P420" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T420" t="n">
         <v>8</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N421" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P421" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T421" t="n">
         <v>8</v>
@@ -34115,25 +34115,25 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T422" t="n">
         <v>8</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N423" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O423" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P423" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T423" t="n">
         <v>8</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T424" t="n">
         <v>8</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T425" t="n">
         <v>8</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34462,11 +34462,11 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1500</v>
+        <v>625</v>
       </c>
       <c r="T426" t="n">
         <v>8</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N427" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O427" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P427" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T427" t="n">
         <v>8</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34595,41 +34595,41 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N428" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O428" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T428" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429">
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N429" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O429" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N431" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N432" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O432" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P432" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -35004,20 +35004,20 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N433" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O433" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P433" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="N434" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O434" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P434" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O435" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P435" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35244,20 +35244,20 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N436" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O436" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N437" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O437" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P437" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35395,38 +35395,38 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="N438" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O438" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P438" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N439" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P439" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N440" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O440" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P440" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N441" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P441" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35662,11 +35662,11 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N442" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N443" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,16 +35875,16 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N444" t="n">
         <v>8000</v>
@@ -35897,19 +35897,19 @@
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T444" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445">
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N445" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O445" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P445" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T445" t="n">
         <v>8</v>
@@ -36040,24 +36040,24 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N446" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O446" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P446" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T446" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447">
@@ -36115,41 +36115,41 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N447" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O447" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P447" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T447" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N450" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N451" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N453" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,16 +36675,16 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="N454" t="n">
         <v>8000</v>
@@ -36697,19 +36697,19 @@
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T454" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455">
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T455" t="n">
         <v>8</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T456" t="n">
         <v>8</v>
@@ -36915,41 +36915,41 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N457" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O457" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P457" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T457" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="458">
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O458" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P458" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37155,41 +37155,41 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="N460" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T460" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="461">
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N461" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O461" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P461" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T461" t="n">
         <v>8</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N462" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O462" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P462" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T462" t="n">
         <v>8</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="N463" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O463" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P463" t="n">
-        <v>7771</v>
+        <v>5000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>971</v>
+        <v>625</v>
       </c>
       <c r="T463" t="n">
         <v>8</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="N464" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="O464" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P464" t="n">
-        <v>9742</v>
+        <v>7771</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1218</v>
+        <v>971</v>
       </c>
       <c r="T464" t="n">
         <v>8</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="N465" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="O465" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>5762</v>
+        <v>9742</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>720</v>
+        <v>1218</v>
       </c>
       <c r="T465" t="n">
         <v>8</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N466" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="O466" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P466" t="n">
-        <v>3714</v>
+        <v>5762</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>464</v>
+        <v>720</v>
       </c>
       <c r="T466" t="n">
         <v>8</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N467" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O467" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P467" t="n">
-        <v>6000</v>
+        <v>3714</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>750</v>
+        <v>464</v>
       </c>
       <c r="T467" t="n">
         <v>8</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N468" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P468" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T468" t="n">
         <v>8</v>
@@ -37880,35 +37880,115 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M469" t="n">
+        <v>40</v>
+      </c>
+      <c r="N469" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O469" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P469" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S469" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T469" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>9</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D470" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E470" t="n">
+        <v>13</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I470" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M469" t="n">
+      <c r="M470" t="n">
         <v>70</v>
       </c>
-      <c r="N469" t="n">
+      <c r="N470" t="n">
         <v>4000</v>
       </c>
-      <c r="O469" t="n">
+      <c r="O470" t="n">
         <v>4000</v>
       </c>
-      <c r="P469" t="n">
+      <c r="P470" t="n">
         <v>4000</v>
       </c>
-      <c r="Q469" t="inlineStr">
+      <c r="Q470" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R469" t="inlineStr">
+      <c r="R470" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S469" t="n">
+      <c r="S470" t="n">
         <v>500</v>
       </c>
-      <c r="T469" t="n">
+      <c r="T470" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T470"/>
+  <dimension ref="A1:T473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N315" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T315" t="n">
         <v>8</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N316" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O316" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P316" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T316" t="n">
         <v>8</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O317" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P317" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T317" t="n">
         <v>8</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="N318" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O318" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P318" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25822,11 +25822,11 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T318" t="n">
         <v>8</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N319" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O319" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P319" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25902,11 +25902,11 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T319" t="n">
         <v>8</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N320" t="n">
         <v>5000</v>
@@ -25982,7 +25982,7 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S320" t="n">
@@ -26035,41 +26035,41 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="N321" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O321" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P321" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S321" t="n">
         <v>938</v>
       </c>
       <c r="T321" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322">
@@ -26115,41 +26115,41 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N322" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O322" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P322" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>812</v>
+        <v>1250</v>
       </c>
       <c r="T322" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323">
@@ -26195,41 +26195,41 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N323" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O323" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P323" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S323" t="n">
         <v>625</v>
       </c>
       <c r="T323" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26275,41 +26275,41 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N324" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="O324" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="P324" t="n">
-        <v>280000</v>
+        <v>15000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>700</v>
+        <v>938</v>
       </c>
       <c r="T324" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,32 +26364,32 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N325" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="O325" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="P325" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>650</v>
+        <v>812</v>
       </c>
       <c r="T325" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,32 +26444,32 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="N326" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="T326" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327">
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,20 +26524,20 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N327" t="n">
-        <v>7000</v>
+        <v>280000</v>
       </c>
       <c r="O327" t="n">
-        <v>7000</v>
+        <v>280000</v>
       </c>
       <c r="P327" t="n">
-        <v>7000</v>
+        <v>280000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="T327" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="328">
@@ -26595,29 +26595,29 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="N328" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="O328" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="P328" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1125</v>
+        <v>650</v>
       </c>
       <c r="T328" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="329">
@@ -26675,29 +26675,29 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N329" t="n">
-        <v>5000</v>
+        <v>210000</v>
       </c>
       <c r="O329" t="n">
-        <v>5000</v>
+        <v>210000</v>
       </c>
       <c r="P329" t="n">
-        <v>5000</v>
+        <v>210000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T329" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N330" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O330" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P330" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26789,7 +26789,7 @@
         <v>875</v>
       </c>
       <c r="T330" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,20 +26844,20 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N331" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O331" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P331" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T331" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,20 +26924,20 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N332" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P332" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T332" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,32 +27004,32 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="N333" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P333" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S333" t="n">
         <v>875</v>
       </c>
       <c r="T333" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N334" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P334" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T334" t="n">
         <v>16</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27155,41 +27155,41 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N335" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T335" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336">
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N336" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O336" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P336" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T336" t="n">
         <v>8</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T337" t="n">
         <v>16</v>
@@ -27400,36 +27400,36 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="N338" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O338" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P338" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T338" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339">
@@ -27475,25 +27475,25 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N339" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O339" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P339" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T339" t="n">
         <v>8</v>
@@ -27555,41 +27555,41 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N340" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O340" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P340" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T340" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341">
@@ -27635,41 +27635,41 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="N341" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O341" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P341" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T341" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="N342" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O342" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P342" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T342" t="n">
         <v>8</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N343" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O343" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P343" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1500</v>
+        <v>1125</v>
       </c>
       <c r="T343" t="n">
         <v>8</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27887,13 +27887,13 @@
         <v>150</v>
       </c>
       <c r="N344" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O344" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P344" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T344" t="n">
         <v>8</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="N345" t="n">
         <v>10000</v>
@@ -27977,19 +27977,19 @@
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T345" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346">
@@ -28035,41 +28035,41 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N346" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O346" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P346" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T346" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347">
@@ -28115,41 +28115,41 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N347" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O347" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P347" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="T347" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,32 +28204,32 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N348" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O348" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P348" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S348" t="n">
         <v>625</v>
       </c>
       <c r="T348" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28275,16 +28275,16 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N349" t="n">
         <v>8000</v>
@@ -28297,19 +28297,19 @@
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T349" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28355,41 +28355,41 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N350" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O350" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P350" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S350" t="n">
         <v>375</v>
       </c>
       <c r="T350" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351">
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28447,17 +28447,17 @@
         <v>60</v>
       </c>
       <c r="N351" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O351" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P351" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T351" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352">
@@ -28515,29 +28515,29 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N352" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O352" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P352" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T352" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353">
@@ -28595,41 +28595,41 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N353" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O353" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P353" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>875</v>
+        <v>375</v>
       </c>
       <c r="T353" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354">
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N354" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O354" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P354" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T354" t="n">
         <v>16</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P355" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T355" t="n">
         <v>16</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P356" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T356" t="n">
         <v>16</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28915,25 +28915,25 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N357" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O357" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P357" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T357" t="n">
         <v>16</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29022,11 +29022,11 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T358" t="n">
         <v>16</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44242</v>
+        <v>44195</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29075,25 +29075,25 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N359" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O359" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T359" t="n">
         <v>16</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,25 +29155,25 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N360" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O360" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P360" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29182,11 +29182,11 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T360" t="n">
         <v>16</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N361" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O361" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P361" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29262,11 +29262,11 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T361" t="n">
         <v>16</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29404,7 +29404,7 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N363" t="n">
         <v>16000</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29484,7 +29484,7 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N364" t="n">
         <v>12000</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O365" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P365" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T365" t="n">
         <v>16</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29635,41 +29635,41 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N366" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O366" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P366" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S366" t="n">
         <v>1000</v>
       </c>
       <c r="T366" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29715,29 +29715,29 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N367" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="O367" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="T367" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29795,16 +29795,16 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="N368" t="n">
         <v>10000</v>
@@ -29817,19 +29817,19 @@
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T368" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="369">
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N369" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O369" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P369" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T369" t="n">
         <v>8</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N370" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="O370" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P370" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T370" t="n">
         <v>400</v>
@@ -30040,36 +30040,36 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="N371" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P371" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="T371" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372">
@@ -30115,41 +30115,41 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="N372" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O372" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P372" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T372" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373">
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,32 +30204,32 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N373" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O373" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P373" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T373" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="374">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,32 +30284,32 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="N374" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="O374" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="P374" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T374" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="375">
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,29 +30364,29 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N375" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O375" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P375" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T375" t="n">
         <v>16</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,29 +30444,29 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N376" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O376" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P376" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T376" t="n">
         <v>16</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,29 +30524,29 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N377" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O377" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P377" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,20 +30604,20 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P378" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="T378" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,20 +30684,20 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N379" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O379" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T379" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30755,29 +30755,29 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N380" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O380" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P380" t="n">
-        <v>7743</v>
+        <v>9000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>968</v>
+        <v>562</v>
       </c>
       <c r="T380" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="381">
@@ -30835,29 +30835,29 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N381" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
         <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>9742</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1218</v>
+        <v>833</v>
       </c>
       <c r="T381" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,20 +30924,20 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="N382" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O382" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P382" t="n">
-        <v>5766</v>
+        <v>8000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>721</v>
+        <v>667</v>
       </c>
       <c r="T382" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383">
@@ -30995,41 +30995,41 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
+        <v>175</v>
+      </c>
+      <c r="N383" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O383" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P383" t="n">
+        <v>7743</v>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S383" t="n">
+        <v>968</v>
+      </c>
+      <c r="T383" t="n">
         <v>8</v>
-      </c>
-      <c r="N383" t="n">
-        <v>260000</v>
-      </c>
-      <c r="O383" t="n">
-        <v>260000</v>
-      </c>
-      <c r="P383" t="n">
-        <v>260000</v>
-      </c>
-      <c r="Q383" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R383" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S383" t="n">
-        <v>619</v>
-      </c>
-      <c r="T383" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="384">
@@ -31075,29 +31075,29 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="N384" t="n">
-        <v>210000</v>
+        <v>9500</v>
       </c>
       <c r="O384" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>210000</v>
+        <v>9742</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>500</v>
+        <v>1218</v>
       </c>
       <c r="T384" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31155,41 +31155,41 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>85</v>
+        <v>470</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>5766</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="T385" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,32 +31244,32 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N386" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="P386" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="T386" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31315,29 +31315,29 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="N387" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O387" t="n">
-        <v>11000</v>
+        <v>210000</v>
       </c>
       <c r="P387" t="n">
-        <v>10429</v>
+        <v>210000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>652</v>
+        <v>500</v>
       </c>
       <c r="T387" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="388">
@@ -31395,25 +31395,25 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="N388" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O388" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>8231</v>
+        <v>12000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31422,11 +31422,11 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="T388" t="n">
         <v>16</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31475,41 +31475,41 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N389" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O389" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P389" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T389" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31555,41 +31555,41 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N390" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O390" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P390" t="n">
-        <v>9000</v>
+        <v>10429</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1125</v>
+        <v>652</v>
       </c>
       <c r="T390" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31635,41 +31635,41 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N391" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O391" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P391" t="n">
-        <v>6000</v>
+        <v>8231</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>750</v>
+        <v>514</v>
       </c>
       <c r="T391" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392">
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N392" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O392" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P392" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T392" t="n">
         <v>8</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,16 +31795,16 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N393" t="n">
         <v>9000</v>
@@ -31817,19 +31817,19 @@
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>900</v>
+        <v>1125</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,36 +31880,36 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N394" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O394" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P394" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T394" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,36 +31960,36 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N395" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O395" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P395" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T395" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N396" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P396" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T396" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32124,32 +32124,32 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N397" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O397" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P397" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S397" t="n">
         <v>875</v>
       </c>
       <c r="T397" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,32 +32204,32 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N398" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O398" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P398" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T398" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32284,32 +32284,32 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N399" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T399" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,32 +32364,32 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N400" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O400" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P400" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T400" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32435,41 +32435,41 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N401" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O401" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P401" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T401" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32515,41 +32515,41 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N402" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O402" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P402" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T402" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,32 +32604,32 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N403" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O403" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T403" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32675,41 +32675,41 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N404" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T404" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32755,25 +32755,25 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N405" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O405" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T405" t="n">
         <v>16</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N406" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O406" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P406" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>8</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N407" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O407" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P407" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T407" t="n">
         <v>400</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N408" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="O408" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="P408" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T408" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="409">
@@ -33084,32 +33084,32 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N409" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O409" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P409" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T409" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410">
@@ -33160,36 +33160,36 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="N410" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="O410" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="P410" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S410" t="n">
         <v>625</v>
       </c>
       <c r="T410" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411">
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N411" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O411" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P411" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T411" t="n">
         <v>400</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T412" t="n">
         <v>16</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44495</v>
+        <v>44225</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="N413" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="O413" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="P413" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="T413" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,36 +33480,36 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N414" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="O414" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="P414" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>812</v>
+        <v>575</v>
       </c>
       <c r="T414" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,24 +33560,24 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N415" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,32 +33644,32 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N416" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="O416" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="P416" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>562</v>
+        <v>1100</v>
       </c>
       <c r="T416" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417">
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,32 +33964,32 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N420" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T420" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421">
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34035,16 +34035,16 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N421" t="n">
         <v>10000</v>
@@ -34057,19 +34057,19 @@
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T421" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34115,41 +34115,41 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N422" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O422" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T422" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="423">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N423" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O423" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P423" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T423" t="n">
         <v>8</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,7 +34284,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N424" t="n">
         <v>10000</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N425" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O425" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P425" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T425" t="n">
         <v>8</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N426" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O426" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P426" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T426" t="n">
         <v>8</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T427" t="n">
         <v>8</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N428" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O428" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P428" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1375</v>
+        <v>750</v>
       </c>
       <c r="T428" t="n">
         <v>8</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34675,41 +34675,41 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N429" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O429" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P429" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T429" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34755,41 +34755,41 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="N430" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T430" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,32 +34844,32 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T431" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432">
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N432" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O432" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P432" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N433" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P433" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N434" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N435" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O435" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P435" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N436" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P436" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N437" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O437" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P437" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>562</v>
+        <v>812</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35400,24 +35400,24 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N438" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O438" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P438" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N439" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P439" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35502,11 +35502,11 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35555,38 +35555,38 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N440" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O440" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P440" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35635,38 +35635,38 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N441" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O441" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P441" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N442" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P442" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N444" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O444" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P444" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,32 +35964,32 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N445" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O445" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P445" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T445" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,32 +36044,32 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N446" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O446" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T446" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,32 +36124,32 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N447" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O447" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P447" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S447" t="n">
         <v>500</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,32 +36204,32 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N448" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O448" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P448" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T448" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="449">
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36287,29 +36287,29 @@
         <v>70</v>
       </c>
       <c r="N449" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O449" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P449" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S449" t="n">
         <v>750</v>
       </c>
       <c r="T449" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="450">
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,32 +36364,32 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N450" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P450" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T450" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451">
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N451" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P451" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,7 +36524,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N452" t="n">
         <v>12000</v>
@@ -36542,7 +36542,7 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S452" t="n">
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,7 +36604,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N453" t="n">
         <v>10000</v>
@@ -36622,7 +36622,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S453" t="n">
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,7 +36684,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N454" t="n">
         <v>8000</v>
@@ -36702,7 +36702,7 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S454" t="n">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36755,41 +36755,41 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P455" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T455" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36835,16 +36835,16 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N456" t="n">
         <v>10000</v>
@@ -36857,19 +36857,19 @@
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T456" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36915,41 +36915,41 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N457" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O457" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P457" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T457" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="458">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,32 +37004,32 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N458" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O458" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P458" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T458" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="459">
@@ -37075,16 +37075,16 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N459" t="n">
         <v>10000</v>
@@ -37097,19 +37097,19 @@
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T459" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460">
@@ -37155,41 +37155,41 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="N460" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O460" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P460" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T460" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,32 +37244,32 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T461" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37315,41 +37315,41 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N462" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O462" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P462" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T462" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37395,41 +37395,41 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N463" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O463" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P463" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T463" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="N464" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O464" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P464" t="n">
-        <v>7771</v>
+        <v>7000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>971</v>
+        <v>875</v>
       </c>
       <c r="T464" t="n">
         <v>8</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N465" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O465" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P465" t="n">
-        <v>9742</v>
+        <v>9000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1218</v>
+        <v>1125</v>
       </c>
       <c r="T465" t="n">
         <v>8</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37647,13 +37647,13 @@
         <v>210</v>
       </c>
       <c r="N466" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O466" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P466" t="n">
-        <v>5762</v>
+        <v>5000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>720</v>
+        <v>625</v>
       </c>
       <c r="T466" t="n">
         <v>8</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="N467" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O467" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P467" t="n">
-        <v>3714</v>
+        <v>7771</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>464</v>
+        <v>971</v>
       </c>
       <c r="T467" t="n">
         <v>8</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N468" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="O468" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>6000</v>
+        <v>9742</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>750</v>
+        <v>1218</v>
       </c>
       <c r="T468" t="n">
         <v>8</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N469" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O469" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P469" t="n">
-        <v>8000</v>
+        <v>5762</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="T469" t="n">
         <v>8</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,31 +37964,271 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N470" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O470" t="n">
         <v>4000</v>
       </c>
       <c r="P470" t="n">
+        <v>3714</v>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S470" t="n">
+        <v>464</v>
+      </c>
+      <c r="T470" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>9</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D471" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E471" t="n">
+        <v>13</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I471" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M471" t="n">
+        <v>80</v>
+      </c>
+      <c r="N471" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O471" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P471" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S471" t="n">
+        <v>750</v>
+      </c>
+      <c r="T471" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>9</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D472" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E472" t="n">
+        <v>13</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I472" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M472" t="n">
+        <v>40</v>
+      </c>
+      <c r="N472" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O472" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P472" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S472" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T472" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>9</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D473" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E473" t="n">
+        <v>13</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I473" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M473" t="n">
+        <v>70</v>
+      </c>
+      <c r="N473" t="n">
         <v>4000</v>
       </c>
-      <c r="Q470" t="inlineStr">
+      <c r="O473" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P473" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q473" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R470" t="inlineStr">
+      <c r="R473" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S470" t="n">
+      <c r="S473" t="n">
         <v>500</v>
       </c>
-      <c r="T470" t="n">
+      <c r="T473" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T473"/>
+  <dimension ref="A1:T476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="N360" t="n">
         <v>12000</v>
@@ -29177,19 +29177,19 @@
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T360" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="N361" t="n">
         <v>10000</v>
@@ -29257,19 +29257,19 @@
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T361" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44242</v>
+        <v>44524</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29315,41 +29315,41 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N362" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O362" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P362" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T362" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29395,25 +29395,25 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N363" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29422,11 +29422,11 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T363" t="n">
         <v>16</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N364" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O364" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P364" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T364" t="n">
         <v>16</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29644,7 +29644,7 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N366" t="n">
         <v>16000</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29724,7 +29724,7 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N367" t="n">
         <v>12000</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O368" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P368" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T368" t="n">
         <v>16</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29875,41 +29875,41 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N369" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O369" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P369" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S369" t="n">
         <v>1000</v>
       </c>
       <c r="T369" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29955,29 +29955,29 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N370" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="O370" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="P370" t="n">
-        <v>290000</v>
+        <v>12000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="T370" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="371">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30035,16 +30035,16 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="N371" t="n">
         <v>10000</v>
@@ -30057,19 +30057,19 @@
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T371" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372">
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N372" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O372" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P372" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T372" t="n">
         <v>8</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N373" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="O373" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P373" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T373" t="n">
         <v>400</v>
@@ -30280,36 +30280,36 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="N374" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O374" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P374" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="T374" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375">
@@ -30355,41 +30355,41 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="N375" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O375" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P375" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T375" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376">
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,32 +30444,32 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N376" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O376" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P376" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T376" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,32 +30524,32 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="N377" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="O377" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="P377" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T377" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="378">
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,29 +30604,29 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N378" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O378" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P378" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,29 +30684,29 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N379" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O379" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P379" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,29 +30764,29 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N380" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O380" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P380" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,20 +30844,20 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P381" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="T381" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,20 +30924,20 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N382" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O382" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P382" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T382" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -30995,29 +30995,29 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N383" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O383" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P383" t="n">
-        <v>7743</v>
+        <v>9000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>968</v>
+        <v>562</v>
       </c>
       <c r="T383" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="384">
@@ -31075,29 +31075,29 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N384" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O384" t="n">
         <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>9742</v>
+        <v>10000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1218</v>
+        <v>833</v>
       </c>
       <c r="T384" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385">
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,20 +31164,20 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="N385" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O385" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P385" t="n">
-        <v>5766</v>
+        <v>8000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>721</v>
+        <v>667</v>
       </c>
       <c r="T385" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386">
@@ -31235,41 +31235,41 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
+        <v>175</v>
+      </c>
+      <c r="N386" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O386" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P386" t="n">
+        <v>7743</v>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S386" t="n">
+        <v>968</v>
+      </c>
+      <c r="T386" t="n">
         <v>8</v>
-      </c>
-      <c r="N386" t="n">
-        <v>260000</v>
-      </c>
-      <c r="O386" t="n">
-        <v>260000</v>
-      </c>
-      <c r="P386" t="n">
-        <v>260000</v>
-      </c>
-      <c r="Q386" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R386" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S386" t="n">
-        <v>619</v>
-      </c>
-      <c r="T386" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="387">
@@ -31315,29 +31315,29 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="N387" t="n">
-        <v>210000</v>
+        <v>9500</v>
       </c>
       <c r="O387" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="P387" t="n">
-        <v>210000</v>
+        <v>9742</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>500</v>
+        <v>1218</v>
       </c>
       <c r="T387" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31395,41 +31395,41 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>85</v>
+        <v>470</v>
       </c>
       <c r="N388" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O388" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P388" t="n">
-        <v>12000</v>
+        <v>5766</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="T388" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,32 +31484,32 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N389" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="O389" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="P389" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="T389" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31555,29 +31555,29 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O390" t="n">
-        <v>11000</v>
+        <v>210000</v>
       </c>
       <c r="P390" t="n">
-        <v>10429</v>
+        <v>210000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>652</v>
+        <v>500</v>
       </c>
       <c r="T390" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="391">
@@ -31635,25 +31635,25 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="N391" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>8231</v>
+        <v>12000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31662,11 +31662,11 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="T391" t="n">
         <v>16</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31715,41 +31715,41 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N392" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O392" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P392" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T392" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,41 +31795,41 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N393" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O393" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P393" t="n">
-        <v>9000</v>
+        <v>10429</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1125</v>
+        <v>652</v>
       </c>
       <c r="T393" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31875,41 +31875,41 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N394" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O394" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P394" t="n">
-        <v>6000</v>
+        <v>8231</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>750</v>
+        <v>514</v>
       </c>
       <c r="T394" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395">
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N395" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O395" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P395" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T395" t="n">
         <v>8</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32035,16 +32035,16 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N396" t="n">
         <v>9000</v>
@@ -32057,19 +32057,19 @@
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>900</v>
+        <v>1125</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,36 +32120,36 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N397" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O397" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P397" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T397" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,36 +32200,36 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N398" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O398" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P398" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T398" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,32 +32284,32 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N399" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P399" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T399" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,32 +32364,32 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O400" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P400" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S400" t="n">
         <v>875</v>
       </c>
       <c r="T400" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,32 +32444,32 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N401" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O401" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P401" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T401" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,32 +32524,32 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N402" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O402" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P402" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T402" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,32 +32604,32 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N403" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T403" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32675,41 +32675,41 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T404" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32755,41 +32755,41 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O405" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P405" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T405" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,32 +32844,32 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N406" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O406" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P406" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T406" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32915,41 +32915,41 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N407" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O407" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T407" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N408" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O408" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P408" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N409" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O409" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P409" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T409" t="n">
         <v>8</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N410" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O410" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P410" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T410" t="n">
         <v>400</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N411" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="O411" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="P411" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T411" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="412">
@@ -33324,32 +33324,32 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N412" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P412" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T412" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413">
@@ -33400,36 +33400,36 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="N413" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="O413" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="P413" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S413" t="n">
         <v>625</v>
       </c>
       <c r="T413" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="414">
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N414" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O414" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P414" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T414" t="n">
         <v>400</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44495</v>
+        <v>44225</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,20 +33644,20 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="N416" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="O416" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="P416" t="n">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="T416" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,36 +33720,36 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N417" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="O417" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="P417" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>812</v>
+        <v>575</v>
       </c>
       <c r="T417" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N418" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O418" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,32 +33884,32 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N419" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="O419" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="P419" t="n">
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>562</v>
+        <v>1100</v>
       </c>
       <c r="T419" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420">
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,32 +34204,32 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N423" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T423" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34275,16 +34275,16 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N424" t="n">
         <v>10000</v>
@@ -34297,19 +34297,19 @@
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T424" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34355,41 +34355,41 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N425" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T425" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="426">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N426" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O426" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P426" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T426" t="n">
         <v>8</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,7 +34524,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N427" t="n">
         <v>10000</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N428" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O428" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P428" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T428" t="n">
         <v>8</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N429" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O429" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P429" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T429" t="n">
         <v>8</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T430" t="n">
         <v>8</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N431" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O431" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P431" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1375</v>
+        <v>750</v>
       </c>
       <c r="T431" t="n">
         <v>8</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34915,41 +34915,41 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N432" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O432" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P432" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T432" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -34995,41 +34995,41 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="N433" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O433" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P433" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T433" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,32 +35084,32 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N434" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O434" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P434" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T434" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="435">
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N435" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O435" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P435" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N436" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P436" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N437" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O437" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P437" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N438" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O438" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P438" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N440" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P440" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>562</v>
+        <v>812</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35640,24 +35640,24 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O441" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P441" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N442" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O442" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P442" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35795,38 +35795,38 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N443" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O443" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P443" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,38 +35875,38 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N444" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N445" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P445" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35982,11 +35982,11 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36062,11 +36062,11 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36115,25 +36115,25 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N447" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P447" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,32 +36204,32 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N448" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T448" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,32 +36284,32 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N449" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T449" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,32 +36364,32 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N450" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O450" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P450" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S450" t="n">
         <v>500</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="451">
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,32 +36444,32 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N451" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O451" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T451" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452">
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36527,29 +36527,29 @@
         <v>70</v>
       </c>
       <c r="N452" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P452" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S452" t="n">
         <v>750</v>
       </c>
       <c r="T452" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453">
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,32 +36604,32 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N454" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O454" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P454" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,7 +36764,7 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N455" t="n">
         <v>12000</v>
@@ -36782,7 +36782,7 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S455" t="n">
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,7 +36844,7 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N456" t="n">
         <v>10000</v>
@@ -36862,7 +36862,7 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S456" t="n">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,7 +36924,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N457" t="n">
         <v>8000</v>
@@ -36942,7 +36942,7 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S457" t="n">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -36995,41 +36995,41 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N458" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P458" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T458" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37075,16 +37075,16 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N459" t="n">
         <v>10000</v>
@@ -37097,19 +37097,19 @@
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T459" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37155,41 +37155,41 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N460" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T460" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="461">
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,32 +37244,32 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N461" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T461" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462">
@@ -37315,16 +37315,16 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N462" t="n">
         <v>10000</v>
@@ -37337,19 +37337,19 @@
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T462" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463">
@@ -37395,41 +37395,41 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="N463" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O463" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P463" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T463" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,32 +37484,32 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N464" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O464" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P464" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T464" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,41 +37555,41 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N465" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O465" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T465" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37635,41 +37635,41 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N466" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O466" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P466" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T466" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="467">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="N467" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O467" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P467" t="n">
-        <v>7771</v>
+        <v>7000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>971</v>
+        <v>875</v>
       </c>
       <c r="T467" t="n">
         <v>8</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N468" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P468" t="n">
-        <v>9742</v>
+        <v>9000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1218</v>
+        <v>1125</v>
       </c>
       <c r="T468" t="n">
         <v>8</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37887,13 +37887,13 @@
         <v>210</v>
       </c>
       <c r="N469" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P469" t="n">
-        <v>5762</v>
+        <v>5000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>720</v>
+        <v>625</v>
       </c>
       <c r="T469" t="n">
         <v>8</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="N470" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O470" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>3714</v>
+        <v>7771</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>464</v>
+        <v>971</v>
       </c>
       <c r="T470" t="n">
         <v>8</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N471" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="O471" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P471" t="n">
-        <v>6000</v>
+        <v>9742</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>750</v>
+        <v>1218</v>
       </c>
       <c r="T471" t="n">
         <v>8</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N472" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O472" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P472" t="n">
-        <v>8000</v>
+        <v>5762</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="T472" t="n">
         <v>8</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,31 +38204,271 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N473" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O473" t="n">
         <v>4000</v>
       </c>
       <c r="P473" t="n">
+        <v>3714</v>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S473" t="n">
+        <v>464</v>
+      </c>
+      <c r="T473" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>9</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D474" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E474" t="n">
+        <v>13</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I474" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M474" t="n">
+        <v>80</v>
+      </c>
+      <c r="N474" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O474" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P474" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S474" t="n">
+        <v>750</v>
+      </c>
+      <c r="T474" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>9</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D475" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E475" t="n">
+        <v>13</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I475" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M475" t="n">
+        <v>40</v>
+      </c>
+      <c r="N475" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O475" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P475" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S475" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T475" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>9</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D476" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E476" t="n">
+        <v>13</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I476" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M476" t="n">
+        <v>70</v>
+      </c>
+      <c r="N476" t="n">
         <v>4000</v>
       </c>
-      <c r="Q473" t="inlineStr">
+      <c r="O476" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P476" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q476" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R473" t="inlineStr">
+      <c r="R476" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S473" t="n">
+      <c r="S476" t="n">
         <v>500</v>
       </c>
-      <c r="T473" t="n">
+      <c r="T476" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T533"/>
+  <dimension ref="A1:T537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,20 +35164,20 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="N435" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P435" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T435" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35235,29 +35235,29 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="N436" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O436" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T436" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35315,29 +35315,29 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="P437" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>875</v>
+        <v>1400</v>
       </c>
       <c r="T437" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N438" t="n">
-        <v>5000</v>
+        <v>21600</v>
       </c>
       <c r="O438" t="n">
-        <v>5000</v>
+        <v>21600</v>
       </c>
       <c r="P438" t="n">
-        <v>5000</v>
+        <v>21600</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="T438" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,32 +35484,32 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N439" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O439" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P439" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T439" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,32 +35564,32 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N440" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O440" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P440" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>812</v>
+        <v>1125</v>
       </c>
       <c r="T440" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,32 +35644,32 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N441" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O441" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P441" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T441" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,41 +35715,41 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N442" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O442" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P442" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T442" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35795,29 +35795,29 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N443" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O443" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P443" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1071</v>
+        <v>688</v>
       </c>
       <c r="T443" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,29 +35875,29 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O444" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P444" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="T444" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N445" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O445" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P445" t="n">
-        <v>13818</v>
+        <v>9000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>864</v>
+        <v>562</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36035,29 +36035,29 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="N446" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>11793</v>
+        <v>14000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>737</v>
+        <v>1000</v>
       </c>
       <c r="T446" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="447">
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="N447" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P447" t="n">
-        <v>9796</v>
+        <v>15000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>612</v>
+        <v>1071</v>
       </c>
       <c r="T447" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36195,29 +36195,29 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N448" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="T448" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N449" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O449" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P449" t="n">
-        <v>16000</v>
+        <v>13818</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1000</v>
+        <v>864</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="N450" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O450" t="n">
         <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>12000</v>
+        <v>11793</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="N451" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="O451" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>9000</v>
+        <v>9796</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,32 +36524,32 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N452" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O452" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P452" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S452" t="n">
         <v>875</v>
       </c>
       <c r="T452" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N453" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O453" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P453" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,41 +36675,41 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N454" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T454" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36755,41 +36755,41 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N455" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O455" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P455" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T455" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456">
@@ -36840,36 +36840,36 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="N456" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O456" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P456" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T456" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457">
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N457" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O457" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P457" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T458" t="n">
         <v>8</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N459" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O459" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P459" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T459" t="n">
         <v>8</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,32 +37164,32 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N460" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S460" t="n">
         <v>625</v>
       </c>
       <c r="T460" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="N461" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37315,41 +37315,41 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="N462" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O462" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P462" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S462" t="n">
         <v>875</v>
       </c>
       <c r="T462" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37395,16 +37395,16 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N463" t="n">
         <v>9000</v>
@@ -37417,19 +37417,19 @@
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T463" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37475,41 +37475,41 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N464" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O464" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P464" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T464" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N465" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O465" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P465" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37582,11 +37582,11 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N466" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O466" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P466" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37715,29 +37715,29 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N467" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O467" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P467" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37746,10 +37746,10 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T467" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="468">
@@ -37795,41 +37795,41 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N468" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P468" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S468" t="n">
         <v>1000</v>
       </c>
       <c r="T468" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="469">
@@ -37875,41 +37875,41 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N469" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O469" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P469" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T469" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="470">
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N470" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O470" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P470" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38035,29 +38035,29 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N471" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P471" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,10 +38066,10 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T471" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="472">
@@ -38115,29 +38115,29 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
@@ -38146,10 +38146,10 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T472" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473">
@@ -38195,29 +38195,29 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N473" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P473" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
@@ -38226,10 +38226,10 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T473" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="474">
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,7 +38284,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="N474" t="n">
         <v>14000</v>
@@ -38297,7 +38297,7 @@
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,10 +38306,10 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T474" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,20 +38364,20 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N475" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O475" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P475" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
@@ -38386,10 +38386,10 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T475" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N476" t="n">
         <v>12000</v>
@@ -38457,7 +38457,7 @@
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38466,10 +38466,10 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>857</v>
+        <v>750</v>
       </c>
       <c r="T476" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44258</v>
+        <v>44196</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38515,41 +38515,41 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N477" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T477" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38595,41 +38595,41 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="N478" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O478" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P478" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T478" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479">
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38675,41 +38675,41 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N479" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O479" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P479" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>625</v>
+        <v>1071</v>
       </c>
       <c r="T479" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="480">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38755,41 +38755,41 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N480" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O480" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="T480" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="481">
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N481" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P481" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T481" t="n">
         <v>8</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N482" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O482" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P482" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T482" t="n">
         <v>8</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N483" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O483" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P483" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T483" t="n">
         <v>8</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,32 +39084,32 @@
         </is>
       </c>
       <c r="M484" t="n">
+        <v>95</v>
+      </c>
+      <c r="N484" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O484" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P484" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S484" t="n">
+        <v>875</v>
+      </c>
+      <c r="T484" t="n">
         <v>8</v>
-      </c>
-      <c r="N484" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O484" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P484" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q484" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R484" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S484" t="n">
-        <v>700</v>
-      </c>
-      <c r="T484" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="485">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N485" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O485" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P485" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="T485" t="n">
         <v>8</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="N486" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O486" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P486" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T486" t="n">
         <v>8</v>
@@ -39320,36 +39320,36 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="N487" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="O487" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="P487" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T487" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="488">
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N488" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O488" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P488" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="T488" t="n">
         <v>400</v>
@@ -39475,41 +39475,41 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N489" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O489" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T489" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="490">
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,32 +39564,32 @@
         </is>
       </c>
       <c r="M490" t="n">
+        <v>165</v>
+      </c>
+      <c r="N490" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O490" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P490" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q490" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S490" t="n">
+        <v>750</v>
+      </c>
+      <c r="T490" t="n">
         <v>8</v>
-      </c>
-      <c r="N490" t="n">
-        <v>260000</v>
-      </c>
-      <c r="O490" t="n">
-        <v>260000</v>
-      </c>
-      <c r="P490" t="n">
-        <v>260000</v>
-      </c>
-      <c r="Q490" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R490" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S490" t="n">
-        <v>650</v>
-      </c>
-      <c r="T490" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="491">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,20 +39644,20 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O491" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P491" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,10 +39666,10 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T491" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="492">
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,7 +39724,7 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N492" t="n">
         <v>230000</v>
@@ -39742,7 +39742,7 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S492" t="n">
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="N493" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O493" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P493" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39875,41 +39875,41 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N494" t="n">
-        <v>15000</v>
+        <v>260000</v>
       </c>
       <c r="O494" t="n">
-        <v>15000</v>
+        <v>260000</v>
       </c>
       <c r="P494" t="n">
-        <v>15000</v>
+        <v>260000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>938</v>
+        <v>650</v>
       </c>
       <c r="T494" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="495">
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O495" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P495" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40035,41 +40035,41 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N496" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="O496" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="P496" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="T496" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="N497" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O497" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P497" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>938</v>
+        <v>688</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40275,41 +40275,41 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N499" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O499" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P499" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T499" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="500">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40355,41 +40355,41 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N500" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O500" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P500" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T500" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="501">
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40435,41 +40435,41 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N501" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>375</v>
+        <v>938</v>
       </c>
       <c r="T501" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N502" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40595,29 +40595,29 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N503" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O503" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P503" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T503" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="504">
@@ -40675,41 +40675,41 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N504" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O504" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P504" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T504" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="505">
@@ -40755,41 +40755,41 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N505" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O505" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="P505" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="T505" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="506">
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P507" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,32 +41004,32 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N508" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O508" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P508" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T508" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41075,41 +41075,41 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P509" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T509" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="510">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,41 +41155,41 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="N510" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O510" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P510" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T510" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41235,41 +41235,41 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1500</v>
+        <v>625</v>
       </c>
       <c r="T511" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="512">
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41315,29 +41315,29 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N512" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O512" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P512" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R512" t="inlineStr">
@@ -41346,10 +41346,10 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T512" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513">
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41395,29 +41395,29 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N513" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P513" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
@@ -41426,10 +41426,10 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1500</v>
+        <v>833</v>
       </c>
       <c r="T513" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="514">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41475,29 +41475,29 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N514" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O514" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P514" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R514" t="inlineStr">
@@ -41506,10 +41506,10 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1375</v>
+        <v>667</v>
       </c>
       <c r="T514" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="515">
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,32 +41564,32 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N515" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O515" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P515" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T515" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516">
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,41 +41635,41 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="N516" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O516" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P516" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T516" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517">
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41715,16 +41715,16 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N517" t="n">
         <v>12000</v>
@@ -41737,19 +41737,19 @@
       </c>
       <c r="Q517" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T517" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41795,41 +41795,41 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N518" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O518" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P518" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>625</v>
+        <v>1375</v>
       </c>
       <c r="T518" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519">
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,32 +41884,32 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N519" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O519" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P519" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T519" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,32 +41964,32 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P520" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T520" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="521">
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,32 +42044,32 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N521" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O521" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P521" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T521" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N522" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O522" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42195,41 +42195,41 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N523" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O523" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T523" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="524">
@@ -42275,41 +42275,41 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N524" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O524" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P524" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T524" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="N525" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O525" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P525" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1500</v>
+        <v>625</v>
       </c>
       <c r="T525" t="n">
         <v>8</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,32 +42444,32 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N526" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O526" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P526" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1500</v>
+        <v>812</v>
       </c>
       <c r="T526" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,32 +42524,32 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="N527" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O527" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="T527" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,41 +42595,41 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="N528" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O528" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P528" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T528" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42675,29 +42675,29 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N529" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O529" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P529" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
@@ -42706,10 +42706,10 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T529" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42755,29 +42755,29 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="N530" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O530" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P530" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
@@ -42786,10 +42786,10 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T530" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="531">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N531" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O531" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P531" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T531" t="n">
         <v>8</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,29 +42915,29 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P532" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
@@ -42946,10 +42946,10 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1125</v>
+        <v>1200</v>
       </c>
       <c r="T532" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="533">
@@ -42967,68 +42967,388 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E533" t="n">
+        <v>13</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I533" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M533" t="n">
+        <v>280</v>
+      </c>
+      <c r="N533" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O533" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P533" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q533" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S533" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T533" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>9</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D534" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E534" t="n">
+        <v>13</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I534" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M534" t="n">
+        <v>310</v>
+      </c>
+      <c r="N534" t="n">
+        <v>14400</v>
+      </c>
+      <c r="O534" t="n">
+        <v>14400</v>
+      </c>
+      <c r="P534" t="n">
+        <v>14400</v>
+      </c>
+      <c r="Q534" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S534" t="n">
+        <v>800</v>
+      </c>
+      <c r="T534" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>9</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D535" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E533" t="n">
-        <v>13</v>
-      </c>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G533" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I533" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J533" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K533" t="inlineStr">
+      <c r="E535" t="n">
+        <v>13</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I535" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
         <is>
           <t>Doctor Davis</t>
         </is>
       </c>
-      <c r="L533" t="inlineStr">
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M535" t="n">
+        <v>220</v>
+      </c>
+      <c r="N535" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O535" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P535" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q535" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S535" t="n">
+        <v>875</v>
+      </c>
+      <c r="T535" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>9</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E536" t="n">
+        <v>13</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M536" t="n">
+        <v>140</v>
+      </c>
+      <c r="N536" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O536" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P536" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S536" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T536" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>9</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E537" t="n">
+        <v>13</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M533" t="n">
+      <c r="M537" t="n">
         <v>160</v>
       </c>
-      <c r="N533" t="n">
+      <c r="N537" t="n">
         <v>5000</v>
       </c>
-      <c r="O533" t="n">
+      <c r="O537" t="n">
         <v>5000</v>
       </c>
-      <c r="P533" t="n">
+      <c r="P537" t="n">
         <v>5000</v>
       </c>
-      <c r="Q533" t="inlineStr">
+      <c r="Q537" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R533" t="inlineStr">
+      <c r="R537" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S533" t="n">
+      <c r="S537" t="n">
         <v>625</v>
       </c>
-      <c r="T533" t="n">
+      <c r="T537" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T553"/>
+  <dimension ref="A1:T559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,32 +34604,32 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="N428" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O428" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P428" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S428" t="n">
         <v>1000</v>
       </c>
       <c r="T428" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="429">
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34675,41 +34675,41 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="N429" t="n">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="O429" t="n">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="P429" t="n">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1125</v>
+        <v>800</v>
       </c>
       <c r="T429" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34755,41 +34755,41 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N430" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O430" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P430" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>750</v>
+        <v>611</v>
       </c>
       <c r="T430" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N431" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="T431" t="n">
         <v>8</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N432" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O432" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T432" t="n">
         <v>8</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="N433" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P433" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T433" t="n">
         <v>8</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="N434" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O434" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P434" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T434" t="n">
         <v>8</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35155,41 +35155,41 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N435" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="O435" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="P435" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>667</v>
+        <v>1125</v>
       </c>
       <c r="T435" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N436" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O436" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P436" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T436" t="n">
         <v>8</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,32 +35324,32 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="N437" t="n">
-        <v>220000</v>
+        <v>5000</v>
       </c>
       <c r="O437" t="n">
-        <v>220000</v>
+        <v>5000</v>
       </c>
       <c r="P437" t="n">
-        <v>220000</v>
+        <v>5000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>524</v>
+        <v>625</v>
       </c>
       <c r="T437" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="438">
@@ -35395,41 +35395,41 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N438" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O438" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P438" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>476</v>
+        <v>1000</v>
       </c>
       <c r="T438" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439">
@@ -35475,41 +35475,41 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M439" t="n">
+        <v>90</v>
+      </c>
+      <c r="N439" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O439" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P439" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S439" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T439" t="n">
         <v>8</v>
-      </c>
-      <c r="N439" t="n">
-        <v>170000</v>
-      </c>
-      <c r="O439" t="n">
-        <v>170000</v>
-      </c>
-      <c r="P439" t="n">
-        <v>170000</v>
-      </c>
-      <c r="Q439" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R439" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S439" t="n">
-        <v>405</v>
-      </c>
-      <c r="T439" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="440">
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,32 +35564,32 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="N440" t="n">
-        <v>280000</v>
+        <v>6000</v>
       </c>
       <c r="O440" t="n">
-        <v>280000</v>
+        <v>6000</v>
       </c>
       <c r="P440" t="n">
-        <v>280000</v>
+        <v>6000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T440" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441">
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N441" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O441" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P441" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35662,11 +35662,11 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="T441" t="n">
         <v>420</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,41 +35715,41 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N442" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O442" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P442" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T442" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35795,41 +35795,41 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="N443" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="O443" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="P443" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>938</v>
+        <v>524</v>
       </c>
       <c r="T443" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,20 +35884,20 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O444" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P444" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>750</v>
+        <v>476</v>
       </c>
       <c r="T444" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35955,41 +35955,41 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N445" t="n">
-        <v>13000</v>
+        <v>170000</v>
       </c>
       <c r="O445" t="n">
-        <v>13000</v>
+        <v>170000</v>
       </c>
       <c r="P445" t="n">
-        <v>13000</v>
+        <v>170000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>812</v>
+        <v>405</v>
       </c>
       <c r="T445" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,32 +36044,32 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="N446" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="O446" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="P446" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="T446" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,32 +36124,32 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="N447" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="O447" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="P447" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="T447" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,29 +36204,29 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36275,38 +36275,38 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P449" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36355,38 +36355,38 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N450" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O450" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,32 +36444,32 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="N451" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P451" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1200</v>
+        <v>812</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,32 +36524,32 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P452" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T452" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36595,41 +36595,41 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="N453" t="n">
-        <v>25200</v>
+        <v>9000</v>
       </c>
       <c r="O453" t="n">
-        <v>25200</v>
+        <v>9000</v>
       </c>
       <c r="P453" t="n">
-        <v>25200</v>
+        <v>9000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1400</v>
+        <v>562</v>
       </c>
       <c r="T453" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,41 +36675,41 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N454" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T454" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36755,41 +36755,41 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T455" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36835,41 +36835,41 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N456" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O456" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P456" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T456" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36915,29 +36915,29 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="N457" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O457" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P457" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T457" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -36995,29 +36995,29 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N458" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O458" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T458" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44281</v>
+        <v>44551</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,32 +37084,32 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="N459" t="n">
-        <v>11000</v>
+        <v>25200</v>
       </c>
       <c r="O459" t="n">
-        <v>11000</v>
+        <v>25200</v>
       </c>
       <c r="P459" t="n">
-        <v>11000</v>
+        <v>25200</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>688</v>
+        <v>1400</v>
       </c>
       <c r="T459" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44281</v>
+        <v>44551</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37155,41 +37155,41 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N460" t="n">
-        <v>13000</v>
+        <v>21600</v>
       </c>
       <c r="O460" t="n">
-        <v>13000</v>
+        <v>21600</v>
       </c>
       <c r="P460" t="n">
-        <v>13000</v>
+        <v>21600</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>812</v>
+        <v>1200</v>
       </c>
       <c r="T460" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37235,41 +37235,41 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M461" t="n">
         <v>90</v>
       </c>
       <c r="N461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>562</v>
+        <v>1000</v>
       </c>
       <c r="T461" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37315,41 +37315,41 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N462" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O462" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P462" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T462" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37395,41 +37395,41 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N463" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O463" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P463" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1071</v>
+        <v>875</v>
       </c>
       <c r="T463" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37475,41 +37475,41 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N464" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O464" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P464" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T464" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N465" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O465" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P465" t="n">
-        <v>13818</v>
+        <v>11000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>864</v>
+        <v>688</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="N466" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O466" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P466" t="n">
-        <v>11793</v>
+        <v>13000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>737</v>
+        <v>812</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="N467" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O467" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P467" t="n">
-        <v>9796</v>
+        <v>9000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,7 +37804,7 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N468" t="n">
         <v>14000</v>
@@ -37817,7 +37817,7 @@
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -37826,10 +37826,10 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T468" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,20 +37884,20 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N469" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O469" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P469" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,10 +37906,10 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T469" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,7 +37964,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N470" t="n">
         <v>12000</v>
@@ -37977,7 +37977,7 @@
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>750</v>
+        <v>857</v>
       </c>
       <c r="T470" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="471">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="O471" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P471" t="n">
-        <v>9000</v>
+        <v>13818</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>562</v>
+        <v>864</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44257</v>
+        <v>44187</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38115,41 +38115,41 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="N472" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="O472" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P472" t="n">
-        <v>7000</v>
+        <v>11793</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>875</v>
+        <v>737</v>
       </c>
       <c r="T472" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="473">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44257</v>
+        <v>44187</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>12000</v>
+        <v>9796</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>750</v>
+        <v>612</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38275,41 +38275,41 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O474" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P474" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T474" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38355,41 +38355,41 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N475" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O475" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P475" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T475" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N476" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="N477" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O477" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P477" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="N478" t="n">
         <v>7000</v>
@@ -38675,41 +38675,41 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O479" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T479" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="480">
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N480" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P480" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T480" t="n">
         <v>8</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38835,41 +38835,41 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N481" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P481" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T481" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="482">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="N483" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O483" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P483" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,32 +39084,32 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="N484" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O484" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P484" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T484" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="485">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,32 +39164,32 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N485" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O485" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P485" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S485" t="n">
         <v>1125</v>
       </c>
       <c r="T485" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="486">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,32 +39244,32 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N486" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O486" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P486" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T486" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="487">
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,20 +39324,20 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N487" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O487" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
@@ -39349,7 +39349,7 @@
         <v>750</v>
       </c>
       <c r="T487" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="488">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,20 +39404,20 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N488" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O488" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P488" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39426,10 +39426,10 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T488" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,20 +39484,20 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P489" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
@@ -39506,10 +39506,10 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T489" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="490">
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N490" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O490" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P490" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N491" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O491" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P491" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="N492" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O492" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P492" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39795,29 +39795,29 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,10 +39826,10 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T493" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39875,29 +39875,29 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N494" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O494" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39909,7 +39909,7 @@
         <v>1000</v>
       </c>
       <c r="T494" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495">
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39955,29 +39955,29 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N495" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O495" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P495" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1071</v>
+        <v>500</v>
       </c>
       <c r="T495" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40035,29 +40035,29 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="N496" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P496" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T496" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44258</v>
+        <v>44196</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40115,41 +40115,41 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N497" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O497" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P497" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T497" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44258</v>
+        <v>44196</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40195,41 +40195,41 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="N498" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T498" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="499">
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44258</v>
+        <v>44196</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40275,41 +40275,41 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N499" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S499" t="n">
         <v>625</v>
       </c>
       <c r="T499" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="500">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,32 +40364,32 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="N500" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O500" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P500" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T500" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="501">
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,32 +40444,32 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1125</v>
+        <v>1071</v>
       </c>
       <c r="T501" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,32 +40524,32 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N502" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>625</v>
+        <v>857</v>
       </c>
       <c r="T502" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="503">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40607,13 +40607,13 @@
         <v>120</v>
       </c>
       <c r="N503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T503" t="n">
         <v>8</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40675,41 +40675,41 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M504" t="n">
+        <v>95</v>
+      </c>
+      <c r="N504" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O504" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P504" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S504" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T504" t="n">
         <v>8</v>
-      </c>
-      <c r="N504" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O504" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P504" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q504" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R504" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S504" t="n">
-        <v>700</v>
-      </c>
-      <c r="T504" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N505" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O505" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P505" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T505" t="n">
         <v>8</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="N506" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O506" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P506" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T506" t="n">
         <v>8</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40915,41 +40915,41 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="N507" t="n">
-        <v>260000</v>
+        <v>9000</v>
       </c>
       <c r="O507" t="n">
-        <v>260000</v>
+        <v>9000</v>
       </c>
       <c r="P507" t="n">
-        <v>260000</v>
+        <v>9000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>650</v>
+        <v>1125</v>
       </c>
       <c r="T507" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="508">
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -40995,41 +40995,41 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="N508" t="n">
-        <v>230000</v>
+        <v>5000</v>
       </c>
       <c r="O508" t="n">
-        <v>230000</v>
+        <v>5000</v>
       </c>
       <c r="P508" t="n">
-        <v>230000</v>
+        <v>5000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T508" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,32 +41084,32 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N509" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O509" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P509" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S509" t="n">
         <v>1000</v>
       </c>
       <c r="T509" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="510">
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
         <v>8</v>
       </c>
       <c r="N510" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O510" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P510" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T510" t="n">
         <v>400</v>
@@ -41235,41 +41235,41 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N511" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P511" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T511" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="512">
@@ -41315,29 +41315,29 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="N512" t="n">
-        <v>230000</v>
+        <v>6000</v>
       </c>
       <c r="O512" t="n">
-        <v>230000</v>
+        <v>6000</v>
       </c>
       <c r="P512" t="n">
-        <v>230000</v>
+        <v>6000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R512" t="inlineStr">
@@ -41346,10 +41346,10 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="T512" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="513">
@@ -41395,29 +41395,29 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="N513" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="O513" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="P513" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
@@ -41426,10 +41426,10 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="T513" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="514">
@@ -41475,41 +41475,41 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="N514" t="n">
-        <v>15000</v>
+        <v>230000</v>
       </c>
       <c r="O514" t="n">
-        <v>15000</v>
+        <v>230000</v>
       </c>
       <c r="P514" t="n">
-        <v>15000</v>
+        <v>230000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>938</v>
+        <v>575</v>
       </c>
       <c r="T514" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="515">
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N515" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O515" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P515" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41582,11 +41582,11 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,41 +41635,41 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="N516" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O516" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P516" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T516" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="517">
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="N517" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O517" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P517" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41795,41 +41795,41 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N518" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O518" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P518" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T518" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="519">
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,41 +41875,41 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N519" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O519" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T519" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41955,41 +41955,41 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N520" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P520" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T520" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="521">
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,32 +42044,32 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N521" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="O521" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="P521" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>375</v>
+        <v>812</v>
       </c>
       <c r="T521" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N522" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O522" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P522" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N523" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O523" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P523" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42222,11 +42222,11 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N524" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42355,41 +42355,41 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N525" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O525" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P525" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T525" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="526">
@@ -42435,41 +42435,41 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N526" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O526" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P526" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T526" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="527">
@@ -42515,41 +42515,41 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N527" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O527" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P527" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="T527" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,20 +42604,20 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O528" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P528" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,10 +42626,10 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T528" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,20 +42684,20 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N529" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O529" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P529" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
@@ -42706,10 +42706,10 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="T529" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42755,41 +42755,41 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N530" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O530" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P530" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>667</v>
+        <v>875</v>
       </c>
       <c r="T530" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="531">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42835,41 +42835,41 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N531" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O531" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P531" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T531" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,32 +42924,32 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="N532" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O532" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P532" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1375</v>
+        <v>750</v>
       </c>
       <c r="T532" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -42995,41 +42995,41 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N533" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O533" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P533" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1500</v>
+        <v>625</v>
       </c>
       <c r="T533" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43075,29 +43075,29 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M534" t="n">
         <v>280</v>
       </c>
       <c r="N534" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O534" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P534" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
@@ -43106,10 +43106,10 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T534" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,41 +43155,41 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N535" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O535" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P535" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>875</v>
+        <v>833</v>
       </c>
       <c r="T535" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,41 +43235,41 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N536" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O536" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P536" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T536" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,16 +43315,16 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N537" t="n">
         <v>12000</v>
@@ -43337,19 +43337,19 @@
       </c>
       <c r="Q537" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T537" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="538">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,41 +43395,41 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N538" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O538" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P538" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>625</v>
+        <v>1375</v>
       </c>
       <c r="T538" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N539" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T539" t="n">
         <v>8</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N540" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O540" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P540" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T540" t="n">
         <v>8</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,36 +43640,36 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="N541" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O541" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P541" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T541" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="542">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N542" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O542" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P542" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N543" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P543" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N544" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O545" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P545" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T545" t="n">
         <v>8</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N546" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O546" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T546" t="n">
         <v>8</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="N547" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O547" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P547" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="T547" t="n">
         <v>8</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,32 +44204,32 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="N548" t="n">
-        <v>21600</v>
+        <v>13000</v>
       </c>
       <c r="O548" t="n">
-        <v>21600</v>
+        <v>13000</v>
       </c>
       <c r="P548" t="n">
-        <v>21600</v>
+        <v>13000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1200</v>
+        <v>812</v>
       </c>
       <c r="T548" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,32 +44284,32 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N549" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O549" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T549" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,32 +44364,32 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="N550" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="O550" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="P550" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T550" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N551" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O551" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P551" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T551" t="n">
         <v>8</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N552" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O552" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P552" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1125</v>
+        <v>1500</v>
       </c>
       <c r="T552" t="n">
         <v>8</v>
@@ -44567,68 +44567,548 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E553" t="n">
+        <v>13</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M553" t="n">
+        <v>350</v>
+      </c>
+      <c r="N553" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O553" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P553" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S553" t="n">
+        <v>1375</v>
+      </c>
+      <c r="T553" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>9</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E554" t="n">
+        <v>13</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G554" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I554" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M554" t="n">
+        <v>330</v>
+      </c>
+      <c r="N554" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O554" t="n">
+        <v>21600</v>
+      </c>
+      <c r="P554" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S554" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T554" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>9</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D555" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E555" t="n">
+        <v>13</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G555" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I555" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M555" t="n">
+        <v>280</v>
+      </c>
+      <c r="N555" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O555" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P555" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S555" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T555" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>9</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D556" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E556" t="n">
+        <v>13</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G556" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I556" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M556" t="n">
+        <v>310</v>
+      </c>
+      <c r="N556" t="n">
+        <v>14400</v>
+      </c>
+      <c r="O556" t="n">
+        <v>14400</v>
+      </c>
+      <c r="P556" t="n">
+        <v>14400</v>
+      </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R556" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S556" t="n">
+        <v>800</v>
+      </c>
+      <c r="T556" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>9</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D557" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E553" t="n">
-        <v>13</v>
-      </c>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G553" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I553" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J553" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K553" t="inlineStr">
+      <c r="E557" t="n">
+        <v>13</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I557" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
         <is>
           <t>Doctor Davis</t>
         </is>
       </c>
-      <c r="L553" t="inlineStr">
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M557" t="n">
+        <v>220</v>
+      </c>
+      <c r="N557" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O557" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P557" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R557" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S557" t="n">
+        <v>875</v>
+      </c>
+      <c r="T557" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>9</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D558" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E558" t="n">
+        <v>13</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G558" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M558" t="n">
+        <v>140</v>
+      </c>
+      <c r="N558" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O558" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P558" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R558" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S558" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T558" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>9</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D559" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E559" t="n">
+        <v>13</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G559" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M553" t="n">
+      <c r="M559" t="n">
         <v>160</v>
       </c>
-      <c r="N553" t="n">
+      <c r="N559" t="n">
         <v>5000</v>
       </c>
-      <c r="O553" t="n">
+      <c r="O559" t="n">
         <v>5000</v>
       </c>
-      <c r="P553" t="n">
+      <c r="P559" t="n">
         <v>5000</v>
       </c>
-      <c r="Q553" t="inlineStr">
+      <c r="Q559" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R553" t="inlineStr">
+      <c r="R559" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S553" t="n">
+      <c r="S559" t="n">
         <v>625</v>
       </c>
-      <c r="T553" t="n">
+      <c r="T559" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T609"/>
+  <dimension ref="A1:T614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,20 +46524,20 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="N577" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O577" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P577" t="n">
-        <v>13769</v>
+        <v>18000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
@@ -46546,10 +46546,10 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T577" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,29 +46595,29 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="N578" t="n">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="O578" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P578" t="n">
-        <v>14737</v>
+        <v>14400</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
@@ -46626,10 +46626,10 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>921</v>
+        <v>800</v>
       </c>
       <c r="T578" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="579">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,29 +46675,29 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="N579" t="n">
-        <v>11000</v>
+        <v>27000</v>
       </c>
       <c r="O579" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="P579" t="n">
-        <v>11577</v>
+        <v>27000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
@@ -46706,10 +46706,10 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>724</v>
+        <v>1500</v>
       </c>
       <c r="T579" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="580">
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,41 +46755,41 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T580" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,41 +46835,41 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P581" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T581" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="582">
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,41 +46915,41 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N582" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O582" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P582" t="n">
-        <v>8000</v>
+        <v>13769</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1000</v>
+        <v>861</v>
       </c>
       <c r="T582" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N583" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O583" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P583" t="n">
-        <v>14000</v>
+        <v>14737</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>875</v>
+        <v>921</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N584" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O584" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P584" t="n">
-        <v>15000</v>
+        <v>11577</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>938</v>
+        <v>724</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,16 +47155,16 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N585" t="n">
         <v>12000</v>
@@ -47177,19 +47177,19 @@
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T585" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586">
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,41 +47235,41 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N586" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O586" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P586" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T586" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,41 +47315,41 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N587" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O587" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P587" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S587" t="n">
         <v>1000</v>
       </c>
       <c r="T587" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="588">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="N588" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O588" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P588" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47422,11 +47422,11 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N589" t="n">
-        <v>12800</v>
+        <v>15000</v>
       </c>
       <c r="O589" t="n">
-        <v>12800</v>
+        <v>15000</v>
       </c>
       <c r="P589" t="n">
-        <v>12800</v>
+        <v>15000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N590" t="n">
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="O590" t="n">
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="P590" t="n">
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,32 +47644,32 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="N591" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="O591" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="P591" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T591" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,41 +47715,41 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N592" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O592" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P592" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T592" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,41 +47795,41 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N593" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O593" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P593" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T593" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="594">
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,41 +47875,41 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N594" t="n">
-        <v>5000</v>
+        <v>12800</v>
       </c>
       <c r="O594" t="n">
-        <v>5000</v>
+        <v>12800</v>
       </c>
       <c r="P594" t="n">
-        <v>5000</v>
+        <v>12800</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T594" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N595" t="n">
-        <v>16000</v>
+        <v>9600</v>
       </c>
       <c r="O595" t="n">
-        <v>16000</v>
+        <v>9600</v>
       </c>
       <c r="P595" t="n">
-        <v>16000</v>
+        <v>9600</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,41 +48035,41 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N596" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O596" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P596" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T596" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597">
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48115,41 +48115,41 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N597" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P597" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T597" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="598">
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N598" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O598" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P598" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T598" t="n">
         <v>8</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N599" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O599" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P599" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T599" t="n">
         <v>8</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,41 +48355,41 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N600" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O600" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P600" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S600" t="n">
         <v>1000</v>
       </c>
       <c r="T600" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,41 +48435,41 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="N601" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O601" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T601" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,41 +48515,41 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N602" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O602" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P602" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T602" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="603">
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N603" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O603" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P603" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T603" t="n">
         <v>8</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N604" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O604" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P604" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T604" t="n">
         <v>8</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
         <v>180</v>
       </c>
       <c r="N605" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O605" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P605" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48782,11 +48782,11 @@
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T605" t="n">
         <v>8</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44511</v>
+        <v>44525</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,7 +48844,7 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N606" t="n">
         <v>12000</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44511</v>
+        <v>44525</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,16 +48924,16 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N607" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O607" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T607" t="n">
         <v>8</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44511</v>
+        <v>44525</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N608" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O608" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P608" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T608" t="n">
         <v>8</v>
@@ -49047,68 +49047,468 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E609" t="n">
+        <v>13</v>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G609" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I609" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>Early Treat</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M609" t="n">
+        <v>150</v>
+      </c>
+      <c r="N609" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O609" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P609" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S609" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T609" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>9</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E610" t="n">
+        <v>13</v>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G610" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I610" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>Early Treat</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M610" t="n">
+        <v>180</v>
+      </c>
+      <c r="N610" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O610" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P610" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q610" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R610" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S610" t="n">
+        <v>1375</v>
+      </c>
+      <c r="T610" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>9</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D611" s="2" t="n">
         <v>44511</v>
       </c>
-      <c r="E609" t="n">
-        <v>13</v>
-      </c>
-      <c r="F609" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G609" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I609" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J609" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K609" t="inlineStr">
+      <c r="E611" t="n">
+        <v>13</v>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G611" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I611" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>Early Treat</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M611" t="n">
+        <v>300</v>
+      </c>
+      <c r="N611" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O611" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P611" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q611" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R611" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S611" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T611" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>9</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D612" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E612" t="n">
+        <v>13</v>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G612" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I612" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>Early Treat</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M612" t="n">
+        <v>400</v>
+      </c>
+      <c r="N612" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O612" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P612" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q612" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R612" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S612" t="n">
+        <v>1375</v>
+      </c>
+      <c r="T612" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>9</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D613" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E613" t="n">
+        <v>13</v>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G613" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I613" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
         <is>
           <t>Florida King</t>
         </is>
       </c>
-      <c r="L609" t="inlineStr">
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M613" t="n">
+        <v>350</v>
+      </c>
+      <c r="N613" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O613" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P613" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q613" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R613" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S613" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T613" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>9</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D614" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E614" t="n">
+        <v>13</v>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G614" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I614" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M609" t="n">
+      <c r="M614" t="n">
         <v>280</v>
       </c>
-      <c r="N609" t="n">
+      <c r="N614" t="n">
         <v>11000</v>
       </c>
-      <c r="O609" t="n">
+      <c r="O614" t="n">
         <v>11000</v>
       </c>
-      <c r="P609" t="n">
+      <c r="P614" t="n">
         <v>11000</v>
       </c>
-      <c r="Q609" t="inlineStr">
+      <c r="Q614" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R609" t="inlineStr">
+      <c r="R614" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S609" t="n">
+      <c r="S614" t="n">
         <v>1375</v>
       </c>
-      <c r="T609" t="n">
+      <c r="T614" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T638"/>
+  <dimension ref="A1:T640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,20 +48844,20 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N606" t="n">
-        <v>12800</v>
+        <v>26000</v>
       </c>
       <c r="O606" t="n">
-        <v>12800</v>
+        <v>26000</v>
       </c>
       <c r="P606" t="n">
-        <v>12800</v>
+        <v>26000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
@@ -48866,10 +48866,10 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>800</v>
+        <v>1444</v>
       </c>
       <c r="T606" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="607">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,20 +48924,20 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N607" t="n">
-        <v>9600</v>
+        <v>20000</v>
       </c>
       <c r="O607" t="n">
-        <v>9600</v>
+        <v>20000</v>
       </c>
       <c r="P607" t="n">
-        <v>9600</v>
+        <v>20000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
@@ -48946,10 +48946,10 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>600</v>
+        <v>1111</v>
       </c>
       <c r="T607" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="608">
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N608" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="O608" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="P608" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49075,41 +49075,41 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N609" t="n">
-        <v>11200</v>
+        <v>9600</v>
       </c>
       <c r="O609" t="n">
-        <v>11200</v>
+        <v>9600</v>
       </c>
       <c r="P609" t="n">
-        <v>11200</v>
+        <v>9600</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T609" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="610">
@@ -49155,41 +49155,41 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N610" t="n">
-        <v>9800</v>
+        <v>8000</v>
       </c>
       <c r="O610" t="n">
-        <v>9800</v>
+        <v>8000</v>
       </c>
       <c r="P610" t="n">
-        <v>9800</v>
+        <v>8000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T610" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="611">
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N611" t="n">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="O611" t="n">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="P611" t="n">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T611" t="n">
         <v>14</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,29 +49315,29 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="N612" t="n">
-        <v>7000</v>
+        <v>9800</v>
       </c>
       <c r="O612" t="n">
-        <v>7000</v>
+        <v>9800</v>
       </c>
       <c r="P612" t="n">
-        <v>7000</v>
+        <v>9800</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
@@ -49346,10 +49346,10 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="T612" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,29 +49395,29 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N613" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O613" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P613" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
@@ -49426,10 +49426,10 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T613" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="614">
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="N614" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O614" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P614" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T614" t="n">
         <v>8</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N615" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O615" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P615" t="n">
-        <v>7776</v>
+        <v>9000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>972</v>
+        <v>1125</v>
       </c>
       <c r="T615" t="n">
         <v>8</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N616" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O616" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P616" t="n">
-        <v>9692</v>
+        <v>5000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>1212</v>
+        <v>625</v>
       </c>
       <c r="T616" t="n">
         <v>8</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="N617" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="O617" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P617" t="n">
-        <v>5773</v>
+        <v>7776</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>722</v>
+        <v>972</v>
       </c>
       <c r="T617" t="n">
         <v>8</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N618" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="O618" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P618" t="n">
-        <v>4288</v>
+        <v>9692</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>536</v>
+        <v>1212</v>
       </c>
       <c r="T618" t="n">
         <v>8</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,41 +49875,41 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="N619" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O619" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P619" t="n">
-        <v>14000</v>
+        <v>5773</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T619" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,41 +49955,41 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="N620" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O620" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P620" t="n">
-        <v>12000</v>
+        <v>4288</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>857</v>
+        <v>536</v>
       </c>
       <c r="T620" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="621">
@@ -50035,7 +50035,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -50044,7 +50044,7 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N621" t="n">
         <v>14000</v>
@@ -50057,19 +50057,19 @@
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T621" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="622">
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50124,7 +50124,7 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N622" t="n">
         <v>12000</v>
@@ -50137,19 +50137,19 @@
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>750</v>
+        <v>857</v>
       </c>
       <c r="T622" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="623">
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N623" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O623" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P623" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,41 +50275,41 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="N624" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O624" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P624" t="n">
-        <v>7707</v>
+        <v>12000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>963</v>
+        <v>750</v>
       </c>
       <c r="T624" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,41 +50355,41 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N625" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O625" t="n">
         <v>10000</v>
       </c>
       <c r="P625" t="n">
-        <v>9708</v>
+        <v>10000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1214</v>
+        <v>625</v>
       </c>
       <c r="T625" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="626">
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="N626" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="O626" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P626" t="n">
-        <v>5707</v>
+        <v>7707</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>713</v>
+        <v>963</v>
       </c>
       <c r="T626" t="n">
         <v>8</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N627" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="O627" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P627" t="n">
-        <v>4000</v>
+        <v>9708</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>500</v>
+        <v>1214</v>
       </c>
       <c r="T627" t="n">
         <v>8</v>
@@ -50595,7 +50595,7 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -50604,32 +50604,32 @@
         </is>
       </c>
       <c r="M628" t="n">
+        <v>205</v>
+      </c>
+      <c r="N628" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O628" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P628" t="n">
+        <v>5707</v>
+      </c>
+      <c r="Q628" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R628" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S628" t="n">
+        <v>713</v>
+      </c>
+      <c r="T628" t="n">
         <v>8</v>
-      </c>
-      <c r="N628" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O628" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P628" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q628" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R628" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S628" t="n">
-        <v>476</v>
-      </c>
-      <c r="T628" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="629">
@@ -50675,41 +50675,41 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N629" t="n">
-        <v>270000</v>
+        <v>4000</v>
       </c>
       <c r="O629" t="n">
-        <v>270000</v>
+        <v>4000</v>
       </c>
       <c r="P629" t="n">
-        <v>270000</v>
+        <v>4000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T629" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="630">
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
         <v>8</v>
       </c>
       <c r="N630" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O630" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P630" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>548</v>
+        <v>476</v>
       </c>
       <c r="T630" t="n">
         <v>420</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,41 +50835,41 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N631" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="O631" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="P631" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>875</v>
+        <v>643</v>
       </c>
       <c r="T631" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,41 +50915,41 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N632" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="O632" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="P632" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1125</v>
+        <v>548</v>
       </c>
       <c r="T632" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="633">
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N633" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O633" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P633" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T633" t="n">
         <v>8</v>
@@ -51075,41 +51075,41 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N634" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P634" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T634" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="635">
@@ -51155,7 +51155,7 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
@@ -51164,32 +51164,32 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N635" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O635" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P635" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T635" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="636">
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="N636" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O636" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P636" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T636" t="n">
         <v>16</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,41 +51315,41 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>380</v>
+        <v>105</v>
       </c>
       <c r="N637" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O637" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P637" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="T637" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,16 +51395,16 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="N638" t="n">
         <v>12000</v>
@@ -51417,18 +51417,178 @@
       </c>
       <c r="Q638" t="inlineStr">
         <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S638" t="n">
+        <v>750</v>
+      </c>
+      <c r="T638" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>9</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E639" t="n">
+        <v>13</v>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G639" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M639" t="n">
+        <v>380</v>
+      </c>
+      <c r="N639" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O639" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P639" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q639" t="inlineStr">
+        <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R638" t="inlineStr">
+      <c r="R639" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S638" t="n">
+      <c r="S639" t="n">
+        <v>933</v>
+      </c>
+      <c r="T639" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>9</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M640" t="n">
+        <v>310</v>
+      </c>
+      <c r="N640" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O640" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P640" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q640" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S640" t="n">
         <v>800</v>
       </c>
-      <c r="T638" t="n">
+      <c r="T640" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T653"/>
+  <dimension ref="A1:T659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,32 +41884,32 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="N519" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O519" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P519" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T519" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="520">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,32 +41964,32 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>16800</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>16800</v>
       </c>
       <c r="P520" t="n">
-        <v>10000</v>
+        <v>16800</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T520" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521">
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42047,29 +42047,29 @@
         <v>220</v>
       </c>
       <c r="N521" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O521" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P521" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T521" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44187</v>
+        <v>44588</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,20 +42124,20 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="N522" t="n">
-        <v>14000</v>
+        <v>21600</v>
       </c>
       <c r="O522" t="n">
-        <v>14000</v>
+        <v>21600</v>
       </c>
       <c r="P522" t="n">
-        <v>14000</v>
+        <v>21600</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
@@ -42146,10 +42146,10 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T522" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44187</v>
+        <v>44588</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42195,29 +42195,29 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="N523" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O523" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P523" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
@@ -42226,10 +42226,10 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T523" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44187</v>
+        <v>44588</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,29 +42275,29 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N524" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O524" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P524" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
@@ -42306,10 +42306,10 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>857</v>
+        <v>800</v>
       </c>
       <c r="T524" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44187</v>
+        <v>44536</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,32 +42364,32 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="N525" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O525" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P525" t="n">
-        <v>13818</v>
+        <v>12000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>864</v>
+        <v>1000</v>
       </c>
       <c r="T525" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44187</v>
+        <v>44536</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,32 +42444,32 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="N526" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>11793</v>
+        <v>10000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>737</v>
+        <v>833</v>
       </c>
       <c r="T526" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44187</v>
+        <v>44536</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,32 +42524,32 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="N527" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O527" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P527" t="n">
-        <v>9796</v>
+        <v>8000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>612</v>
+        <v>667</v>
       </c>
       <c r="T527" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44266</v>
+        <v>44187</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,20 +42604,20 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="N528" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O528" t="n">
         <v>14000</v>
       </c>
       <c r="P528" t="n">
-        <v>13769</v>
+        <v>14000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,10 +42626,10 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="T528" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44266</v>
+        <v>44187</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,20 +42684,20 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N529" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O529" t="n">
         <v>15000</v>
       </c>
       <c r="P529" t="n">
-        <v>14737</v>
+        <v>15000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
@@ -42706,10 +42706,10 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>921</v>
+        <v>1071</v>
       </c>
       <c r="T529" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44266</v>
+        <v>44187</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,20 +42764,20 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="N530" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O530" t="n">
         <v>12000</v>
       </c>
       <c r="P530" t="n">
-        <v>11577</v>
+        <v>12000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
@@ -42786,10 +42786,10 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>724</v>
+        <v>857</v>
       </c>
       <c r="T530" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="531">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44277</v>
+        <v>44187</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N531" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O531" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P531" t="n">
-        <v>16000</v>
+        <v>13818</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1000</v>
+        <v>864</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44277</v>
+        <v>44187</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="N532" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O532" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P532" t="n">
-        <v>15000</v>
+        <v>11793</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>938</v>
+        <v>737</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44277</v>
+        <v>44187</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="N533" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O533" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P533" t="n">
-        <v>12000</v>
+        <v>9796</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>750</v>
+        <v>612</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,20 +43084,20 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="N534" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="O534" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P534" t="n">
-        <v>7770</v>
+        <v>13769</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
@@ -43106,10 +43106,10 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>971</v>
+        <v>861</v>
       </c>
       <c r="T534" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,20 +43164,20 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N535" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P535" t="n">
-        <v>9727</v>
+        <v>14737</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
@@ -43186,10 +43186,10 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1216</v>
+        <v>921</v>
       </c>
       <c r="T535" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,20 +43244,20 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N536" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="O536" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>5780</v>
+        <v>11577</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
@@ -43266,10 +43266,10 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="T536" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43327,29 +43327,29 @@
         <v>40</v>
       </c>
       <c r="N537" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O537" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P537" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T537" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="538">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,32 +43404,32 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N538" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O538" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P538" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T538" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,32 +43484,32 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T539" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="540">
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,20 +43564,20 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="N540" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O540" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>10000</v>
+        <v>7770</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
@@ -43586,10 +43586,10 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>667</v>
+        <v>971</v>
       </c>
       <c r="T540" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541">
@@ -43635,29 +43635,29 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N541" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O541" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P541" t="n">
-        <v>8000</v>
+        <v>9727</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
@@ -43666,10 +43666,10 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>533</v>
+        <v>1216</v>
       </c>
       <c r="T541" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="542">
@@ -43715,29 +43715,29 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="N542" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O542" t="n">
         <v>6000</v>
       </c>
       <c r="P542" t="n">
-        <v>6000</v>
+        <v>5780</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
@@ -43746,10 +43746,10 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>400</v>
+        <v>722</v>
       </c>
       <c r="T542" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543">
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,7 +43804,7 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N543" t="n">
         <v>14000</v>
@@ -43822,7 +43822,7 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S543" t="n">
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,7 +43884,7 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N544" t="n">
         <v>12000</v>
@@ -43902,7 +43902,7 @@
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S544" t="n">
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,7 +43964,7 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N545" t="n">
         <v>10000</v>
@@ -43982,7 +43982,7 @@
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S545" t="n">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,32 +44044,32 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N546" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O546" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>812</v>
+        <v>667</v>
       </c>
       <c r="T546" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,41 +44115,41 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N547" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O547" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P547" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>938</v>
+        <v>533</v>
       </c>
       <c r="T547" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548">
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,41 +44195,41 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N548" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O548" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P548" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>688</v>
+        <v>400</v>
       </c>
       <c r="T548" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44225</v>
+        <v>44202</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,32 +44284,32 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O549" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P549" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T549" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44225</v>
+        <v>44202</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44355,29 +44355,29 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N550" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O550" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P550" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
@@ -44386,10 +44386,10 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="T550" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44225</v>
+        <v>44202</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,41 +44435,41 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N551" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O551" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>938</v>
+        <v>667</v>
       </c>
       <c r="T551" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,41 +44515,41 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N552" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O552" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P552" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T552" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44595,29 +44595,29 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N553" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="O553" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="P553" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R553" t="inlineStr">
@@ -44626,10 +44626,10 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T553" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="554">
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,32 +44684,32 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="N554" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="O554" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="P554" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T554" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="555">
@@ -44760,36 +44760,36 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M555" t="n">
         <v>120</v>
       </c>
       <c r="N555" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O555" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P555" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T555" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556">
@@ -44840,36 +44840,36 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="N556" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="O556" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="P556" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T556" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="557">
@@ -44920,36 +44920,36 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N557" t="n">
-        <v>230000</v>
+        <v>15000</v>
       </c>
       <c r="O557" t="n">
-        <v>230000</v>
+        <v>15000</v>
       </c>
       <c r="P557" t="n">
-        <v>230000</v>
+        <v>15000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>575</v>
+        <v>938</v>
       </c>
       <c r="T557" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558">
@@ -45000,36 +45000,36 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N558" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O558" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P558" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S558" t="n">
         <v>750</v>
       </c>
       <c r="T558" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="559">
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,41 +45075,41 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="N559" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="O559" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="P559" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T559" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="560">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,41 +45155,41 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N560" t="n">
-        <v>9500</v>
+        <v>250000</v>
       </c>
       <c r="O560" t="n">
-        <v>9500</v>
+        <v>250000</v>
       </c>
       <c r="P560" t="n">
-        <v>9500</v>
+        <v>250000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1188</v>
+        <v>625</v>
       </c>
       <c r="T560" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="561">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45244,32 +45244,32 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N561" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O561" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P561" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T561" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="562">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
         <v>190</v>
       </c>
       <c r="N562" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O562" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P562" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T562" t="n">
         <v>8</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45395,41 +45395,41 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="N563" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P563" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1250</v>
+        <v>575</v>
       </c>
       <c r="T563" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,29 +45475,29 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N564" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O564" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P564" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R564" t="inlineStr">
@@ -45506,10 +45506,10 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T564" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="565">
@@ -45555,41 +45555,41 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N565" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O565" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P565" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T565" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="566">
@@ -45635,41 +45635,41 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N566" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O566" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P566" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>812</v>
+        <v>1188</v>
       </c>
       <c r="T566" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="567">
@@ -45715,41 +45715,41 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N567" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S567" t="n">
         <v>625</v>
       </c>
       <c r="T567" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="568">
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45795,7 +45795,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -45804,20 +45804,20 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="N568" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O568" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P568" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R568" t="inlineStr">
@@ -45826,10 +45826,10 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T568" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569">
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,29 +45875,29 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="N569" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O569" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P569" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
@@ -45906,10 +45906,10 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="T569" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="570">
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45955,41 +45955,41 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N570" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O570" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P570" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T570" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46035,41 +46035,41 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="N571" t="n">
-        <v>9600</v>
+        <v>15000</v>
       </c>
       <c r="O571" t="n">
-        <v>9600</v>
+        <v>15000</v>
       </c>
       <c r="P571" t="n">
-        <v>9600</v>
+        <v>15000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T571" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,41 +46115,41 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N572" t="n">
-        <v>8400</v>
+        <v>13000</v>
       </c>
       <c r="O572" t="n">
-        <v>8400</v>
+        <v>13000</v>
       </c>
       <c r="P572" t="n">
-        <v>8400</v>
+        <v>13000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>700</v>
+        <v>812</v>
       </c>
       <c r="T572" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="573">
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44526</v>
+        <v>44259</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46195,41 +46195,41 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N573" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1500</v>
+        <v>625</v>
       </c>
       <c r="T573" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,36 +46280,36 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N574" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P574" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T574" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="575">
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,36 +46360,36 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N575" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O575" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P575" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T575" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="576">
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,7 +46444,7 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N576" t="n">
         <v>12000</v>
@@ -46457,19 +46457,19 @@
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T576" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="577">
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,32 +46524,32 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="O577" t="n">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="P577" t="n">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T577" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,32 +46604,32 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N578" t="n">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="O578" t="n">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="P578" t="n">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T578" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="579">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44250</v>
+        <v>44526</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,41 +46675,41 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N579" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O579" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P579" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>938</v>
+        <v>1500</v>
       </c>
       <c r="T579" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="580">
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44250</v>
+        <v>44526</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,32 +46764,32 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="N580" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O580" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>812</v>
+        <v>1250</v>
       </c>
       <c r="T580" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44250</v>
+        <v>44526</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,32 +46844,32 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N581" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O581" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P581" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T581" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582">
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44250</v>
+        <v>44526</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,7 +46924,7 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N582" t="n">
         <v>12000</v>
@@ -46937,19 +46937,19 @@
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T582" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44250</v>
+        <v>44526</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,7 +47004,7 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N583" t="n">
         <v>10000</v>
@@ -47017,19 +47017,19 @@
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="T583" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44264</v>
+        <v>44526</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,41 +47075,41 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N584" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O584" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T584" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44264</v>
+        <v>44250</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,7 +47164,7 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N585" t="n">
         <v>15000</v>
@@ -47182,7 +47182,7 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S585" t="n">
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44264</v>
+        <v>44250</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N586" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O586" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P586" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44533</v>
+        <v>44250</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,41 +47315,41 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O587" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P587" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1500</v>
+        <v>688</v>
       </c>
       <c r="T587" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="588">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44533</v>
+        <v>44250</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,41 +47395,41 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N588" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O588" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P588" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T588" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="589">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44533</v>
+        <v>44250</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,41 +47475,41 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P589" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T589" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44523</v>
+        <v>44264</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,32 +47564,32 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N590" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O590" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P590" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>1500</v>
+        <v>875</v>
       </c>
       <c r="T590" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44523</v>
+        <v>44264</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,41 +47635,41 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N591" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O591" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P591" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T591" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44523</v>
+        <v>44264</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,41 +47715,41 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N592" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O592" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P592" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T592" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,7 +47804,7 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N593" t="n">
         <v>12000</v>
@@ -47817,19 +47817,19 @@
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T593" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="594">
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47884,7 +47884,7 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="N594" t="n">
         <v>10000</v>
@@ -47897,19 +47897,19 @@
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T594" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,7 +47955,7 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -47964,7 +47964,7 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N595" t="n">
         <v>8000</v>
@@ -47977,19 +47977,19 @@
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T595" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,7 +48035,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -48047,13 +48047,13 @@
         <v>250</v>
       </c>
       <c r="N596" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O596" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P596" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T596" t="n">
         <v>8</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48115,16 +48115,16 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N597" t="n">
         <v>10000</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N598" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O598" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P598" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T598" t="n">
         <v>8</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48284,20 +48284,20 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N599" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
@@ -48306,10 +48306,10 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T599" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="600">
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,29 +48355,29 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="N600" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O600" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P600" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
@@ -48386,10 +48386,10 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>1071</v>
+        <v>625</v>
       </c>
       <c r="T600" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,29 +48435,29 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="N601" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O601" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P601" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
@@ -48466,10 +48466,10 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>857</v>
+        <v>500</v>
       </c>
       <c r="T601" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44176</v>
+        <v>44167</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,7 +48515,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -48524,32 +48524,32 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N602" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O602" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P602" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T602" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="603">
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44176</v>
+        <v>44167</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,41 +48595,41 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N603" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O603" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P603" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>562</v>
+        <v>1250</v>
       </c>
       <c r="T603" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44176</v>
+        <v>44167</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48684,32 +48684,32 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="N604" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O604" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P604" t="n">
-        <v>10429</v>
+        <v>6000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="T604" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="605">
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,29 +48755,29 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="N605" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O605" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P605" t="n">
-        <v>8231</v>
+        <v>14000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
@@ -48786,10 +48786,10 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>514</v>
+        <v>1000</v>
       </c>
       <c r="T605" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="606">
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44278</v>
+        <v>44186</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,41 +48835,41 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="N606" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O606" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P606" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T606" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="607">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44278</v>
+        <v>44186</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,41 +48915,41 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="N607" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O607" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P607" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>1125</v>
+        <v>857</v>
       </c>
       <c r="T607" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44278</v>
+        <v>44176</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,41 +48995,41 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
         <v>85</v>
       </c>
       <c r="N608" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O608" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P608" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T608" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="609">
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44278</v>
+        <v>44176</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,41 +49075,41 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
         <v>100</v>
       </c>
       <c r="N609" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O609" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P609" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T609" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44260</v>
+        <v>44176</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,41 +49155,41 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="N610" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O610" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P610" t="n">
-        <v>7000</v>
+        <v>10429</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>875</v>
+        <v>652</v>
       </c>
       <c r="T610" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44260</v>
+        <v>44176</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,41 +49235,41 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N611" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O611" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P611" t="n">
-        <v>9000</v>
+        <v>8231</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1125</v>
+        <v>514</v>
       </c>
       <c r="T611" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N612" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O612" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P612" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T612" t="n">
         <v>8</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N613" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O613" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P613" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T613" t="n">
         <v>8</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N614" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O614" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P614" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T614" t="n">
         <v>8</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,16 +49555,16 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N615" t="n">
         <v>5000</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,32 +49644,32 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="N616" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O616" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P616" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S616" t="n">
         <v>875</v>
       </c>
       <c r="T616" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617">
@@ -49715,7 +49715,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -49724,32 +49724,32 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N617" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O617" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P617" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T617" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="618">
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,32 +49804,32 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N618" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O618" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P618" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T618" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44585</v>
+        <v>44260</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,32 +49884,32 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="N619" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="O619" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="P619" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1444</v>
+        <v>875</v>
       </c>
       <c r="T619" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44585</v>
+        <v>44260</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,41 +49955,41 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N620" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O620" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P620" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1111</v>
+        <v>1125</v>
       </c>
       <c r="T620" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,41 +50035,41 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N621" t="n">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="O621" t="n">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="P621" t="n">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T621" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,38 +50115,38 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N622" t="n">
-        <v>9600</v>
+        <v>14000</v>
       </c>
       <c r="O622" t="n">
-        <v>9600</v>
+        <v>14000</v>
       </c>
       <c r="P622" t="n">
-        <v>9600</v>
+        <v>14000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>600</v>
+        <v>875</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,38 +50195,38 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N623" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O623" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P623" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,41 +50275,41 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N624" t="n">
-        <v>11200</v>
+        <v>13000</v>
       </c>
       <c r="O624" t="n">
-        <v>11200</v>
+        <v>13000</v>
       </c>
       <c r="P624" t="n">
-        <v>11200</v>
+        <v>13000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="T624" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,41 +50355,41 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="N625" t="n">
-        <v>9800</v>
+        <v>26000</v>
       </c>
       <c r="O625" t="n">
-        <v>9800</v>
+        <v>26000</v>
       </c>
       <c r="P625" t="n">
-        <v>9800</v>
+        <v>26000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>700</v>
+        <v>1444</v>
       </c>
       <c r="T625" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="626">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,41 +50435,41 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N626" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O626" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P626" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="T626" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="627">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50527,29 +50527,29 @@
         <v>220</v>
       </c>
       <c r="N627" t="n">
-        <v>7000</v>
+        <v>12800</v>
       </c>
       <c r="O627" t="n">
-        <v>7000</v>
+        <v>12800</v>
       </c>
       <c r="P627" t="n">
-        <v>7000</v>
+        <v>12800</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="T627" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="628">
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,41 +50595,41 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="N628" t="n">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="O628" t="n">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="P628" t="n">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1125</v>
+        <v>600</v>
       </c>
       <c r="T628" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="629">
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,41 +50675,41 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N629" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O629" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P629" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T629" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,20 +50764,20 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="N630" t="n">
-        <v>7500</v>
+        <v>11200</v>
       </c>
       <c r="O630" t="n">
-        <v>8000</v>
+        <v>11200</v>
       </c>
       <c r="P630" t="n">
-        <v>7776</v>
+        <v>11200</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
@@ -50786,10 +50786,10 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>972</v>
+        <v>800</v>
       </c>
       <c r="T630" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="631">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,29 +50835,29 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="N631" t="n">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="O631" t="n">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="P631" t="n">
-        <v>9692</v>
+        <v>9800</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
@@ -50866,10 +50866,10 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1212</v>
+        <v>700</v>
       </c>
       <c r="T631" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,29 +50915,29 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="N632" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O632" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P632" t="n">
-        <v>5773</v>
+        <v>7000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
@@ -50946,10 +50946,10 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T632" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="N633" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O633" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P633" t="n">
-        <v>4288</v>
+        <v>7000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>536</v>
+        <v>875</v>
       </c>
       <c r="T633" t="n">
         <v>8</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,41 +51075,41 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N634" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P634" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T634" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,7 +51155,7 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
@@ -51164,32 +51164,32 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N635" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O635" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P635" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T635" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51244,32 +51244,32 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="N636" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O636" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P636" t="n">
-        <v>14000</v>
+        <v>7776</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>875</v>
+        <v>972</v>
       </c>
       <c r="T636" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,41 +51315,41 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N637" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O637" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P637" t="n">
-        <v>12000</v>
+        <v>9692</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>750</v>
+        <v>1212</v>
       </c>
       <c r="T637" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,41 +51395,41 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="N638" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O638" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P638" t="n">
-        <v>10000</v>
+        <v>5773</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>625</v>
+        <v>722</v>
       </c>
       <c r="T638" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44209</v>
+        <v>44162</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="N639" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="O639" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P639" t="n">
-        <v>7707</v>
+        <v>4288</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>963</v>
+        <v>536</v>
       </c>
       <c r="T639" t="n">
         <v>8</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,41 +51555,41 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N640" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O640" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P640" t="n">
-        <v>9708</v>
+        <v>14000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T640" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,32 +51644,32 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="N641" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="O641" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P641" t="n">
-        <v>5707</v>
+        <v>12000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 14 kilos empedrada</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>713</v>
+        <v>857</v>
       </c>
       <c r="T641" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,41 +51715,41 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N642" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O642" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P642" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T642" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,32 +51804,32 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="N643" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O643" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P643" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="T643" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,41 +51875,41 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="N644" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O644" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P644" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="T644" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="645">
@@ -51955,41 +51955,41 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
+        <v>145</v>
+      </c>
+      <c r="N645" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O645" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P645" t="n">
+        <v>7707</v>
+      </c>
+      <c r="Q645" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R645" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S645" t="n">
+        <v>963</v>
+      </c>
+      <c r="T645" t="n">
         <v>8</v>
-      </c>
-      <c r="N645" t="n">
-        <v>230000</v>
-      </c>
-      <c r="O645" t="n">
-        <v>230000</v>
-      </c>
-      <c r="P645" t="n">
-        <v>230000</v>
-      </c>
-      <c r="Q645" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R645" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S645" t="n">
-        <v>548</v>
-      </c>
-      <c r="T645" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N646" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O646" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P646" t="n">
-        <v>7000</v>
+        <v>9708</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>875</v>
+        <v>1214</v>
       </c>
       <c r="T646" t="n">
         <v>8</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="N647" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O647" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P647" t="n">
-        <v>9000</v>
+        <v>5707</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>1125</v>
+        <v>713</v>
       </c>
       <c r="T647" t="n">
         <v>8</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
         <v>80</v>
       </c>
       <c r="N648" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O648" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P648" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T648" t="n">
         <v>8</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,41 +52275,41 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N649" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="O649" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="P649" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>1000</v>
+        <v>476</v>
       </c>
       <c r="T649" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52364,32 +52364,32 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="N650" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="O650" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="P650" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>938</v>
+        <v>643</v>
       </c>
       <c r="T650" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52444,32 +52444,32 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N651" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O651" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P651" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>750</v>
+        <v>548</v>
       </c>
       <c r="T651" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,20 +52524,20 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="N652" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O652" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P652" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
@@ -52546,10 +52546,10 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>933</v>
+        <v>875</v>
       </c>
       <c r="T652" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653">
@@ -52567,68 +52567,548 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E653" t="n">
+        <v>13</v>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G653" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I653" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M653" t="n">
+        <v>95</v>
+      </c>
+      <c r="N653" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O653" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P653" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q653" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R653" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S653" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T653" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>9</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D654" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E654" t="n">
+        <v>13</v>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G654" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I654" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>Doctor Davis</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M654" t="n">
+        <v>80</v>
+      </c>
+      <c r="N654" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O654" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P654" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q654" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R654" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S654" t="n">
+        <v>625</v>
+      </c>
+      <c r="T654" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>9</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D655" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E655" t="n">
+        <v>13</v>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G655" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I655" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M655" t="n">
+        <v>70</v>
+      </c>
+      <c r="N655" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O655" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P655" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q655" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S655" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T655" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>9</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D656" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E656" t="n">
+        <v>13</v>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G656" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I656" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M656" t="n">
+        <v>105</v>
+      </c>
+      <c r="N656" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O656" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P656" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q656" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R656" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S656" t="n">
+        <v>938</v>
+      </c>
+      <c r="T656" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>9</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D657" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E657" t="n">
+        <v>13</v>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G657" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I657" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M657" t="n">
+        <v>95</v>
+      </c>
+      <c r="N657" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O657" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P657" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q657" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R657" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S657" t="n">
+        <v>750</v>
+      </c>
+      <c r="T657" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>9</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D658" s="2" t="n">
         <v>44554</v>
       </c>
-      <c r="E653" t="n">
-        <v>13</v>
-      </c>
-      <c r="F653" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G653" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I653" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J653" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K653" t="inlineStr">
+      <c r="E658" t="n">
+        <v>13</v>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G658" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I658" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L653" t="inlineStr">
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M658" t="n">
+        <v>380</v>
+      </c>
+      <c r="N658" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O658" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P658" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q658" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R658" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S658" t="n">
+        <v>933</v>
+      </c>
+      <c r="T658" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>9</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E659" t="n">
+        <v>13</v>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G659" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I659" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M653" t="n">
+      <c r="M659" t="n">
         <v>310</v>
       </c>
-      <c r="N653" t="n">
+      <c r="N659" t="n">
         <v>12000</v>
       </c>
-      <c r="O653" t="n">
+      <c r="O659" t="n">
         <v>12000</v>
       </c>
-      <c r="P653" t="n">
+      <c r="P659" t="n">
         <v>12000</v>
       </c>
-      <c r="Q653" t="inlineStr">
+      <c r="Q659" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R653" t="inlineStr">
+      <c r="R659" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S653" t="n">
+      <c r="S659" t="n">
         <v>800</v>
       </c>
-      <c r="T653" t="n">
+      <c r="T659" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T676"/>
+  <dimension ref="A1:T682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53324,32 +53324,32 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N662" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O662" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P662" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T662" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,41 +53395,41 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N663" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O663" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P663" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T663" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,41 +53475,41 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N664" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="O664" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="P664" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T664" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,7 +53555,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -53564,32 +53564,32 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N665" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O665" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P665" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T665" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,7 +53635,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
@@ -53644,32 +53644,32 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N666" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O666" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P666" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T666" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="667">
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,41 +53715,41 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N667" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O667" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P667" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T667" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N668" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O668" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P668" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T668" t="n">
         <v>18</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,36 +53880,36 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="N669" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O669" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P669" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T669" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,36 +53960,36 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N670" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O670" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P670" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T670" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,41 +54035,41 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N671" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O671" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P671" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T671" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,41 +54115,41 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="N672" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O672" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P672" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T672" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,29 +54195,29 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="N673" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O673" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P673" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
@@ -54229,7 +54229,7 @@
         <v>1000</v>
       </c>
       <c r="T673" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,41 +54275,41 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="N674" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O674" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P674" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T674" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="675">
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N675" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O675" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P675" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T675" t="n">
         <v>8</v>
@@ -54435,40 +54435,520 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M676" t="n">
+        <v>50</v>
+      </c>
+      <c r="N676" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O676" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P676" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q676" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R676" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S676" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T676" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>9</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D677" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E677" t="n">
+        <v>13</v>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G677" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I677" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M677" t="n">
+        <v>70</v>
+      </c>
+      <c r="N677" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O677" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P677" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q677" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R677" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S677" t="n">
+        <v>750</v>
+      </c>
+      <c r="T677" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>9</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D678" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E678" t="n">
+        <v>13</v>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G678" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I678" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M678" t="n">
+        <v>65</v>
+      </c>
+      <c r="N678" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O678" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P678" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q678" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S678" t="n">
+        <v>625</v>
+      </c>
+      <c r="T678" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>9</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E679" t="n">
+        <v>13</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
           <t>Río Copiapó</t>
         </is>
       </c>
-      <c r="L676" t="inlineStr">
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M679" t="n">
+        <v>80</v>
+      </c>
+      <c r="N679" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O679" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P679" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q679" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S679" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T679" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>9</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M680" t="n">
+        <v>45</v>
+      </c>
+      <c r="N680" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O680" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P680" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S680" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T680" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>9</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E681" t="n">
+        <v>13</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M681" t="n">
+        <v>95</v>
+      </c>
+      <c r="N681" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O681" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P681" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S681" t="n">
+        <v>750</v>
+      </c>
+      <c r="T681" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>9</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M676" t="n">
+      <c r="M682" t="n">
         <v>55</v>
       </c>
-      <c r="N676" t="n">
+      <c r="N682" t="n">
         <v>5000</v>
       </c>
-      <c r="O676" t="n">
+      <c r="O682" t="n">
         <v>5000</v>
       </c>
-      <c r="P676" t="n">
+      <c r="P682" t="n">
         <v>5000</v>
       </c>
-      <c r="Q676" t="inlineStr">
+      <c r="Q682" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R676" t="inlineStr">
+      <c r="R682" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S676" t="n">
+      <c r="S682" t="n">
         <v>625</v>
       </c>
-      <c r="T676" t="n">
+      <c r="T682" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T742"/>
+  <dimension ref="A1:T748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,41 +56595,41 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>250</v>
+        <v>570</v>
       </c>
       <c r="N703" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O703" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P703" t="n">
-        <v>9000</v>
+        <v>14561</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="T703" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44167</v>
+        <v>44610</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N704" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O704" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P704" t="n">
-        <v>12000</v>
+        <v>16538</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>750</v>
+        <v>1034</v>
       </c>
       <c r="T704" t="n">
         <v>16</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44167</v>
+        <v>44610</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56755,7 +56755,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
@@ -56764,16 +56764,16 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>85</v>
+        <v>760</v>
       </c>
       <c r="N705" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O705" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P705" t="n">
-        <v>10000</v>
+        <v>12553</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>625</v>
+        <v>785</v>
       </c>
       <c r="T705" t="n">
         <v>16</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44167</v>
+        <v>44610</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,7 +56835,7 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
@@ -56844,16 +56844,16 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="N706" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O706" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P706" t="n">
-        <v>8000</v>
+        <v>9591</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="T706" t="n">
         <v>16</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44167</v>
+        <v>44610</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,41 +56915,41 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="N707" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O707" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P707" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>1000</v>
+        <v>571</v>
       </c>
       <c r="T707" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44167</v>
+        <v>44610</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,41 +56995,41 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="N708" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O708" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P708" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1250</v>
+        <v>524</v>
       </c>
       <c r="T708" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,7 +57075,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -57084,32 +57084,32 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N709" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O709" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P709" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T709" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="710">
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,7 +57155,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -57164,16 +57164,16 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N710" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O710" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P710" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T710" t="n">
         <v>16</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -57244,16 +57244,16 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N711" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O711" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P711" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57262,11 +57262,11 @@
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T711" t="n">
         <v>16</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,7 +57315,7 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
@@ -57324,16 +57324,16 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N712" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O712" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P712" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57342,11 +57342,11 @@
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T712" t="n">
         <v>16</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,7 +57395,7 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T713" t="n">
         <v>8</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,7 +57475,7 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
@@ -57484,16 +57484,16 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N714" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O714" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P714" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="T714" t="n">
         <v>8</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57555,7 +57555,7 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
@@ -57564,16 +57564,16 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N715" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O715" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P715" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T715" t="n">
         <v>8</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,7 +57635,7 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
@@ -57644,32 +57644,32 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N716" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O716" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P716" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T716" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,41 +57715,41 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N717" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O717" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P717" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="T717" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57795,41 +57795,41 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N718" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O718" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P718" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T718" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,41 +57875,41 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N719" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O719" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P719" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T719" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,16 +57955,16 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N720" t="n">
         <v>9000</v>
@@ -57977,19 +57977,19 @@
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T720" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,41 +58035,41 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T721" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,7 +58115,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N722" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O722" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P722" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T722" t="n">
         <v>8</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,7 +58195,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -58204,16 +58204,16 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N723" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O723" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P723" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="T723" t="n">
         <v>8</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,7 +58275,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -58284,16 +58284,16 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="N724" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O724" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P724" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T724" t="n">
         <v>8</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,41 +58355,41 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N725" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O725" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P725" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="T725" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,41 +58435,41 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N726" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O726" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P726" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T726" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,41 +58515,41 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N727" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O727" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P727" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>800</v>
+        <v>438</v>
       </c>
       <c r="T727" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,7 +58595,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -58604,32 +58604,32 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N728" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O728" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P728" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T728" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,41 +58675,41 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N729" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O729" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P729" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T729" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,41 +58755,41 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N730" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="O730" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="P730" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T730" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,7 +58835,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -58844,32 +58844,32 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N731" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O731" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P731" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T731" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N732" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O732" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P732" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T732" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,41 +58995,41 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N733" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O733" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P733" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T733" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="734">
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N734" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O734" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P734" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59102,11 +59102,11 @@
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T734" t="n">
         <v>18</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,36 +59160,36 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="N735" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O735" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P735" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T735" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,36 +59240,36 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N736" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O736" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P736" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T736" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,41 +59315,41 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N737" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O737" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P737" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T737" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,41 +59395,41 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="N738" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O738" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P738" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T738" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,29 +59475,29 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="N739" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O739" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P739" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
@@ -59509,7 +59509,7 @@
         <v>1000</v>
       </c>
       <c r="T739" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,41 +59555,41 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="N740" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O740" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P740" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T740" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="741">
@@ -59635,25 +59635,25 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N741" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O741" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P741" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T741" t="n">
         <v>8</v>
@@ -59715,40 +59715,520 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M742" t="n">
+        <v>50</v>
+      </c>
+      <c r="N742" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O742" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P742" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q742" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R742" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S742" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T742" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>9</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D743" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E743" t="n">
+        <v>13</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I743" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M743" t="n">
+        <v>70</v>
+      </c>
+      <c r="N743" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O743" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P743" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q743" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R743" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S743" t="n">
+        <v>750</v>
+      </c>
+      <c r="T743" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>9</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D744" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E744" t="n">
+        <v>13</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I744" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M744" t="n">
+        <v>65</v>
+      </c>
+      <c r="N744" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O744" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P744" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q744" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S744" t="n">
+        <v>625</v>
+      </c>
+      <c r="T744" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>9</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D745" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E745" t="n">
+        <v>13</v>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G745" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I745" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
           <t>Río Copiapó</t>
         </is>
       </c>
-      <c r="L742" t="inlineStr">
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M745" t="n">
+        <v>80</v>
+      </c>
+      <c r="N745" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O745" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P745" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q745" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R745" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S745" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T745" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>9</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D746" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E746" t="n">
+        <v>13</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G746" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I746" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M746" t="n">
+        <v>45</v>
+      </c>
+      <c r="N746" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O746" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P746" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q746" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S746" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T746" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>9</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D747" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E747" t="n">
+        <v>13</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G747" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I747" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M747" t="n">
+        <v>95</v>
+      </c>
+      <c r="N747" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O747" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P747" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q747" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R747" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S747" t="n">
+        <v>750</v>
+      </c>
+      <c r="T747" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>9</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D748" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E748" t="n">
+        <v>13</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G748" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I748" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M742" t="n">
+      <c r="M748" t="n">
         <v>55</v>
       </c>
-      <c r="N742" t="n">
+      <c r="N748" t="n">
         <v>5000</v>
       </c>
-      <c r="O742" t="n">
+      <c r="O748" t="n">
         <v>5000</v>
       </c>
-      <c r="P742" t="n">
+      <c r="P748" t="n">
         <v>5000</v>
       </c>
-      <c r="Q742" t="inlineStr">
+      <c r="Q748" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
-      <c r="R742" t="inlineStr">
+      <c r="R748" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S742" t="n">
+      <c r="S748" t="n">
         <v>625</v>
       </c>
-      <c r="T742" t="n">
+      <c r="T748" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T792"/>
+  <dimension ref="A1:T797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,7 +50835,7 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
@@ -50844,20 +50844,20 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N631" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O631" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P631" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
@@ -50866,10 +50866,10 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T631" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,7 +50915,7 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
@@ -50924,20 +50924,20 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N632" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="O632" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P632" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
@@ -50946,10 +50946,10 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T632" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,41 +50995,41 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N633" t="n">
-        <v>8000</v>
+        <v>11200</v>
       </c>
       <c r="O633" t="n">
-        <v>8000</v>
+        <v>11200</v>
       </c>
       <c r="P633" t="n">
-        <v>8000</v>
+        <v>11200</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T633" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="634">
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44573</v>
+        <v>44627</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,29 +51075,29 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N634" t="n">
-        <v>11000</v>
+        <v>9600</v>
       </c>
       <c r="O634" t="n">
-        <v>11000</v>
+        <v>9600</v>
       </c>
       <c r="P634" t="n">
-        <v>11000</v>
+        <v>9600</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
@@ -51106,10 +51106,10 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>917</v>
+        <v>600</v>
       </c>
       <c r="T634" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44573</v>
+        <v>44627</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,29 +51155,29 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N635" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O635" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P635" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
@@ -51186,10 +51186,10 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1083</v>
+        <v>500</v>
       </c>
       <c r="T635" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44573</v>
+        <v>44536</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O636" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P636" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51262,11 +51262,11 @@
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T636" t="n">
         <v>12</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44573</v>
+        <v>44536</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,41 +51315,41 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="N637" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O637" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P637" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T637" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44573</v>
+        <v>44536</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,41 +51395,41 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N638" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O638" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P638" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T638" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,7 +51475,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -51484,32 +51484,32 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N639" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O639" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P639" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S639" t="n">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="T639" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="640">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,32 +51564,32 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="N640" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O640" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P640" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1125</v>
+        <v>1083</v>
       </c>
       <c r="T640" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,32 +51644,32 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N641" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O641" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P641" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S641" t="n">
         <v>750</v>
       </c>
       <c r="T641" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,41 +51715,41 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>95</v>
+        <v>410</v>
       </c>
       <c r="N642" t="n">
-        <v>5000</v>
+        <v>21600</v>
       </c>
       <c r="O642" t="n">
-        <v>5000</v>
+        <v>21600</v>
       </c>
       <c r="P642" t="n">
-        <v>5000</v>
+        <v>21600</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="T642" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44567</v>
+        <v>44573</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,36 +51800,36 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N643" t="n">
-        <v>9600</v>
+        <v>18000</v>
       </c>
       <c r="O643" t="n">
-        <v>9600</v>
+        <v>18000</v>
       </c>
       <c r="P643" t="n">
-        <v>9600</v>
+        <v>18000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T643" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,16 +51875,16 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N644" t="n">
         <v>8000</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="N645" t="n">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="O645" t="n">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="P645" t="n">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>800</v>
+        <v>1125</v>
       </c>
       <c r="T645" t="n">
         <v>8</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,41 +52035,41 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="N646" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O646" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P646" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T646" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,41 +52115,41 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="N647" t="n">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="O647" t="n">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="P647" t="n">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T647" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="648">
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,32 +52204,32 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N648" t="n">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="O648" t="n">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="P648" t="n">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T648" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="649">
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,7 +52284,7 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N649" t="n">
         <v>8000</v>
@@ -52297,19 +52297,19 @@
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T649" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,41 +52355,41 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N650" t="n">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="O650" t="n">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="P650" t="n">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1083</v>
+        <v>800</v>
       </c>
       <c r="T650" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,29 +52435,29 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N651" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O651" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P651" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
@@ -52466,10 +52466,10 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T651" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,41 +52515,41 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N652" t="n">
-        <v>11000</v>
+        <v>12800</v>
       </c>
       <c r="O652" t="n">
-        <v>11000</v>
+        <v>12800</v>
       </c>
       <c r="P652" t="n">
-        <v>11000</v>
+        <v>12800</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1375</v>
+        <v>800</v>
       </c>
       <c r="T652" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,41 +52595,41 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N653" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O653" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P653" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T653" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52684,7 +52684,7 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N654" t="n">
         <v>8000</v>
@@ -52697,19 +52697,19 @@
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T654" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="655">
@@ -52755,41 +52755,41 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N655" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O655" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P655" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>750</v>
+        <v>1083</v>
       </c>
       <c r="T655" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="656">
@@ -52835,41 +52835,41 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N656" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O656" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P656" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T656" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N657" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O657" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P657" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T657" t="n">
         <v>8</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="N658" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O658" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P658" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="T658" t="n">
         <v>8</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53087,13 +53087,13 @@
         <v>280</v>
       </c>
       <c r="N659" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O659" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P659" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T659" t="n">
         <v>8</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N660" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O660" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P660" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T660" t="n">
         <v>8</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N661" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O661" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P661" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T661" t="n">
         <v>8</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
         <v>350</v>
       </c>
       <c r="N662" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O662" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P662" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T662" t="n">
         <v>8</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="N663" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O663" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P663" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1250</v>
+        <v>1750</v>
       </c>
       <c r="T663" t="n">
         <v>8</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N664" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P664" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T664" t="n">
         <v>8</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N665" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O665" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P665" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T665" t="n">
         <v>8</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="N666" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O666" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P666" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T666" t="n">
         <v>8</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44208</v>
+        <v>44537</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N667" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O667" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P667" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T667" t="n">
         <v>8</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,16 +53795,16 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N668" t="n">
         <v>10000</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N669" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O669" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P669" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T669" t="n">
         <v>8</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,32 +53964,32 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="N670" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O670" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P670" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T670" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N671" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O671" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P671" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T671" t="n">
         <v>8</v>
@@ -54120,36 +54120,36 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="N672" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="O672" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="P672" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>524</v>
+        <v>1000</v>
       </c>
       <c r="T672" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="673">
@@ -54195,41 +54195,41 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="N673" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O673" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P673" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>476</v>
+        <v>1250</v>
       </c>
       <c r="T673" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="674">
@@ -54275,41 +54275,41 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
+        <v>180</v>
+      </c>
+      <c r="N674" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O674" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P674" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q674" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R674" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S674" t="n">
+        <v>750</v>
+      </c>
+      <c r="T674" t="n">
         <v>8</v>
-      </c>
-      <c r="N674" t="n">
-        <v>170000</v>
-      </c>
-      <c r="O674" t="n">
-        <v>170000</v>
-      </c>
-      <c r="P674" t="n">
-        <v>170000</v>
-      </c>
-      <c r="Q674" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R674" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S674" t="n">
-        <v>405</v>
-      </c>
-      <c r="T674" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="675">
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,7 +54364,7 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N675" t="n">
         <v>280000</v>
@@ -54382,7 +54382,7 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S675" t="n">
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,32 +54444,32 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N676" t="n">
-        <v>240000</v>
+        <v>4000</v>
       </c>
       <c r="O676" t="n">
-        <v>240000</v>
+        <v>4000</v>
       </c>
       <c r="P676" t="n">
-        <v>240000</v>
+        <v>4000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="T676" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44524</v>
+        <v>44208</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,41 +54515,41 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>310</v>
+        <v>7</v>
       </c>
       <c r="N677" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O677" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P677" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1500</v>
+        <v>524</v>
       </c>
       <c r="T677" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44524</v>
+        <v>44208</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,41 +54595,41 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="N678" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="O678" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="P678" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>1750</v>
+        <v>476</v>
       </c>
       <c r="T678" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44524</v>
+        <v>44208</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,41 +54675,41 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>380</v>
+        <v>8</v>
       </c>
       <c r="N679" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O679" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P679" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>1250</v>
+        <v>405</v>
       </c>
       <c r="T679" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44524</v>
+        <v>44208</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,41 +54755,41 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="N680" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="O680" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="P680" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T680" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44530</v>
+        <v>44208</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,41 +54835,41 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="N681" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="O681" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="P681" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1375</v>
+        <v>571</v>
       </c>
       <c r="T681" t="n">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44530</v>
+        <v>44524</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="N682" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O682" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P682" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>1625</v>
+        <v>1500</v>
       </c>
       <c r="T682" t="n">
         <v>8</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44530</v>
+        <v>44524</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N683" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O683" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P683" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1125</v>
+        <v>1750</v>
       </c>
       <c r="T683" t="n">
         <v>8</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44530</v>
+        <v>44524</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N684" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O684" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P684" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T684" t="n">
         <v>8</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44617</v>
+        <v>44524</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,29 +55155,29 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N685" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O685" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P685" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
@@ -55186,10 +55186,10 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T685" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,29 +55235,29 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N686" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O686" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P686" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
@@ -55266,10 +55266,10 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>1062</v>
+        <v>1375</v>
       </c>
       <c r="T686" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,16 +55315,16 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="N687" t="n">
         <v>13000</v>
@@ -55337,7 +55337,7 @@
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
@@ -55346,10 +55346,10 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>812</v>
+        <v>1625</v>
       </c>
       <c r="T687" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,29 +55395,29 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="N688" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="O688" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="P688" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
@@ -55426,10 +55426,10 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>700</v>
+        <v>1125</v>
       </c>
       <c r="T688" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,29 +55475,29 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="N689" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="O689" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="P689" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
@@ -55506,10 +55506,10 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T689" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,7 +55555,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -55564,32 +55564,32 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N690" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O690" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P690" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T690" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="691">
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,41 +55635,41 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="N691" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O691" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P691" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>800</v>
+        <v>1062</v>
       </c>
       <c r="T691" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,25 +55715,25 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="N692" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O692" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P692" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T692" t="n">
         <v>16</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,41 +55795,41 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N693" t="n">
-        <v>15000</v>
+        <v>280000</v>
       </c>
       <c r="O693" t="n">
-        <v>15000</v>
+        <v>280000</v>
       </c>
       <c r="P693" t="n">
-        <v>15000</v>
+        <v>280000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>938</v>
+        <v>700</v>
       </c>
       <c r="T693" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="694">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,7 +55875,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -55884,32 +55884,32 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="N694" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O694" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P694" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T694" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44232</v>
+        <v>44557</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -55964,32 +55964,32 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="N695" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O695" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P695" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T695" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="696">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44232</v>
+        <v>44557</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,7 +56035,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -56044,32 +56044,32 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N696" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O696" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P696" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>688</v>
+        <v>800</v>
       </c>
       <c r="T696" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,38 +56115,38 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N697" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O697" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P697" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T697" t="n">
         <v>16</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56195,38 +56195,38 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N698" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O698" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P698" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T698" t="n">
         <v>16</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,29 +56284,29 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N699" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O699" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P699" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T699" t="n">
         <v>16</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M700" t="n">
         <v>80</v>
       </c>
       <c r="N700" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O700" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P700" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>500</v>
+        <v>812</v>
       </c>
       <c r="T700" t="n">
         <v>16</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,41 +56435,41 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N701" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O701" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P701" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T701" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,16 +56515,16 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N702" t="n">
         <v>9000</v>
@@ -56537,19 +56537,19 @@
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S702" t="n">
-        <v>1125</v>
+        <v>562</v>
       </c>
       <c r="T702" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,41 +56595,41 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N703" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O703" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P703" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S703" t="n">
         <v>750</v>
       </c>
       <c r="T703" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,41 +56675,41 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N704" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O704" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P704" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
         <v>625</v>
       </c>
       <c r="T704" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="705">
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44572</v>
+        <v>44232</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56755,41 +56755,41 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="N705" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O705" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P705" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>917</v>
+        <v>500</v>
       </c>
       <c r="T705" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,29 +56835,29 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>680</v>
+        <v>125</v>
       </c>
       <c r="N706" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O706" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P706" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
@@ -56866,10 +56866,10 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>1083</v>
+        <v>1000</v>
       </c>
       <c r="T706" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,16 +56915,16 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>480</v>
+        <v>140</v>
       </c>
       <c r="N707" t="n">
         <v>9000</v>
@@ -56937,7 +56937,7 @@
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
@@ -56946,10 +56946,10 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T707" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,41 +56995,41 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N708" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="O708" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="P708" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T708" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N709" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O709" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P709" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T709" t="n">
         <v>8</v>
@@ -57155,41 +57155,41 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="N710" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O710" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P710" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="T710" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,29 +57235,29 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>280</v>
+        <v>680</v>
       </c>
       <c r="N711" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O711" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P711" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
@@ -57266,10 +57266,10 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>875</v>
+        <v>1083</v>
       </c>
       <c r="T711" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,41 +57315,41 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="N712" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O712" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P712" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S712" t="n">
         <v>750</v>
       </c>
       <c r="T712" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,41 +57395,41 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="N713" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O713" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P713" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>1125</v>
+        <v>1200</v>
       </c>
       <c r="T713" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N714" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O714" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P714" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T714" t="n">
         <v>8</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57555,7 +57555,7 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
@@ -57564,20 +57564,20 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="N715" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O715" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P715" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
@@ -57586,10 +57586,10 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T715" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="716">
@@ -57640,36 +57640,36 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N716" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O716" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P716" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T716" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="717">
@@ -57715,7 +57715,7 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
@@ -57724,32 +57724,32 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N717" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O717" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P717" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T717" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718">
@@ -57795,7 +57795,7 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -57804,7 +57804,7 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N718" t="n">
         <v>9000</v>
@@ -57875,7 +57875,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
@@ -57884,7 +57884,7 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N719" t="n">
         <v>5000</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,25 +57955,25 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N720" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O720" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P720" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T720" t="n">
         <v>16</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="N721" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O721" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P721" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T721" t="n">
         <v>16</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,41 +58115,41 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N722" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O722" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P722" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T722" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,41 +58195,41 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N723" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O723" t="n">
         <v>9000</v>
       </c>
       <c r="P723" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>531</v>
+        <v>1125</v>
       </c>
       <c r="T723" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44236</v>
+        <v>44257</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,41 +58275,41 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N724" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O724" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P724" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T724" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,7 +58355,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
@@ -58364,7 +58364,7 @@
         </is>
       </c>
       <c r="M725" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N725" t="n">
         <v>13000</v>
@@ -58377,7 +58377,7 @@
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,7 +58435,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N726" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O726" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P726" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T726" t="n">
         <v>16</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,7 +58515,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -58524,7 +58524,7 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N727" t="n">
         <v>10000</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,29 +58595,29 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N728" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O728" t="n">
         <v>9000</v>
       </c>
       <c r="P728" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T728" t="n">
         <v>16</v>
@@ -58680,24 +58680,24 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="N729" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O729" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P729" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T729" t="n">
         <v>16</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,7 +58755,7 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
@@ -58764,32 +58764,32 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="N730" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O730" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P730" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T730" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,7 +58835,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -58844,32 +58844,32 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N731" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O731" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P731" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T731" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="N732" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O732" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P732" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S732" t="n">
         <v>625</v>
       </c>
       <c r="T732" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44229</v>
+        <v>44236</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N733" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O733" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P733" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>812</v>
+        <v>562</v>
       </c>
       <c r="T733" t="n">
         <v>16</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44229</v>
+        <v>44236</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="N734" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O734" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P734" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T734" t="n">
         <v>16</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,7 +59155,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -59164,32 +59164,32 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N735" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O735" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P735" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T735" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,41 +59235,41 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N736" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O736" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P736" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>812</v>
+        <v>1125</v>
       </c>
       <c r="T736" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="N737" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O737" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P737" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59342,11 +59342,11 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T737" t="n">
         <v>8</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,36 +59400,36 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N738" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O738" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P738" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>1250</v>
+        <v>812</v>
       </c>
       <c r="T738" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59484,32 +59484,32 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T739" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,7 +59555,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="N740" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O740" t="n">
         <v>15000</v>
       </c>
       <c r="P740" t="n">
-        <v>14561</v>
+        <v>15000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="T740" t="n">
         <v>16</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59635,25 +59635,25 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="N741" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O741" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P741" t="n">
-        <v>16538</v>
+        <v>13000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1034</v>
+        <v>812</v>
       </c>
       <c r="T741" t="n">
         <v>16</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,41 +59715,41 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>760</v>
+        <v>75</v>
       </c>
       <c r="N742" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O742" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P742" t="n">
-        <v>12553</v>
+        <v>8000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>785</v>
+        <v>1000</v>
       </c>
       <c r="T742" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,41 +59795,41 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="N743" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O743" t="n">
         <v>10000</v>
       </c>
       <c r="P743" t="n">
-        <v>9591</v>
+        <v>10000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>599</v>
+        <v>1250</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,7 +59875,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -59884,20 +59884,20 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N744" t="n">
-        <v>240000</v>
+        <v>6000</v>
       </c>
       <c r="O744" t="n">
-        <v>240000</v>
+        <v>6000</v>
       </c>
       <c r="P744" t="n">
-        <v>240000</v>
+        <v>6000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
@@ -59906,10 +59906,10 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>571</v>
+        <v>750</v>
       </c>
       <c r="T744" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
     </row>
     <row r="745">
@@ -59955,41 +59955,41 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>5</v>
+        <v>570</v>
       </c>
       <c r="N745" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="O745" t="n">
-        <v>220000</v>
+        <v>15000</v>
       </c>
       <c r="P745" t="n">
-        <v>220000</v>
+        <v>14561</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>524</v>
+        <v>910</v>
       </c>
       <c r="T745" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60040,24 +60040,24 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="N746" t="n">
-        <v>300000</v>
+        <v>16000</v>
       </c>
       <c r="O746" t="n">
-        <v>300000</v>
+        <v>17000</v>
       </c>
       <c r="P746" t="n">
-        <v>300000</v>
+        <v>16538</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
@@ -60066,10 +60066,10 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>750</v>
+        <v>1034</v>
       </c>
       <c r="T746" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="747">
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>60</v>
+        <v>760</v>
       </c>
       <c r="N747" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O747" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P747" t="n">
-        <v>15000</v>
+        <v>12553</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>938</v>
+        <v>785</v>
       </c>
       <c r="T747" t="n">
         <v>16</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60200,24 +60200,24 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="N748" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="O748" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P748" t="n">
-        <v>270000</v>
+        <v>9591</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
@@ -60226,10 +60226,10 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>675</v>
+        <v>599</v>
       </c>
       <c r="T748" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,7 +60275,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -60284,32 +60284,32 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="N749" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="O749" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="P749" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>812</v>
+        <v>571</v>
       </c>
       <c r="T749" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,7 +60355,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -60364,32 +60364,32 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N750" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O750" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P750" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>625</v>
+        <v>524</v>
       </c>
       <c r="T750" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="751">
@@ -60435,7 +60435,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -60444,16 +60444,16 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N751" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O751" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P751" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="T751" t="n">
         <v>400</v>
@@ -60515,41 +60515,41 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="N752" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="O752" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="P752" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T752" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44522</v>
+        <v>44615</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,7 +60595,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -60604,32 +60604,32 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="N753" t="n">
-        <v>9000</v>
+        <v>270000</v>
       </c>
       <c r="O753" t="n">
-        <v>9000</v>
+        <v>270000</v>
       </c>
       <c r="P753" t="n">
-        <v>9000</v>
+        <v>270000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>900</v>
+        <v>675</v>
       </c>
       <c r="T753" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,25 +60675,25 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N754" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O754" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P754" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60702,11 +60702,11 @@
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T754" t="n">
         <v>16</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,16 +60755,16 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N755" t="n">
         <v>10000</v>
@@ -60782,7 +60782,7 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S755" t="n">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,29 +60835,29 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="N756" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="O756" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="P756" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,10 +60866,10 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T756" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,41 +60915,41 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="N757" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O757" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="P757" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T757" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,41 +60995,41 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N758" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O758" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P758" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="T758" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759">
@@ -61075,41 +61075,41 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N759" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O759" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P759" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S759" t="n">
         <v>750</v>
       </c>
       <c r="T759" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,25 +61155,25 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N760" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O760" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P760" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T760" t="n">
         <v>16</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,25 +61235,25 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N761" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O761" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P761" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61262,11 +61262,11 @@
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T761" t="n">
         <v>16</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,41 +61315,41 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N762" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O762" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P762" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T762" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,25 +61395,25 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N763" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O763" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P763" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T763" t="n">
         <v>8</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,25 +61475,25 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="N764" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O764" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P764" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T764" t="n">
         <v>8</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,41 +61555,41 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N765" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O765" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P765" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T765" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,41 +61635,41 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N766" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O766" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P766" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T766" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,41 +61715,41 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N767" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O767" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P767" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T767" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="768">
@@ -61795,25 +61795,25 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M768" t="n">
         <v>120</v>
       </c>
       <c r="N768" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O768" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P768" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T768" t="n">
         <v>8</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N769" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O769" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P769" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>688</v>
+        <v>1125</v>
       </c>
       <c r="T769" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,41 +61955,41 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N770" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O770" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P770" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T770" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,16 +62035,16 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N771" t="n">
         <v>7000</v>
@@ -62057,19 +62057,19 @@
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>438</v>
+        <v>875</v>
       </c>
       <c r="T771" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N772" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O772" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P772" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T772" t="n">
         <v>8</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N773" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O773" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P773" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T773" t="n">
         <v>8</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,32 +62284,32 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="N774" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O774" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P774" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T774" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62355,41 +62355,41 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="N775" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O775" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P775" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1200</v>
+        <v>562</v>
       </c>
       <c r="T775" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,41 +62435,41 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N776" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O776" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P776" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1000</v>
+        <v>438</v>
       </c>
       <c r="T776" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="777">
@@ -62515,41 +62515,41 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N777" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O777" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P777" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T777" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,41 +62595,41 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M778" t="n">
         <v>220</v>
       </c>
       <c r="N778" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O778" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P778" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T778" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62675,7 +62675,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -62684,32 +62684,32 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N779" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O779" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P779" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T779" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62755,29 +62755,29 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N780" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O780" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P780" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,10 +62786,10 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T780" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,41 +62835,41 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N781" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O781" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P781" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
         <v>1000</v>
       </c>
       <c r="T781" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,41 +62915,41 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N782" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O782" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P782" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
         <v>800</v>
       </c>
       <c r="T782" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,25 +62995,25 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="N783" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O783" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P783" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63022,11 +63022,11 @@
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T783" t="n">
         <v>18</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63075,7 +63075,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -63084,16 +63084,16 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N784" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O784" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P784" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63102,11 +63102,11 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T784" t="n">
         <v>18</v>
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63160,36 +63160,36 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="N785" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="O785" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="P785" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="T785" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,16 +63235,16 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N786" t="n">
         <v>10000</v>
@@ -63257,19 +63257,19 @@
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T786" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -63324,32 +63324,32 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N787" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O787" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P787" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T787" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63395,29 +63395,29 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>65</v>
+        <v>550</v>
       </c>
       <c r="N788" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O788" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P788" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
@@ -63426,10 +63426,10 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T788" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63475,41 +63475,41 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N789" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O789" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P789" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T789" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="790">
@@ -63555,25 +63555,25 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N790" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O790" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P790" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T790" t="n">
         <v>8</v>
@@ -63635,25 +63635,25 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N791" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O791" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P791" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T791" t="n">
         <v>8</v>
@@ -63715,40 +63715,440 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M792" t="n">
+        <v>70</v>
+      </c>
+      <c r="N792" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O792" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P792" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q792" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S792" t="n">
+        <v>750</v>
+      </c>
+      <c r="T792" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>9</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E793" t="n">
+        <v>13</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M793" t="n">
+        <v>65</v>
+      </c>
+      <c r="N793" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O793" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P793" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S793" t="n">
+        <v>625</v>
+      </c>
+      <c r="T793" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>9</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E794" t="n">
+        <v>13</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
           <t>Río Copiapó</t>
         </is>
       </c>
-      <c r="L792" t="inlineStr">
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M794" t="n">
+        <v>80</v>
+      </c>
+      <c r="N794" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O794" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P794" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q794" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S794" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T794" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>9</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E795" t="n">
+        <v>13</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M795" t="n">
+        <v>45</v>
+      </c>
+      <c r="N795" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O795" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P795" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q795" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S795" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T795" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>9</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D796" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E796" t="n">
+        <v>13</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I796" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>Río Copiapó</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>Primera</t>
+     